--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/48_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/48_455-55R22.xlsx
@@ -1094,100 +1094,100 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.2605598194680626</v>
+        <v>0.2070015311741191</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>0.006872087882007744</v>
       </c>
       <c r="AY2">
-        <v>0.1333392950682297</v>
+        <v>0.1108138758606203</v>
       </c>
       <c r="AZ2">
-        <v>0.01557568371055711</v>
+        <v>0.0217763112759588</v>
       </c>
       <c r="BA2">
-        <v>0.05144960314866772</v>
+        <v>0.04889951497234081</v>
       </c>
       <c r="BB2">
-        <v>0.001891878845235774</v>
+        <v>0.01143039333565801</v>
       </c>
       <c r="BC2">
-        <v>0.01102334401284815</v>
+        <v>0.01833442260446578</v>
       </c>
       <c r="BD2">
-        <v>0.00465182763312846</v>
+        <v>0.0135171085409687</v>
       </c>
       <c r="BE2">
-        <v>0.002763541283223176</v>
+        <v>0.01208943138419923</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>0.008928412037176009</v>
       </c>
       <c r="BG2">
-        <v>0.02075608389873396</v>
+        <v>0.02569305780751919</v>
       </c>
       <c r="BH2">
-        <v>0.1605308550461695</v>
+        <v>0.1313726057584342</v>
       </c>
       <c r="BI2">
-        <v>0.03133180736799802</v>
+        <v>0.03368904782997335</v>
       </c>
       <c r="BJ2">
-        <v>0.1343854541377556</v>
+        <v>0.1116048456232225</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.00142572771971386</v>
       </c>
       <c r="BL2">
-        <v>0.0809223338361748</v>
+        <v>0.0711829702079744</v>
       </c>
       <c r="BM2">
-        <v>0.01135239219991543</v>
+        <v>0.01858320615372774</v>
       </c>
       <c r="BN2">
-        <v>0.02990757964465863</v>
+        <v>0.03261223160093508</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.0004167585583357148</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.0001940210616993486</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>0.00422474094103397</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.004951110826750593</v>
       </c>
       <c r="BS2">
-        <v>0.002248160795603079</v>
+        <v>0.01169976752349461</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.0002380873682703244</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.005025472985825408</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>0.002881127837883538</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>0.008669122586069489</v>
       </c>
       <c r="BX2">
-        <v>0.0009379242810787525</v>
+        <v>0.01070913665765932</v>
       </c>
       <c r="BY2">
-        <v>0.001698601146577091</v>
+        <v>0.01128426181524438</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>0.009779133632643695</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>0.0003239337864602174</v>
       </c>
       <c r="CB2">
-        <v>0.04467381447538246</v>
+        <v>0.0437765426496145</v>
       </c>
       <c r="CC2">
         <v>0</v>
@@ -1339,100 +1339,100 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.3134382243586167</v>
+        <v>0.2508452251781463</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>0.00195321233451767</v>
       </c>
       <c r="AY3">
-        <v>0.1428383548134479</v>
+        <v>0.1197566699132402</v>
       </c>
       <c r="AZ3">
-        <v>0.01153690470924683</v>
+        <v>0.01886493157700592</v>
       </c>
       <c r="BA3">
-        <v>0.04432734569614721</v>
+        <v>0.04406103252908699</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>0.008958121066016079</v>
       </c>
       <c r="BC3">
-        <v>0.01881961104627377</v>
+        <v>0.02446094671280105</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>0.001002133622738452</v>
       </c>
       <c r="BE3">
-        <v>0.004130124788082941</v>
+        <v>0.01317357857879383</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>0.001606609300448242</v>
       </c>
       <c r="BG3">
-        <v>0.0096280222331679</v>
+        <v>0.01739815058457714</v>
       </c>
       <c r="BH3">
-        <v>0.1741062794079408</v>
+        <v>0.1437828727008037</v>
       </c>
       <c r="BI3">
-        <v>0.07177018864365892</v>
+        <v>0.06514805119998082</v>
       </c>
       <c r="BJ3">
-        <v>0.04872808538064579</v>
+        <v>0.0474425509843817</v>
       </c>
       <c r="BK3">
-        <v>0.003341768899028189</v>
+        <v>0.0125678076904204</v>
       </c>
       <c r="BL3">
-        <v>0.03314731615159337</v>
+        <v>0.03547032302431508</v>
       </c>
       <c r="BM3">
-        <v>0.00506446169986638</v>
+        <v>0.01389152095602371</v>
       </c>
       <c r="BN3">
-        <v>0.02213569322971907</v>
+        <v>0.02700901678885962</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>0.001686808100498026</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.0008997439792880778</v>
       </c>
       <c r="BQ3">
-        <v>0.02428874147716304</v>
+        <v>0.02866341420971076</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>0.002550490484119844</v>
       </c>
       <c r="BS3">
-        <v>0.01704531394526032</v>
+        <v>0.02309758081924752</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>0.002991877948659485</v>
       </c>
       <c r="BU3">
-        <v>0.004583697710067895</v>
+        <v>0.01352210298979607</v>
       </c>
       <c r="BV3">
-        <v>0.005746246653726636</v>
+        <v>0.01441540297798052</v>
       </c>
       <c r="BW3">
-        <v>0.0151769952252822</v>
+        <v>0.02166196892558505</v>
       </c>
       <c r="BX3">
-        <v>0</v>
+        <v>0.001102450787770548</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>7.421697388227925E-05</v>
       </c>
       <c r="BZ3">
-        <v>0</v>
+        <v>0.003887216682471336</v>
       </c>
       <c r="CA3">
-        <v>0</v>
+        <v>0.004889372493890007</v>
       </c>
       <c r="CB3">
-        <v>0.0301466239310643</v>
+        <v>0.03316459788494355</v>
       </c>
       <c r="CC3">
         <v>0</v>
@@ -1587,100 +1587,100 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.2371450737113429</v>
+        <v>0.184592702948935</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.003829313725464167</v>
       </c>
       <c r="AZ4">
-        <v>0.1718116493888919</v>
+        <v>0.1364924453013699</v>
       </c>
       <c r="BA4">
-        <v>0.01155098345208545</v>
+        <v>0.01850415060728946</v>
       </c>
       <c r="BB4">
-        <v>0.04795883080954184</v>
+        <v>0.04530860569973573</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>0.005991655292886908</v>
       </c>
       <c r="BD4">
-        <v>0.01566704258236823</v>
+        <v>0.0215345061521339</v>
       </c>
       <c r="BE4">
-        <v>0.02330033608720819</v>
+        <v>0.02715434604404228</v>
       </c>
       <c r="BF4">
-        <v>0.01147911876082595</v>
+        <v>0.01845124185191358</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>0.009843673937682299</v>
       </c>
       <c r="BH4">
-        <v>0.04833891815611251</v>
+        <v>0.04558843642173182</v>
       </c>
       <c r="BI4">
-        <v>0.1446110901864938</v>
+        <v>0.1164666481024375</v>
       </c>
       <c r="BJ4">
-        <v>0.06393150330817049</v>
+        <v>0.05706812497293878</v>
       </c>
       <c r="BK4">
-        <v>0.07085246636581628</v>
+        <v>0.06216352766603848</v>
       </c>
       <c r="BL4">
-        <v>0.02611413669649911</v>
+        <v>0.02922594317337352</v>
       </c>
       <c r="BM4">
-        <v>0.04004091201069983</v>
+        <v>0.03947921686536042</v>
       </c>
       <c r="BN4">
-        <v>0.009376289962775033</v>
+        <v>0.01690308165636401</v>
       </c>
       <c r="BO4">
-        <v>0.02406257554946404</v>
+        <v>0.02771552762764786</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.001862013309202181</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>3.398637334129975E-05</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.008329919788072638</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.008367782232264863</v>
       </c>
       <c r="BT4">
-        <v>0.00916444107626488</v>
+        <v>0.01674711269975161</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>1.652965508288036E-05</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>0.009693228374354991</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>0.007181086010802492</v>
       </c>
       <c r="BX4">
-        <v>0.01392814647267863</v>
+        <v>0.02025428317643912</v>
       </c>
       <c r="BY4">
-        <v>0.0009503843313881941</v>
+        <v>0.01069969899294368</v>
       </c>
       <c r="BZ4">
-        <v>0</v>
+        <v>0.007413829695364967</v>
       </c>
       <c r="CA4">
-        <v>0</v>
+        <v>0.008294433412032287</v>
       </c>
       <c r="CB4">
-        <v>0</v>
+        <v>0.002915140149322496</v>
       </c>
       <c r="CC4">
-        <v>0.02971610109137296</v>
+        <v>0.03187780808367872</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -1832,100 +1832,100 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.2713070837673133</v>
+        <v>0.2114565339225154</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>0.008847355756410848</v>
       </c>
       <c r="AZ5">
-        <v>0.1681218698637197</v>
+        <v>0.1348373197965046</v>
       </c>
       <c r="BA5">
-        <v>0.02748009696032527</v>
+        <v>0.03040508861253977</v>
       </c>
       <c r="BB5">
-        <v>0.05152285502235969</v>
+        <v>0.04825781342111557</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.001906152170948397</v>
       </c>
       <c r="BD5">
-        <v>0.007275039541223416</v>
+        <v>0.01540201247152504</v>
       </c>
       <c r="BE5">
-        <v>0.02424184661209161</v>
+        <v>0.02800055614670842</v>
       </c>
       <c r="BF5">
-        <v>0.003825665148053303</v>
+        <v>0.01284071182356588</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.007715432428867642</v>
       </c>
       <c r="BH5">
-        <v>0.054935088523334</v>
+        <v>0.05079153544744548</v>
       </c>
       <c r="BI5">
-        <v>0.1143084733691273</v>
+        <v>0.09487868625895768</v>
       </c>
       <c r="BJ5">
-        <v>0.02492813296486079</v>
+        <v>0.02851015165003033</v>
       </c>
       <c r="BK5">
-        <v>0.08431682811602485</v>
+        <v>0.0726086709853955</v>
       </c>
       <c r="BL5">
-        <v>0.02908413862659222</v>
+        <v>0.03159615472797737</v>
       </c>
       <c r="BM5">
-        <v>0.03111450661451666</v>
+        <v>0.0331037854604845</v>
       </c>
       <c r="BN5">
-        <v>0.01322504805457976</v>
+        <v>0.01982013556387402</v>
       </c>
       <c r="BO5">
-        <v>0.02538503571592458</v>
+        <v>0.02884942050836916</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.001187571792513411</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.0001182213123535363</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.006276606198562879</v>
       </c>
       <c r="BS5">
-        <v>0.0001723264425930052</v>
+        <v>0.01012795938589557</v>
       </c>
       <c r="BT5">
-        <v>0.02912870875757922</v>
+        <v>0.03162924986128695</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>0.0002904745984395268</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.003572699688475443</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>0.002660025057820921</v>
       </c>
       <c r="BX5">
-        <v>0.0002384894648214687</v>
+        <v>0.01017708811835217</v>
       </c>
       <c r="BY5">
-        <v>0.0008359842936227797</v>
+        <v>0.010620752307195</v>
       </c>
       <c r="BZ5">
-        <v>0.004596580553926574</v>
+        <v>0.0134131478376137</v>
       </c>
       <c r="CA5">
-        <v>0.01343835554110361</v>
+        <v>0.0199785250401019</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>0.004884827241662989</v>
       </c>
       <c r="CC5">
-        <v>0.02051784604630679</v>
+        <v>0.02523533440649051</v>
       </c>
     </row>
     <row r="6" spans="1:81">
@@ -2074,100 +2074,100 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.1924368212432876</v>
+        <v>0.16395982590816</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>0.005131401900800051</v>
       </c>
       <c r="AY6">
-        <v>0.09506947079763566</v>
+        <v>0.08606069918750249</v>
       </c>
       <c r="AZ6">
-        <v>0.07249514301565829</v>
+        <v>0.06800002060815184</v>
       </c>
       <c r="BA6">
-        <v>0.08967607557102369</v>
+        <v>0.08174569239837406</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>5.995705994189102E-06</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>0.0009865381317301183</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>0.006928088108787929</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>5.469894608817773E-05</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>0.0005140809248661023</v>
       </c>
       <c r="BG6">
-        <v>0.1639004799288875</v>
+        <v>0.1411292152566441</v>
       </c>
       <c r="BH6">
-        <v>0.1702928832913681</v>
+        <v>0.1462434823831937</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>0.005722255130724187</v>
       </c>
       <c r="BJ6">
-        <v>0.03460803766118675</v>
+        <v>0.03768829488512044</v>
       </c>
       <c r="BK6">
-        <v>0.005820300075650163</v>
+        <v>0.01465655367091866</v>
       </c>
       <c r="BL6">
-        <v>0.04615675445203903</v>
+        <v>0.04692789058772447</v>
       </c>
       <c r="BM6">
-        <v>0.001701107425599377</v>
+        <v>0.01136097759983911</v>
       </c>
       <c r="BN6">
-        <v>0.07130827401405458</v>
+        <v>0.06705046145579148</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>0.001321792584041549</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>8.967689474899201E-05</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>0.004272635389262834</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>0.001240745399168196</v>
       </c>
       <c r="BS6">
-        <v>0.01686878650975714</v>
+        <v>0.0234959381346293</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>0.0008938592003211915</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>0.003916577626223335</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>0.0005534023858861975</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>0.007383527562479986</v>
       </c>
       <c r="BX6">
-        <v>0.002893553666939558</v>
+        <v>0.01231499884450243</v>
       </c>
       <c r="BY6">
-        <v>0.009942521052731577</v>
+        <v>0.01795455256679555</v>
       </c>
       <c r="BZ6">
-        <v>0.01032072745644992</v>
+        <v>0.01825713806835199</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>0.0009308419388072526</v>
       </c>
       <c r="CB6">
-        <v>0.01650906383773083</v>
+        <v>0.02320814061437006</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -2304,100 +2304,100 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0.1249383072306605</v>
+        <v>0.1053822355034332</v>
       </c>
       <c r="AS7">
-        <v>0.047019229619788</v>
+        <v>0.04589611010580452</v>
       </c>
       <c r="AT7">
-        <v>0.02320007643944295</v>
+        <v>0.02771174272882696</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>0.009131680410763746</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>0.0002156888599751324</v>
       </c>
       <c r="AW7">
-        <v>0.1099984473322792</v>
+        <v>0.09397662847383841</v>
       </c>
       <c r="AX7">
-        <v>0.01335765155176704</v>
+        <v>0.02019769432069572</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>0.002751322310550138</v>
       </c>
       <c r="AZ7">
-        <v>0.05313926114920927</v>
+        <v>0.0505683543643248</v>
       </c>
       <c r="BA7">
-        <v>0.1000651676034508</v>
+        <v>0.08639321832992312</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>0.005821127677368193</v>
       </c>
       <c r="BC7">
-        <v>0.0009375147419369306</v>
+        <v>0.0107157312587746</v>
       </c>
       <c r="BD7">
-        <v>0.02984245188229444</v>
+        <v>0.03278276244116066</v>
       </c>
       <c r="BE7">
-        <v>0.07279839857370834</v>
+        <v>0.06557682148046771</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>0.000103889145812293</v>
       </c>
       <c r="BG7">
-        <v>0.02513495578254614</v>
+        <v>0.02918889670397948</v>
       </c>
       <c r="BH7">
-        <v>0.01437312615742935</v>
+        <v>0.02097294284240188</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>4.740645281467772E-06</v>
       </c>
       <c r="BJ7">
-        <v>0.02889195878131369</v>
+        <v>0.03205712305311646</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>0.001835370037122766</v>
       </c>
       <c r="BL7">
-        <v>0.09379050598663051</v>
+        <v>0.08160292410146865</v>
       </c>
       <c r="BM7">
-        <v>0.0218047460642912</v>
+        <v>0.02664649914262959</v>
       </c>
       <c r="BN7">
-        <v>0.04327700101944695</v>
+        <v>0.04303916304467276</v>
       </c>
       <c r="BO7">
-        <v>0.07395777618282928</v>
+        <v>0.06646193054430688</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>0.001060228024715412</v>
       </c>
       <c r="BQ7">
-        <v>0.04997361954602422</v>
+        <v>0.0481515938077966</v>
       </c>
       <c r="BR7">
-        <v>0.02456271539708192</v>
+        <v>0.02875202855344375</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>0.001487134916017105</v>
       </c>
       <c r="BT7">
-        <v>0.004350476736461478</v>
+        <v>0.0133213047769511</v>
       </c>
       <c r="BU7">
-        <v>0</v>
+        <v>0.004051857799224761</v>
       </c>
       <c r="BV7">
-        <v>0.0445866122214075</v>
+        <v>0.04403896564206765</v>
       </c>
       <c r="BW7">
-        <v>0</v>
+        <v>0.0001022889530845127</v>
       </c>
       <c r="BX7">
         <v>0</v>
@@ -2564,100 +2564,100 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.1745405824992442</v>
+        <v>0.142876832261454</v>
       </c>
       <c r="AX8">
-        <v>0.06302640764864402</v>
+        <v>0.05798167438914762</v>
       </c>
       <c r="AY8">
-        <v>0.0006412606801945696</v>
+        <v>0.01048818840076031</v>
       </c>
       <c r="AZ8">
-        <v>0.02112261539162241</v>
+        <v>0.02608053658425237</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>0.009192548542798442</v>
       </c>
       <c r="BB8">
-        <v>0.1792067730205693</v>
+        <v>0.1464291786918596</v>
       </c>
       <c r="BC8">
-        <v>0.08625977893897682</v>
+        <v>0.07566911839562675</v>
       </c>
       <c r="BD8">
-        <v>0.002217535454742616</v>
+        <v>0.01168819813956412</v>
       </c>
       <c r="BE8">
-        <v>0.08448709392345212</v>
+        <v>0.07431958256798454</v>
       </c>
       <c r="BF8">
-        <v>0.02001099148854144</v>
+        <v>0.02523426312284604</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>0.006831857121629389</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>0.0002083300327096901</v>
       </c>
       <c r="BI8">
-        <v>0.1566134055296756</v>
+        <v>0.1292289662293976</v>
       </c>
       <c r="BJ8">
-        <v>0.009489432116344116</v>
+        <v>0.01722425502152413</v>
       </c>
       <c r="BK8">
-        <v>0.009379825978747078</v>
+        <v>0.01714081244243012</v>
       </c>
       <c r="BL8">
-        <v>0</v>
+        <v>0.0002185943517620744</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>0.0005924428994500043</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>1.567439270440266E-07</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>0.002239556201398477</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>0.005337424780210793</v>
       </c>
       <c r="BQ8">
-        <v>0.05891450757578248</v>
+        <v>0.05485130637711323</v>
       </c>
       <c r="BR8">
-        <v>0.003410614430718909</v>
+        <v>0.01259648292179323</v>
       </c>
       <c r="BS8">
-        <v>0.02616641136413136</v>
+        <v>0.02992035206901491</v>
       </c>
       <c r="BT8">
-        <v>0.03324028820100944</v>
+        <v>0.03530565749445145</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>0.007016598661059591</v>
       </c>
       <c r="BV8">
-        <v>0.05734957228253272</v>
+        <v>0.05365992932609372</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>0.002308370793002874</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>0.005548171855272109</v>
       </c>
       <c r="BY8">
-        <v>0</v>
+        <v>0.001851496768888428</v>
       </c>
       <c r="BZ8">
-        <v>0.01194785531087064</v>
+        <v>0.01909583973706261</v>
       </c>
       <c r="CA8">
-        <v>0</v>
+        <v>0.007359683241548493</v>
       </c>
       <c r="CB8">
-        <v>0.00197504816420016</v>
+        <v>0.01150359383396611</v>
       </c>
       <c r="CC8">
         <v>0</v>
@@ -2812,100 +2812,100 @@
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.2186918018762961</v>
+        <v>0.18484450731921</v>
       </c>
       <c r="AY9">
-        <v>0.01222955717404998</v>
+        <v>0.01977755398457232</v>
       </c>
       <c r="AZ9">
-        <v>0.03672431436700663</v>
+        <v>0.03936115847528271</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>0.006605087852976011</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>0.0004149753635932591</v>
       </c>
       <c r="BC9">
-        <v>0.1142975921903147</v>
+        <v>0.1013811401379909</v>
       </c>
       <c r="BD9">
-        <v>0.1757310399885162</v>
+        <v>0.1504972973100499</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>0.001219622472025986</v>
       </c>
       <c r="BF9">
-        <v>0.04610969457795824</v>
+        <v>0.04686478762328124</v>
       </c>
       <c r="BG9">
-        <v>0.05348617033823248</v>
+        <v>0.05276229388090854</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>0.004672524147861875</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>0.004439929792052016</v>
       </c>
       <c r="BJ9">
-        <v>0.108104657741539</v>
+        <v>0.09642987738709524</v>
       </c>
       <c r="BK9">
-        <v>0.0574228475949848</v>
+        <v>0.05590967475904927</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>0.00619473451127214</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>0.001026031571716235</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>0.0005271829210747726</v>
       </c>
       <c r="BO9">
-        <v>0</v>
+        <v>0.005695081742306878</v>
       </c>
       <c r="BP9">
-        <v>0</v>
+        <v>0.002000992006187152</v>
       </c>
       <c r="BQ9">
-        <v>0</v>
+        <v>0.0004426051512756528</v>
       </c>
       <c r="BR9">
-        <v>0.02243017526583593</v>
+        <v>0.02793296735310173</v>
       </c>
       <c r="BS9">
-        <v>0.02901052019430726</v>
+        <v>0.03319396551187057</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>0.003424829416788693</v>
       </c>
       <c r="BU9">
-        <v>0.06596645829283009</v>
+        <v>0.06274030759656582</v>
       </c>
       <c r="BV9">
-        <v>0</v>
+        <v>0.0009802065509063955</v>
       </c>
       <c r="BW9">
-        <v>0.03650379560623964</v>
+        <v>0.03918485331089087</v>
       </c>
       <c r="BX9">
-        <v>0.007359946706361573</v>
+        <v>0.01588429124790577</v>
       </c>
       <c r="BY9">
-        <v>0</v>
+        <v>0.001565729226011266</v>
       </c>
       <c r="BZ9">
-        <v>0</v>
+        <v>0.001215188034731221</v>
       </c>
       <c r="CA9">
-        <v>0.003595567065336973</v>
+        <v>0.01287466263791465</v>
       </c>
       <c r="CB9">
-        <v>0.0123358610201902</v>
+        <v>0.01986254410969386</v>
       </c>
       <c r="CC9">
-        <v>0</v>
+        <v>7.33965938370079E-05</v>
       </c>
     </row>
     <row r="10" spans="1:81">
@@ -3036,100 +3036,100 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.0833755179418523</v>
+        <v>0.0732197835655479</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.24594074335029E-07</v>
       </c>
       <c r="AS10">
-        <v>0.09278793038445801</v>
+        <v>0.08035677883874311</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.001455216057512652</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>0.004621508884345648</v>
       </c>
       <c r="AV10">
-        <v>0.01480381684590651</v>
+        <v>0.02122504687281142</v>
       </c>
       <c r="AW10">
-        <v>0.09670970695397274</v>
+        <v>0.08333047989676919</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>0.0040076485544323</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>0.004092291629390084</v>
       </c>
       <c r="AZ10">
-        <v>0.1352121229388227</v>
+        <v>0.1125250740102415</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>0.004184435469221507</v>
       </c>
       <c r="BB10">
-        <v>0.01987845185799308</v>
+        <v>0.02507290695281726</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>0.0005114935965709346</v>
       </c>
       <c r="BD10">
-        <v>0.1345700816592705</v>
+        <v>0.1120382439222804</v>
       </c>
       <c r="BE10">
-        <v>0.00368820965035784</v>
+        <v>0.01279659810932273</v>
       </c>
       <c r="BF10">
-        <v>0.02314752300246283</v>
+        <v>0.02755169179656349</v>
       </c>
       <c r="BG10">
-        <v>0.02497055314087944</v>
+        <v>0.02893401089489338</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>0.004754606175216627</v>
       </c>
       <c r="BI10">
-        <v>0.007719864296205348</v>
+        <v>0.01585361461024899</v>
       </c>
       <c r="BJ10">
-        <v>0.01401914392547733</v>
+        <v>0.02063006583492599</v>
       </c>
       <c r="BK10">
-        <v>0.02968926107337582</v>
+        <v>0.03251198799854996</v>
       </c>
       <c r="BL10">
-        <v>0.1004174280007799</v>
+        <v>0.08614187259197323</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>0.008459219110395438</v>
       </c>
       <c r="BN10">
-        <v>0.09559853932730783</v>
+        <v>0.08248793308450481</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>0.008155230636076623</v>
       </c>
       <c r="BP10">
-        <v>0.01512713757502279</v>
+        <v>0.02147020596772993</v>
       </c>
       <c r="BQ10">
-        <v>0.05609655442182732</v>
+        <v>0.05253541227527052</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>0.0003678155611199845</v>
       </c>
       <c r="BS10">
-        <v>0.009616267597795287</v>
+        <v>0.0172915691710005</v>
       </c>
       <c r="BT10">
-        <v>0</v>
+        <v>0.001136846501744826</v>
       </c>
       <c r="BU10">
-        <v>0.03252779475044835</v>
+        <v>0.03466431627353828</v>
       </c>
       <c r="BV10">
-        <v>0.01004409465578393</v>
+        <v>0.01761597056216655</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1225816151695269</v>
+        <v>0.2287128588305127</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.09208356089644845</v>
+        <v>0.1150946338147968</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3179,37 +3179,37 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0611892005230292</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1027030556888361</v>
+        <v>0.1546567690930395</v>
       </c>
       <c r="K11">
-        <v>0.03674224392860786</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.03451402291591786</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.1292924698053985</v>
+        <v>0.25371364692142</v>
       </c>
       <c r="N11">
-        <v>0.002748211830042279</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.02883395801095786</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.1277110247349171</v>
+        <v>0.2478220913402309</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02128588292757283</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -3224,25 +3224,25 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.01786802075991172</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.01282361730109053</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.03290992083269113</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.001506620053484395</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.03083697491940603</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.04634350691734562</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.04542717475341543</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.05259891803140034</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -3802,97 +3802,97 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.2605598194680626</v>
+        <v>0.2070015311741191</v>
       </c>
       <c r="AX2">
-        <v>0.2605598194680626</v>
+        <v>0.2138736190561268</v>
       </c>
       <c r="AY2">
-        <v>0.3938991145362922</v>
+        <v>0.3246874949167471</v>
       </c>
       <c r="AZ2">
-        <v>0.4094747982468493</v>
+        <v>0.3464638061927059</v>
       </c>
       <c r="BA2">
-        <v>0.460924401395517</v>
+        <v>0.3953633211650467</v>
       </c>
       <c r="BB2">
-        <v>0.4628162802407528</v>
+        <v>0.4067937145007048</v>
       </c>
       <c r="BC2">
-        <v>0.473839624253601</v>
+        <v>0.4251281371051706</v>
       </c>
       <c r="BD2">
-        <v>0.4784914518867294</v>
+        <v>0.4386452456461393</v>
       </c>
       <c r="BE2">
-        <v>0.4812549931699526</v>
+        <v>0.4507346770303385</v>
       </c>
       <c r="BF2">
-        <v>0.4812549931699526</v>
+        <v>0.4596630890675145</v>
       </c>
       <c r="BG2">
-        <v>0.5020110770686866</v>
+        <v>0.4853561468750337</v>
       </c>
       <c r="BH2">
-        <v>0.6625419321148561</v>
+        <v>0.6167287526334679</v>
       </c>
       <c r="BI2">
-        <v>0.6938737394828541</v>
+        <v>0.6504178004634413</v>
       </c>
       <c r="BJ2">
-        <v>0.8282591936206097</v>
+        <v>0.7620226460866638</v>
       </c>
       <c r="BK2">
-        <v>0.8282591936206097</v>
+        <v>0.7634483738063776</v>
       </c>
       <c r="BL2">
-        <v>0.9091815274567845</v>
+        <v>0.834631344014352</v>
       </c>
       <c r="BM2">
-        <v>0.9205339196567</v>
+        <v>0.8532145501680798</v>
       </c>
       <c r="BN2">
-        <v>0.9504414993013586</v>
+        <v>0.8858267817690149</v>
       </c>
       <c r="BO2">
-        <v>0.9504414993013586</v>
+        <v>0.8862435403273505</v>
       </c>
       <c r="BP2">
-        <v>0.9504414993013586</v>
+        <v>0.8864375613890498</v>
       </c>
       <c r="BQ2">
-        <v>0.9504414993013586</v>
+        <v>0.8906623023300838</v>
       </c>
       <c r="BR2">
-        <v>0.9504414993013586</v>
+        <v>0.8956134131568344</v>
       </c>
       <c r="BS2">
-        <v>0.9526896600969617</v>
+        <v>0.9073131806803291</v>
       </c>
       <c r="BT2">
-        <v>0.9526896600969617</v>
+        <v>0.9075512680485994</v>
       </c>
       <c r="BU2">
-        <v>0.9526896600969617</v>
+        <v>0.9125767410344249</v>
       </c>
       <c r="BV2">
-        <v>0.9526896600969617</v>
+        <v>0.9154578688723084</v>
       </c>
       <c r="BW2">
-        <v>0.9526896600969617</v>
+        <v>0.9241269914583778</v>
       </c>
       <c r="BX2">
-        <v>0.9536275843780404</v>
+        <v>0.9348361281160371</v>
       </c>
       <c r="BY2">
-        <v>0.9553261855246175</v>
+        <v>0.9461203899312814</v>
       </c>
       <c r="BZ2">
-        <v>0.9553261855246175</v>
+        <v>0.9558995235639252</v>
       </c>
       <c r="CA2">
-        <v>0.9553261855246175</v>
+        <v>0.9562234573503854</v>
       </c>
       <c r="CB2">
         <v>0.9999999999999999</v>
@@ -4047,103 +4047,103 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.3134382243586167</v>
+        <v>0.2508452251781463</v>
       </c>
       <c r="AX3">
-        <v>0.3134382243586167</v>
+        <v>0.252798437512664</v>
       </c>
       <c r="AY3">
-        <v>0.4562765791720647</v>
+        <v>0.3725551074259042</v>
       </c>
       <c r="AZ3">
-        <v>0.4678134838813115</v>
+        <v>0.3914200390029101</v>
       </c>
       <c r="BA3">
-        <v>0.5121408295774588</v>
+        <v>0.4354810715319971</v>
       </c>
       <c r="BB3">
-        <v>0.5121408295774588</v>
+        <v>0.4444391925980132</v>
       </c>
       <c r="BC3">
-        <v>0.5309604406237325</v>
+        <v>0.4689001393108142</v>
       </c>
       <c r="BD3">
-        <v>0.5309604406237325</v>
+        <v>0.4699022729335526</v>
       </c>
       <c r="BE3">
-        <v>0.5350905654118154</v>
+        <v>0.4830758515123464</v>
       </c>
       <c r="BF3">
-        <v>0.5350905654118154</v>
+        <v>0.4846824608127947</v>
       </c>
       <c r="BG3">
-        <v>0.5447185876449834</v>
+        <v>0.5020806113973718</v>
       </c>
       <c r="BH3">
-        <v>0.7188248670529243</v>
+        <v>0.6458634840981755</v>
       </c>
       <c r="BI3">
-        <v>0.7905950556965832</v>
+        <v>0.7110115352981563</v>
       </c>
       <c r="BJ3">
-        <v>0.8393231410772289</v>
+        <v>0.758454086282538</v>
       </c>
       <c r="BK3">
-        <v>0.8426649099762571</v>
+        <v>0.7710218939729584</v>
       </c>
       <c r="BL3">
-        <v>0.8758122261278505</v>
+        <v>0.8064922169972735</v>
       </c>
       <c r="BM3">
-        <v>0.8808766878277169</v>
+        <v>0.8203837379532972</v>
       </c>
       <c r="BN3">
-        <v>0.903012381057436</v>
+        <v>0.8473927547421568</v>
       </c>
       <c r="BO3">
-        <v>0.903012381057436</v>
+        <v>0.8490795628426548</v>
       </c>
       <c r="BP3">
-        <v>0.903012381057436</v>
+        <v>0.8499793068219429</v>
       </c>
       <c r="BQ3">
-        <v>0.9273011225345991</v>
+        <v>0.8786427210316536</v>
       </c>
       <c r="BR3">
-        <v>0.9273011225345991</v>
+        <v>0.8811932115157735</v>
       </c>
       <c r="BS3">
-        <v>0.9443464364798594</v>
+        <v>0.904290792335021</v>
       </c>
       <c r="BT3">
-        <v>0.9443464364798594</v>
+        <v>0.9072826702836805</v>
       </c>
       <c r="BU3">
-        <v>0.9489301341899273</v>
+        <v>0.9208047732734765</v>
       </c>
       <c r="BV3">
-        <v>0.9546763808436539</v>
+        <v>0.935220176251457</v>
       </c>
       <c r="BW3">
-        <v>0.9698533760689361</v>
+        <v>0.9568821451770421</v>
       </c>
       <c r="BX3">
-        <v>0.9698533760689361</v>
+        <v>0.9579845959648126</v>
       </c>
       <c r="BY3">
-        <v>0.9698533760689361</v>
+        <v>0.9580588129386949</v>
       </c>
       <c r="BZ3">
-        <v>0.9698533760689361</v>
+        <v>0.9619460296211663</v>
       </c>
       <c r="CA3">
-        <v>0.9698533760689361</v>
+        <v>0.9668354021150563</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:81">
@@ -4295,100 +4295,100 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.2371450737113429</v>
+        <v>0.184592702948935</v>
       </c>
       <c r="AY4">
-        <v>0.2371450737113429</v>
+        <v>0.1884220166743992</v>
       </c>
       <c r="AZ4">
-        <v>0.4089567231002348</v>
+        <v>0.3249144619757691</v>
       </c>
       <c r="BA4">
-        <v>0.4205077065523203</v>
+        <v>0.3434186125830586</v>
       </c>
       <c r="BB4">
-        <v>0.4684665373618621</v>
+        <v>0.3887272182827943</v>
       </c>
       <c r="BC4">
-        <v>0.4684665373618621</v>
+        <v>0.3947188735756812</v>
       </c>
       <c r="BD4">
-        <v>0.4841335799442303</v>
+        <v>0.4162533797278151</v>
       </c>
       <c r="BE4">
-        <v>0.5074339160314385</v>
+        <v>0.4434077257718574</v>
       </c>
       <c r="BF4">
-        <v>0.5189130347922645</v>
+        <v>0.461858967623771</v>
       </c>
       <c r="BG4">
-        <v>0.5189130347922645</v>
+        <v>0.4717026415614533</v>
       </c>
       <c r="BH4">
-        <v>0.5672519529483769</v>
+        <v>0.5172910779831851</v>
       </c>
       <c r="BI4">
-        <v>0.7118630431348707</v>
+        <v>0.6337577260856226</v>
       </c>
       <c r="BJ4">
-        <v>0.7757945464430411</v>
+        <v>0.6908258510585614</v>
       </c>
       <c r="BK4">
-        <v>0.8466470128088575</v>
+        <v>0.7529893787245999</v>
       </c>
       <c r="BL4">
-        <v>0.8727611495053565</v>
+        <v>0.7822153218979735</v>
       </c>
       <c r="BM4">
-        <v>0.9128020615160564</v>
+        <v>0.8216945387633339</v>
       </c>
       <c r="BN4">
-        <v>0.9221783514788314</v>
+        <v>0.8385976204196979</v>
       </c>
       <c r="BO4">
-        <v>0.9462409270282954</v>
+        <v>0.8663131480473457</v>
       </c>
       <c r="BP4">
-        <v>0.9462409270282954</v>
+        <v>0.8681751613565479</v>
       </c>
       <c r="BQ4">
-        <v>0.9462409270282954</v>
+        <v>0.8682091477298892</v>
       </c>
       <c r="BR4">
-        <v>0.9462409270282954</v>
+        <v>0.8765390675179618</v>
       </c>
       <c r="BS4">
-        <v>0.9462409270282954</v>
+        <v>0.8849068497502267</v>
       </c>
       <c r="BT4">
-        <v>0.9554053681045603</v>
+        <v>0.9016539624499783</v>
       </c>
       <c r="BU4">
-        <v>0.9554053681045603</v>
+        <v>0.9016704921050612</v>
       </c>
       <c r="BV4">
-        <v>0.9554053681045603</v>
+        <v>0.9113637204794163</v>
       </c>
       <c r="BW4">
-        <v>0.9554053681045603</v>
+        <v>0.9185448064902187</v>
       </c>
       <c r="BX4">
-        <v>0.9693335145772389</v>
+        <v>0.9387990896666578</v>
       </c>
       <c r="BY4">
-        <v>0.9702838989086271</v>
+        <v>0.9494987886596015</v>
       </c>
       <c r="BZ4">
-        <v>0.9702838989086271</v>
+        <v>0.9569126183549664</v>
       </c>
       <c r="CA4">
-        <v>0.9702838989086271</v>
+        <v>0.9652070517669987</v>
       </c>
       <c r="CB4">
-        <v>0.9702838989086271</v>
+        <v>0.9681221919163212</v>
       </c>
       <c r="CC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -4540,100 +4540,100 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.2713070837673133</v>
+        <v>0.2114565339225154</v>
       </c>
       <c r="AY5">
-        <v>0.2713070837673133</v>
+        <v>0.2203038896789262</v>
       </c>
       <c r="AZ5">
-        <v>0.4394289536310331</v>
+        <v>0.3551412094754308</v>
       </c>
       <c r="BA5">
-        <v>0.4669090505913583</v>
+        <v>0.3855462980879706</v>
       </c>
       <c r="BB5">
-        <v>0.518431905613718</v>
+        <v>0.4338041115090862</v>
       </c>
       <c r="BC5">
-        <v>0.518431905613718</v>
+        <v>0.4357102636800346</v>
       </c>
       <c r="BD5">
-        <v>0.5257069451549414</v>
+        <v>0.4511122761515596</v>
       </c>
       <c r="BE5">
-        <v>0.549948791767033</v>
+        <v>0.4791128322982681</v>
       </c>
       <c r="BF5">
-        <v>0.5537744569150863</v>
+        <v>0.491953544121834</v>
       </c>
       <c r="BG5">
-        <v>0.5537744569150863</v>
+        <v>0.4996689765507016</v>
       </c>
       <c r="BH5">
-        <v>0.6087095454384203</v>
+        <v>0.5504605119981471</v>
       </c>
       <c r="BI5">
-        <v>0.7230180188075476</v>
+        <v>0.6453391982571047</v>
       </c>
       <c r="BJ5">
-        <v>0.7479461517724084</v>
+        <v>0.6738493499071351</v>
       </c>
       <c r="BK5">
-        <v>0.8322629798884332</v>
+        <v>0.7464580208925305</v>
       </c>
       <c r="BL5">
-        <v>0.8613471185150254</v>
+        <v>0.7780541756205079</v>
       </c>
       <c r="BM5">
-        <v>0.8924616251295421</v>
+        <v>0.8111579610809925</v>
       </c>
       <c r="BN5">
-        <v>0.9056866731841219</v>
+        <v>0.8309780966448665</v>
       </c>
       <c r="BO5">
-        <v>0.9310717089000464</v>
+        <v>0.8598275171532357</v>
       </c>
       <c r="BP5">
-        <v>0.9310717089000464</v>
+        <v>0.8610150889457491</v>
       </c>
       <c r="BQ5">
-        <v>0.9310717089000464</v>
+        <v>0.8611333102581026</v>
       </c>
       <c r="BR5">
-        <v>0.9310717089000464</v>
+        <v>0.8674099164566654</v>
       </c>
       <c r="BS5">
-        <v>0.9312440353426394</v>
+        <v>0.877537875842561</v>
       </c>
       <c r="BT5">
-        <v>0.9603727441002187</v>
+        <v>0.9091671257038479</v>
       </c>
       <c r="BU5">
-        <v>0.9603727441002187</v>
+        <v>0.9094576003022875</v>
       </c>
       <c r="BV5">
-        <v>0.9603727441002187</v>
+        <v>0.9130302999907629</v>
       </c>
       <c r="BW5">
-        <v>0.9603727441002187</v>
+        <v>0.9156903250485838</v>
       </c>
       <c r="BX5">
-        <v>0.9606112335650402</v>
+        <v>0.925867413166936</v>
       </c>
       <c r="BY5">
-        <v>0.9614472178586629</v>
+        <v>0.9364881654741311</v>
       </c>
       <c r="BZ5">
-        <v>0.9660437984125895</v>
+        <v>0.9499013133117448</v>
       </c>
       <c r="CA5">
-        <v>0.9794821539536931</v>
+        <v>0.9698798383518467</v>
       </c>
       <c r="CB5">
-        <v>0.9794821539536931</v>
+        <v>0.9747646655935096</v>
       </c>
       <c r="CC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:81">
@@ -4782,103 +4782,103 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.1924368212432876</v>
+        <v>0.16395982590816</v>
       </c>
       <c r="AX6">
-        <v>0.1924368212432876</v>
+        <v>0.1690912278089601</v>
       </c>
       <c r="AY6">
-        <v>0.2875062920409233</v>
+        <v>0.2551519269964626</v>
       </c>
       <c r="AZ6">
-        <v>0.3600014350565816</v>
+        <v>0.3231519476046144</v>
       </c>
       <c r="BA6">
-        <v>0.4496775106276052</v>
+        <v>0.4048976400029884</v>
       </c>
       <c r="BB6">
-        <v>0.4496775106276052</v>
+        <v>0.4049036357089826</v>
       </c>
       <c r="BC6">
-        <v>0.4496775106276052</v>
+        <v>0.4058901738407127</v>
       </c>
       <c r="BD6">
-        <v>0.4496775106276052</v>
+        <v>0.4128182619495007</v>
       </c>
       <c r="BE6">
-        <v>0.4496775106276052</v>
+        <v>0.4128729608955888</v>
       </c>
       <c r="BF6">
-        <v>0.4496775106276052</v>
+        <v>0.4133870418204549</v>
       </c>
       <c r="BG6">
-        <v>0.6135779905564928</v>
+        <v>0.554516257077099</v>
       </c>
       <c r="BH6">
-        <v>0.7838708738478608</v>
+        <v>0.7007597394602927</v>
       </c>
       <c r="BI6">
-        <v>0.7838708738478608</v>
+        <v>0.7064819945910169</v>
       </c>
       <c r="BJ6">
-        <v>0.8184789115090475</v>
+        <v>0.7441702894761374</v>
       </c>
       <c r="BK6">
-        <v>0.8242992115846977</v>
+        <v>0.7588268431470561</v>
       </c>
       <c r="BL6">
-        <v>0.8704559660367367</v>
+        <v>0.8057547337347806</v>
       </c>
       <c r="BM6">
-        <v>0.8721570734623361</v>
+        <v>0.8171157113346197</v>
       </c>
       <c r="BN6">
-        <v>0.9434653474763907</v>
+        <v>0.8841661727904112</v>
       </c>
       <c r="BO6">
-        <v>0.9434653474763907</v>
+        <v>0.8854879653744527</v>
       </c>
       <c r="BP6">
-        <v>0.9434653474763907</v>
+        <v>0.8855776422692018</v>
       </c>
       <c r="BQ6">
-        <v>0.9434653474763907</v>
+        <v>0.8898502776584646</v>
       </c>
       <c r="BR6">
-        <v>0.9434653474763907</v>
+        <v>0.8910910230576328</v>
       </c>
       <c r="BS6">
-        <v>0.9603341339861478</v>
+        <v>0.914586961192262</v>
       </c>
       <c r="BT6">
-        <v>0.9603341339861478</v>
+        <v>0.9154808203925832</v>
       </c>
       <c r="BU6">
-        <v>0.9603341339861478</v>
+        <v>0.9193973980188065</v>
       </c>
       <c r="BV6">
-        <v>0.9603341339861478</v>
+        <v>0.9199508004046927</v>
       </c>
       <c r="BW6">
-        <v>0.9603341339861478</v>
+        <v>0.9273343279671726</v>
       </c>
       <c r="BX6">
-        <v>0.9632276876530873</v>
+        <v>0.939649326811675</v>
       </c>
       <c r="BY6">
-        <v>0.9731702087058188</v>
+        <v>0.9576038793784706</v>
       </c>
       <c r="BZ6">
-        <v>0.9834909361622688</v>
+        <v>0.9758610174468225</v>
       </c>
       <c r="CA6">
-        <v>0.9834909361622688</v>
+        <v>0.9767918593856297</v>
       </c>
       <c r="CB6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:81">
@@ -5012,118 +5012,118 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0.1249383072306605</v>
+        <v>0.1053822355034332</v>
       </c>
       <c r="AS7">
-        <v>0.1719575368504485</v>
+        <v>0.1512783456092377</v>
       </c>
       <c r="AT7">
-        <v>0.1951576132898914</v>
+        <v>0.1789900883380647</v>
       </c>
       <c r="AU7">
-        <v>0.1951576132898914</v>
+        <v>0.1881217687488284</v>
       </c>
       <c r="AV7">
-        <v>0.1951576132898914</v>
+        <v>0.1883374576088035</v>
       </c>
       <c r="AW7">
-        <v>0.3051560606221707</v>
+        <v>0.282314086082642</v>
       </c>
       <c r="AX7">
-        <v>0.3185137121739377</v>
+        <v>0.3025117804033377</v>
       </c>
       <c r="AY7">
-        <v>0.3185137121739377</v>
+        <v>0.3052631027138878</v>
       </c>
       <c r="AZ7">
-        <v>0.371652973323147</v>
+        <v>0.3558314570782126</v>
       </c>
       <c r="BA7">
-        <v>0.4717181409265978</v>
+        <v>0.4422246754081358</v>
       </c>
       <c r="BB7">
-        <v>0.4717181409265978</v>
+        <v>0.448045803085504</v>
       </c>
       <c r="BC7">
-        <v>0.4726556556685347</v>
+        <v>0.4587615343442786</v>
       </c>
       <c r="BD7">
-        <v>0.5024981075508291</v>
+        <v>0.4915442967854392</v>
       </c>
       <c r="BE7">
-        <v>0.5752965061245374</v>
+        <v>0.5571211182659069</v>
       </c>
       <c r="BF7">
-        <v>0.5752965061245374</v>
+        <v>0.5572250074117192</v>
       </c>
       <c r="BG7">
-        <v>0.6004314619070835</v>
+        <v>0.5864139041156987</v>
       </c>
       <c r="BH7">
-        <v>0.6148045880645129</v>
+        <v>0.6073868469581006</v>
       </c>
       <c r="BI7">
-        <v>0.6148045880645129</v>
+        <v>0.6073915876033821</v>
       </c>
       <c r="BJ7">
-        <v>0.6436965468458266</v>
+        <v>0.6394487106564986</v>
       </c>
       <c r="BK7">
-        <v>0.6436965468458266</v>
+        <v>0.6412840806936213</v>
       </c>
       <c r="BL7">
-        <v>0.7374870528324571</v>
+        <v>0.7228870047950899</v>
       </c>
       <c r="BM7">
-        <v>0.7592917988967482</v>
+        <v>0.7495335039377196</v>
       </c>
       <c r="BN7">
-        <v>0.8025687999161952</v>
+        <v>0.7925726669823923</v>
       </c>
       <c r="BO7">
-        <v>0.8765265760990245</v>
+        <v>0.8590345975266991</v>
       </c>
       <c r="BP7">
-        <v>0.8765265760990245</v>
+        <v>0.8600948255514145</v>
       </c>
       <c r="BQ7">
-        <v>0.9265001956450487</v>
+        <v>0.908246419359211</v>
       </c>
       <c r="BR7">
-        <v>0.9510629110421306</v>
+        <v>0.9369984479126547</v>
       </c>
       <c r="BS7">
-        <v>0.9510629110421306</v>
+        <v>0.9384855828286719</v>
       </c>
       <c r="BT7">
-        <v>0.9554133877785921</v>
+        <v>0.951806887605623</v>
       </c>
       <c r="BU7">
-        <v>0.9554133877785921</v>
+        <v>0.9558587454048478</v>
       </c>
       <c r="BV7">
-        <v>0.9999999999999996</v>
+        <v>0.9998977110469155</v>
       </c>
       <c r="BW7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BX7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BY7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BZ7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="CA7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="CB7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="CC7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:81">
@@ -5272,103 +5272,103 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.1745405824992442</v>
+        <v>0.142876832261454</v>
       </c>
       <c r="AX8">
-        <v>0.2375669901478882</v>
+        <v>0.2008585066506016</v>
       </c>
       <c r="AY8">
-        <v>0.2382082508280828</v>
+        <v>0.2113466950513619</v>
       </c>
       <c r="AZ8">
-        <v>0.2593308662197052</v>
+        <v>0.2374272316356143</v>
       </c>
       <c r="BA8">
-        <v>0.2593308662197052</v>
+        <v>0.2466197801784128</v>
       </c>
       <c r="BB8">
-        <v>0.4385376392402744</v>
+        <v>0.3930489588702724</v>
       </c>
       <c r="BC8">
-        <v>0.5247974181792513</v>
+        <v>0.4687180772658991</v>
       </c>
       <c r="BD8">
-        <v>0.5270149536339939</v>
+        <v>0.4804062754054632</v>
       </c>
       <c r="BE8">
-        <v>0.611502047557446</v>
+        <v>0.5547258579734478</v>
       </c>
       <c r="BF8">
-        <v>0.6315130390459874</v>
+        <v>0.5799601210962938</v>
       </c>
       <c r="BG8">
-        <v>0.6315130390459874</v>
+        <v>0.5867919782179232</v>
       </c>
       <c r="BH8">
-        <v>0.6315130390459874</v>
+        <v>0.5870003082506329</v>
       </c>
       <c r="BI8">
-        <v>0.7881264445756631</v>
+        <v>0.7162292744800305</v>
       </c>
       <c r="BJ8">
-        <v>0.7976158766920072</v>
+        <v>0.7334535295015546</v>
       </c>
       <c r="BK8">
-        <v>0.8069957026707543</v>
+        <v>0.7505943419439848</v>
       </c>
       <c r="BL8">
-        <v>0.8069957026707543</v>
+        <v>0.7508129362957469</v>
       </c>
       <c r="BM8">
-        <v>0.8069957026707543</v>
+        <v>0.7514053791951969</v>
       </c>
       <c r="BN8">
-        <v>0.8069957026707543</v>
+        <v>0.751405535939124</v>
       </c>
       <c r="BO8">
-        <v>0.8069957026707543</v>
+        <v>0.7536450921405224</v>
       </c>
       <c r="BP8">
-        <v>0.8069957026707543</v>
+        <v>0.7589825169207333</v>
       </c>
       <c r="BQ8">
-        <v>0.8659102102465367</v>
+        <v>0.8138338232978465</v>
       </c>
       <c r="BR8">
-        <v>0.8693208246772556</v>
+        <v>0.8264303062196398</v>
       </c>
       <c r="BS8">
-        <v>0.8954872360413869</v>
+        <v>0.8563506582886546</v>
       </c>
       <c r="BT8">
-        <v>0.9287275242423964</v>
+        <v>0.8916563157831061</v>
       </c>
       <c r="BU8">
-        <v>0.9287275242423964</v>
+        <v>0.8986729144441657</v>
       </c>
       <c r="BV8">
-        <v>0.986077096524929</v>
+        <v>0.9523328437702595</v>
       </c>
       <c r="BW8">
-        <v>0.986077096524929</v>
+        <v>0.9546412145632623</v>
       </c>
       <c r="BX8">
-        <v>0.986077096524929</v>
+        <v>0.9601893864185345</v>
       </c>
       <c r="BY8">
-        <v>0.986077096524929</v>
+        <v>0.9620408831874229</v>
       </c>
       <c r="BZ8">
-        <v>0.9980249518357996</v>
+        <v>0.9811367229244855</v>
       </c>
       <c r="CA8">
-        <v>0.9980249518357996</v>
+        <v>0.988496406166034</v>
       </c>
       <c r="CB8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CC8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:81">
@@ -5520,100 +5520,100 @@
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.2186918018762961</v>
+        <v>0.18484450731921</v>
       </c>
       <c r="AY9">
-        <v>0.2309213590503461</v>
+        <v>0.2046220613037823</v>
       </c>
       <c r="AZ9">
-        <v>0.2676456734173527</v>
+        <v>0.243983219779065</v>
       </c>
       <c r="BA9">
-        <v>0.2676456734173527</v>
+        <v>0.250588307632041</v>
       </c>
       <c r="BB9">
-        <v>0.2676456734173527</v>
+        <v>0.2510032829956343</v>
       </c>
       <c r="BC9">
-        <v>0.3819432656076674</v>
+        <v>0.3523844231336252</v>
       </c>
       <c r="BD9">
-        <v>0.5576743055961837</v>
+        <v>0.5028817204436751</v>
       </c>
       <c r="BE9">
-        <v>0.5576743055961837</v>
+        <v>0.5041013429157011</v>
       </c>
       <c r="BF9">
-        <v>0.6037840001741419</v>
+        <v>0.5509661305389824</v>
       </c>
       <c r="BG9">
-        <v>0.6572701705123744</v>
+        <v>0.6037284244198909</v>
       </c>
       <c r="BH9">
-        <v>0.6572701705123744</v>
+        <v>0.6084009485677528</v>
       </c>
       <c r="BI9">
-        <v>0.6572701705123744</v>
+        <v>0.6128408783598048</v>
       </c>
       <c r="BJ9">
-        <v>0.7653748282539133</v>
+        <v>0.7092707557469</v>
       </c>
       <c r="BK9">
-        <v>0.8227976758488982</v>
+        <v>0.7651804305059493</v>
       </c>
       <c r="BL9">
-        <v>0.8227976758488982</v>
+        <v>0.7713751650172215</v>
       </c>
       <c r="BM9">
-        <v>0.8227976758488982</v>
+        <v>0.7724011965889377</v>
       </c>
       <c r="BN9">
-        <v>0.8227976758488982</v>
+        <v>0.7729283795100125</v>
       </c>
       <c r="BO9">
-        <v>0.8227976758488982</v>
+        <v>0.7786234612523194</v>
       </c>
       <c r="BP9">
-        <v>0.8227976758488982</v>
+        <v>0.7806244532585066</v>
       </c>
       <c r="BQ9">
-        <v>0.8227976758488982</v>
+        <v>0.7810670584097823</v>
       </c>
       <c r="BR9">
-        <v>0.8452278511147341</v>
+        <v>0.809000025762884</v>
       </c>
       <c r="BS9">
-        <v>0.8742383713090414</v>
+        <v>0.8421939912747546</v>
       </c>
       <c r="BT9">
-        <v>0.8742383713090414</v>
+        <v>0.8456188206915433</v>
       </c>
       <c r="BU9">
-        <v>0.9402048296018715</v>
+        <v>0.9083591282881091</v>
       </c>
       <c r="BV9">
-        <v>0.9402048296018715</v>
+        <v>0.9093393348390154</v>
       </c>
       <c r="BW9">
-        <v>0.9767086252081111</v>
+        <v>0.9485241881499062</v>
       </c>
       <c r="BX9">
-        <v>0.9840685719144726</v>
+        <v>0.964408479397812</v>
       </c>
       <c r="BY9">
-        <v>0.9840685719144726</v>
+        <v>0.9659742086238233</v>
       </c>
       <c r="BZ9">
-        <v>0.9840685719144726</v>
+        <v>0.9671893966585545</v>
       </c>
       <c r="CA9">
-        <v>0.9876641389798095</v>
+        <v>0.9800640592964691</v>
       </c>
       <c r="CB9">
-        <v>0.9999999999999998</v>
+        <v>0.999926603406163</v>
       </c>
       <c r="CC9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:81">
@@ -5744,121 +5744,121 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.0833755179418523</v>
+        <v>0.0732197835655479</v>
       </c>
       <c r="AR10">
-        <v>0.0833755179418523</v>
+        <v>0.07321990815962223</v>
       </c>
       <c r="AS10">
-        <v>0.1761634483263103</v>
+        <v>0.1535766869983654</v>
       </c>
       <c r="AT10">
-        <v>0.1761634483263103</v>
+        <v>0.155031903055878</v>
       </c>
       <c r="AU10">
-        <v>0.1761634483263103</v>
+        <v>0.1596534119402236</v>
       </c>
       <c r="AV10">
-        <v>0.1909672651722168</v>
+        <v>0.1808784588130351</v>
       </c>
       <c r="AW10">
-        <v>0.2876769721261896</v>
+        <v>0.2642089387098043</v>
       </c>
       <c r="AX10">
-        <v>0.2876769721261896</v>
+        <v>0.2682165872642366</v>
       </c>
       <c r="AY10">
-        <v>0.2876769721261896</v>
+        <v>0.2723088788936266</v>
       </c>
       <c r="AZ10">
-        <v>0.4228890950650123</v>
+        <v>0.3848339529038681</v>
       </c>
       <c r="BA10">
-        <v>0.4228890950650123</v>
+        <v>0.3890183883730896</v>
       </c>
       <c r="BB10">
-        <v>0.4427675469230054</v>
+        <v>0.4140912953259069</v>
       </c>
       <c r="BC10">
-        <v>0.4427675469230054</v>
+        <v>0.4146027889224778</v>
       </c>
       <c r="BD10">
-        <v>0.577337628582276</v>
+        <v>0.5266410328447582</v>
       </c>
       <c r="BE10">
-        <v>0.5810258382326339</v>
+        <v>0.5394376309540809</v>
       </c>
       <c r="BF10">
-        <v>0.6041733612350967</v>
+        <v>0.5669893227506444</v>
       </c>
       <c r="BG10">
-        <v>0.6291439143759762</v>
+        <v>0.5959233336455377</v>
       </c>
       <c r="BH10">
-        <v>0.6291439143759762</v>
+        <v>0.6006779398207543</v>
       </c>
       <c r="BI10">
-        <v>0.6368637786721815</v>
+        <v>0.6165315544310034</v>
       </c>
       <c r="BJ10">
-        <v>0.6508829225976588</v>
+        <v>0.6371616202659294</v>
       </c>
       <c r="BK10">
-        <v>0.6805721836710346</v>
+        <v>0.6696736082644793</v>
       </c>
       <c r="BL10">
-        <v>0.7809896116718145</v>
+        <v>0.7558154808564526</v>
       </c>
       <c r="BM10">
-        <v>0.7809896116718145</v>
+        <v>0.764274699966848</v>
       </c>
       <c r="BN10">
-        <v>0.8765881509991222</v>
+        <v>0.8467626330513529</v>
       </c>
       <c r="BO10">
-        <v>0.8765881509991222</v>
+        <v>0.8549178636874295</v>
       </c>
       <c r="BP10">
-        <v>0.8917152885741451</v>
+        <v>0.8763880696551595</v>
       </c>
       <c r="BQ10">
-        <v>0.9478118429959723</v>
+        <v>0.92892348193043</v>
       </c>
       <c r="BR10">
-        <v>0.9478118429959723</v>
+        <v>0.9292912974915499</v>
       </c>
       <c r="BS10">
-        <v>0.9574281105937676</v>
+        <v>0.9465828666625504</v>
       </c>
       <c r="BT10">
-        <v>0.9574281105937676</v>
+        <v>0.9477197131642953</v>
       </c>
       <c r="BU10">
-        <v>0.989955905344216</v>
+        <v>0.9823840294378335</v>
       </c>
       <c r="BV10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:81">
@@ -5872,94 +5872,94 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1225816151695269</v>
+        <v>0.2287128588305127</v>
       </c>
       <c r="E11">
-        <v>0.1225816151695269</v>
+        <v>0.2287128588305127</v>
       </c>
       <c r="F11">
-        <v>0.2146651760659753</v>
+        <v>0.3438074926453095</v>
       </c>
       <c r="G11">
-        <v>0.2146651760659753</v>
+        <v>0.3438074926453095</v>
       </c>
       <c r="H11">
-        <v>0.2146651760659753</v>
+        <v>0.3438074926453095</v>
       </c>
       <c r="I11">
-        <v>0.2758543765890046</v>
+        <v>0.3438074926453095</v>
       </c>
       <c r="J11">
-        <v>0.3785574322778407</v>
+        <v>0.498464261738349</v>
       </c>
       <c r="K11">
-        <v>0.4152996762064485</v>
+        <v>0.498464261738349</v>
       </c>
       <c r="L11">
-        <v>0.4498136991223664</v>
+        <v>0.498464261738349</v>
       </c>
       <c r="M11">
-        <v>0.579106168927765</v>
+        <v>0.7521779086597691</v>
       </c>
       <c r="N11">
-        <v>0.5818543807578073</v>
+        <v>0.7521779086597691</v>
       </c>
       <c r="O11">
-        <v>0.5818543807578073</v>
+        <v>0.7521779086597691</v>
       </c>
       <c r="P11">
-        <v>0.6106883387687652</v>
+        <v>0.7521779086597691</v>
       </c>
       <c r="Q11">
-        <v>0.7383993635036822</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0.7383993635036822</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0.759685246431255</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0.759685246431255</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0.759685246431255</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0.759685246431255</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0.759685246431255</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.7775532671911667</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.7903768844922572</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.7903768844922572</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.8232868053249484</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.8247934253784327</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.8556304002978388</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9019739072151843</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9019739072151843</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9019739072151843</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9474010819685997</v>
+        <v>1</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -6171,16 +6171,16 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5020110770686866</v>
+        <v>0.6167287526334679</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -6212,16 +6212,16 @@
         <v>46</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5121408295774588</v>
+        <v>0.5020806113973718</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -6253,16 +6253,16 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5074339160314385</v>
+        <v>0.5172910779831851</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -6294,16 +6294,16 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.518431905613718</v>
+        <v>0.5504605119981471</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6135779905564928</v>
+        <v>0.554516257077099</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -6376,16 +6376,16 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5024981075508291</v>
+        <v>0.5571211182659069</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>48</v>
@@ -6417,16 +6417,16 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5247974181792513</v>
+        <v>0.5547258579734478</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>48</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5576743055961837</v>
+        <v>0.5028817204436751</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.577337628582276</v>
+        <v>0.5266410328447582</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.579106168927765</v>
+        <v>0.7521779086597691</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8282591936206097</v>
+        <v>0.7620226460866638</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -6676,16 +6676,16 @@
         <v>46</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7188248670529243</v>
+        <v>0.7110115352981563</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -6717,16 +6717,16 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7118630431348707</v>
+        <v>0.7529893787245999</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -6758,16 +6758,16 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7230180188075476</v>
+        <v>0.7464580208925305</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7838708738478608</v>
+        <v>0.7007597394602927</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7374870528324571</v>
+        <v>0.7228870047950899</v>
       </c>
       <c r="G7">
         <v>22</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7881264445756631</v>
+        <v>0.7162292744800305</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7653748282539133</v>
+        <v>0.7092707557469</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7809896116718145</v>
+        <v>0.7558154808564526</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -7004,16 +7004,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7383993635036822</v>
+        <v>0.7521779086597691</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>48</v>
@@ -7099,16 +7099,16 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8282591936206097</v>
+        <v>0.834631344014352</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -7140,16 +7140,16 @@
         <v>46</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8393231410772289</v>
+        <v>0.8064922169972735</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -7181,16 +7181,16 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8466470128088575</v>
+        <v>0.8216945387633339</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -7222,16 +7222,16 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8322629798884332</v>
+        <v>0.8111579610809925</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -7263,16 +7263,16 @@
         <v>46</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8184789115090475</v>
+        <v>0.8057547337347806</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -7304,16 +7304,16 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8025687999161952</v>
+        <v>0.8590345975266991</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>48</v>
@@ -7345,16 +7345,16 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8069957026707543</v>
+        <v>0.8138338232978465</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H8">
         <v>48</v>
@@ -7386,16 +7386,16 @@
         <v>47</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8227976758488982</v>
+        <v>0.809000025762884</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>48</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8765881509991222</v>
+        <v>0.8467626330513529</v>
       </c>
       <c r="G10">
         <v>25</v>
@@ -7468,16 +7468,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8232868053249484</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>48</v>
@@ -7563,16 +7563,16 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9091815274567845</v>
+        <v>0.9073131806803291</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -7604,16 +7604,16 @@
         <v>46</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.903012381057436</v>
+        <v>0.904290792335021</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -7645,16 +7645,16 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9128020615160564</v>
+        <v>0.9016539624499783</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -7686,16 +7686,16 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9056866731841219</v>
+        <v>0.9091671257038479</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -7727,16 +7727,16 @@
         <v>46</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9434653474763907</v>
+        <v>0.914586961192262</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9265001956450487</v>
+        <v>0.908246419359211</v>
       </c>
       <c r="G7">
         <v>27</v>
@@ -7809,16 +7809,16 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9287275242423964</v>
+        <v>0.9523328437702595</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>48</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9402048296018715</v>
+        <v>0.9083591282881091</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9478118429959723</v>
+        <v>0.92892348193043</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -7932,16 +7932,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9019739072151843</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>48</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/48_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/48_455-55R22.xlsx
@@ -19,7 +19,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="141">
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
   <si>
     <t>Signal_Value_44</t>
   </si>
@@ -697,15 +799,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC11"/>
+  <dimension ref="A1:DK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:115">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -947,10 +1049,112 @@
       <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:115">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1094,108 +1298,210 @@
         <v>0</v>
       </c>
       <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
         <v>0.2070015311741191</v>
       </c>
-      <c r="AX2">
+      <c r="CF2">
         <v>0.006872087882007744</v>
       </c>
-      <c r="AY2">
+      <c r="CG2">
         <v>0.1108138758606203</v>
       </c>
-      <c r="AZ2">
+      <c r="CH2">
         <v>0.0217763112759588</v>
       </c>
-      <c r="BA2">
+      <c r="CI2">
         <v>0.04889951497234081</v>
       </c>
-      <c r="BB2">
+      <c r="CJ2">
         <v>0.01143039333565801</v>
       </c>
-      <c r="BC2">
+      <c r="CK2">
         <v>0.01833442260446578</v>
       </c>
-      <c r="BD2">
+      <c r="CL2">
         <v>0.0135171085409687</v>
       </c>
-      <c r="BE2">
+      <c r="CM2">
         <v>0.01208943138419923</v>
       </c>
-      <c r="BF2">
+      <c r="CN2">
         <v>0.008928412037176009</v>
       </c>
-      <c r="BG2">
+      <c r="CO2">
         <v>0.02569305780751919</v>
       </c>
-      <c r="BH2">
+      <c r="CP2">
         <v>0.1313726057584342</v>
       </c>
-      <c r="BI2">
+      <c r="CQ2">
         <v>0.03368904782997335</v>
       </c>
-      <c r="BJ2">
+      <c r="CR2">
         <v>0.1116048456232225</v>
       </c>
-      <c r="BK2">
+      <c r="CS2">
         <v>0.00142572771971386</v>
       </c>
-      <c r="BL2">
+      <c r="CT2">
         <v>0.0711829702079744</v>
       </c>
-      <c r="BM2">
+      <c r="CU2">
         <v>0.01858320615372774</v>
       </c>
-      <c r="BN2">
+      <c r="CV2">
         <v>0.03261223160093508</v>
       </c>
-      <c r="BO2">
+      <c r="CW2">
         <v>0.0004167585583357148</v>
       </c>
-      <c r="BP2">
+      <c r="CX2">
         <v>0.0001940210616993486</v>
       </c>
-      <c r="BQ2">
+      <c r="CY2">
         <v>0.00422474094103397</v>
       </c>
-      <c r="BR2">
+      <c r="CZ2">
         <v>0.004951110826750593</v>
       </c>
-      <c r="BS2">
+      <c r="DA2">
         <v>0.01169976752349461</v>
       </c>
-      <c r="BT2">
+      <c r="DB2">
         <v>0.0002380873682703244</v>
       </c>
-      <c r="BU2">
+      <c r="DC2">
         <v>0.005025472985825408</v>
       </c>
-      <c r="BV2">
+      <c r="DD2">
         <v>0.002881127837883538</v>
       </c>
-      <c r="BW2">
+      <c r="DE2">
         <v>0.008669122586069489</v>
       </c>
-      <c r="BX2">
+      <c r="DF2">
         <v>0.01070913665765932</v>
       </c>
-      <c r="BY2">
+      <c r="DG2">
         <v>0.01128426181524438</v>
       </c>
-      <c r="BZ2">
+      <c r="DH2">
         <v>0.009779133632643695</v>
       </c>
-      <c r="CA2">
+      <c r="DI2">
         <v>0.0003239337864602174</v>
       </c>
-      <c r="CB2">
+      <c r="DJ2">
         <v>0.0437765426496145</v>
       </c>
-      <c r="CC2">
+      <c r="DK2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:115">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1339,108 +1645,210 @@
         <v>0</v>
       </c>
       <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
         <v>0.2508452251781463</v>
       </c>
-      <c r="AX3">
+      <c r="CF3">
         <v>0.00195321233451767</v>
       </c>
-      <c r="AY3">
+      <c r="CG3">
         <v>0.1197566699132402</v>
       </c>
-      <c r="AZ3">
+      <c r="CH3">
         <v>0.01886493157700592</v>
       </c>
-      <c r="BA3">
+      <c r="CI3">
         <v>0.04406103252908699</v>
       </c>
-      <c r="BB3">
+      <c r="CJ3">
         <v>0.008958121066016079</v>
       </c>
-      <c r="BC3">
+      <c r="CK3">
         <v>0.02446094671280105</v>
       </c>
-      <c r="BD3">
+      <c r="CL3">
         <v>0.001002133622738452</v>
       </c>
-      <c r="BE3">
+      <c r="CM3">
         <v>0.01317357857879383</v>
       </c>
-      <c r="BF3">
+      <c r="CN3">
         <v>0.001606609300448242</v>
       </c>
-      <c r="BG3">
+      <c r="CO3">
         <v>0.01739815058457714</v>
       </c>
-      <c r="BH3">
+      <c r="CP3">
         <v>0.1437828727008037</v>
       </c>
-      <c r="BI3">
+      <c r="CQ3">
         <v>0.06514805119998082</v>
       </c>
-      <c r="BJ3">
+      <c r="CR3">
         <v>0.0474425509843817</v>
       </c>
-      <c r="BK3">
+      <c r="CS3">
         <v>0.0125678076904204</v>
       </c>
-      <c r="BL3">
+      <c r="CT3">
         <v>0.03547032302431508</v>
       </c>
-      <c r="BM3">
+      <c r="CU3">
         <v>0.01389152095602371</v>
       </c>
-      <c r="BN3">
+      <c r="CV3">
         <v>0.02700901678885962</v>
       </c>
-      <c r="BO3">
+      <c r="CW3">
         <v>0.001686808100498026</v>
       </c>
-      <c r="BP3">
+      <c r="CX3">
         <v>0.0008997439792880778</v>
       </c>
-      <c r="BQ3">
+      <c r="CY3">
         <v>0.02866341420971076</v>
       </c>
-      <c r="BR3">
+      <c r="CZ3">
         <v>0.002550490484119844</v>
       </c>
-      <c r="BS3">
+      <c r="DA3">
         <v>0.02309758081924752</v>
       </c>
-      <c r="BT3">
+      <c r="DB3">
         <v>0.002991877948659485</v>
       </c>
-      <c r="BU3">
+      <c r="DC3">
         <v>0.01352210298979607</v>
       </c>
-      <c r="BV3">
+      <c r="DD3">
         <v>0.01441540297798052</v>
       </c>
-      <c r="BW3">
+      <c r="DE3">
         <v>0.02166196892558505</v>
       </c>
-      <c r="BX3">
+      <c r="DF3">
         <v>0.001102450787770548</v>
       </c>
-      <c r="BY3">
+      <c r="DG3">
         <v>7.421697388227925E-05</v>
       </c>
-      <c r="BZ3">
+      <c r="DH3">
         <v>0.003887216682471336</v>
       </c>
-      <c r="CA3">
+      <c r="DI3">
         <v>0.004889372493890007</v>
       </c>
-      <c r="CB3">
+      <c r="DJ3">
         <v>0.03316459788494355</v>
       </c>
-      <c r="CC3">
+      <c r="DK3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:115">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1488,204 +1896,306 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.158568547692772</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.1026020858167106</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.02072864690147389</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.004663785534650568</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.001729429454474472</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.01176273505840423</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.004420966807315165</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.005559394900380718</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.02063720322994972</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.0004518307545902598</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.00963865432762182</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.004143608335595018</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.003355120081234529</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.01277577858773356</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.02696674422855131</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.03059663808804255</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.006980970259580984</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.06073000774071372</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.05507068542969566</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.1093519676187082</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.1017781848216446</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.001910205206069537</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.0004208444196064394</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.0009548079035716644</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.008144256543651265</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.006685940812221667</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.02745621794255159</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.07595230674438032</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.08087786586478393</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.03645084786907167</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>0.001111380376284782</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>0.007522340647963225</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.184592702948935</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.003829313725464167</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.1364924453013699</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.01850415060728946</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.04530860569973573</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.005991655292886908</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0215345061521339</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.02715434604404228</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01845124185191358</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.009843673937682299</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.04558843642173182</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.1164666481024375</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.05706812497293878</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.06216352766603848</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.02922594317337352</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.03947921686536042</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01690308165636401</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.02771552762764786</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.001862013309202181</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>3.398637334129975E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.008329919788072638</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.008367782232264863</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01674711269975161</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1.652965508288036E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.009693228374354991</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.007181086010802492</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.02025428317643912</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01069969899294368</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.007413829695364967</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.008294433412032287</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.002915140149322496</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.03187780808367872</v>
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:115">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1736,201 +2246,303 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.1217051052654876</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.04940771890622701</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0004702057291054963</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0001243437206041958</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00779130990092862</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.04197319585701874</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.04667918577770465</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.03936486622136363</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.0345707812264048</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.02678605888294425</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.003211326210781857</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.00114164622065293</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.04444558674203287</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.146868551115498</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.114029491830698</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.0576089900436182</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.001384357192763794</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>8.654596511143506E-05</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.01238218912677256</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.0149049307513926</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.001423337713394822</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.831304578682044E-05</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.006333464097106089</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>0.02459473585276753</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.01768597287396042</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.0001525747218298352</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.02337480551618162</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.05743170986757763</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.07193117313933589</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>0.00929942739366744</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.006997077954278966</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.01582102113700149</v>
       </c>
       <c r="AX5">
-        <v>0.2114565339225154</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.008847355756410848</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.1348373197965046</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.03040508861253977</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.04825781342111557</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001906152170948397</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.01540201247152504</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.02800055614670842</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.01284071182356588</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.007715432428867642</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.05079153544744548</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.09487868625895768</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.02851015165003033</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0726086709853955</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.03159615472797737</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0331037854604845</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01982013556387402</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.02884942050836916</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001187571792513411</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001182213123535363</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.006276606198562879</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01012795938589557</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.03162924986128695</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0002904745984395268</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.003572699688475443</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.002660025057820921</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01017708811835217</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.010620752307195</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0134131478376137</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0199785250401019</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.004884827241662989</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.02523533440649051</v>
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:115">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2074,108 +2686,210 @@
         <v>0</v>
       </c>
       <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
         <v>0.16395982590816</v>
       </c>
-      <c r="AX6">
+      <c r="CF6">
         <v>0.005131401900800051</v>
       </c>
-      <c r="AY6">
+      <c r="CG6">
         <v>0.08606069918750249</v>
       </c>
-      <c r="AZ6">
+      <c r="CH6">
         <v>0.06800002060815184</v>
       </c>
-      <c r="BA6">
+      <c r="CI6">
         <v>0.08174569239837406</v>
       </c>
-      <c r="BB6">
+      <c r="CJ6">
         <v>5.995705994189102E-06</v>
       </c>
-      <c r="BC6">
+      <c r="CK6">
         <v>0.0009865381317301183</v>
       </c>
-      <c r="BD6">
+      <c r="CL6">
         <v>0.006928088108787929</v>
       </c>
-      <c r="BE6">
+      <c r="CM6">
         <v>5.469894608817773E-05</v>
       </c>
-      <c r="BF6">
+      <c r="CN6">
         <v>0.0005140809248661023</v>
       </c>
-      <c r="BG6">
+      <c r="CO6">
         <v>0.1411292152566441</v>
       </c>
-      <c r="BH6">
+      <c r="CP6">
         <v>0.1462434823831937</v>
       </c>
-      <c r="BI6">
+      <c r="CQ6">
         <v>0.005722255130724187</v>
       </c>
-      <c r="BJ6">
+      <c r="CR6">
         <v>0.03768829488512044</v>
       </c>
-      <c r="BK6">
+      <c r="CS6">
         <v>0.01465655367091866</v>
       </c>
-      <c r="BL6">
+      <c r="CT6">
         <v>0.04692789058772447</v>
       </c>
-      <c r="BM6">
+      <c r="CU6">
         <v>0.01136097759983911</v>
       </c>
-      <c r="BN6">
+      <c r="CV6">
         <v>0.06705046145579148</v>
       </c>
-      <c r="BO6">
+      <c r="CW6">
         <v>0.001321792584041549</v>
       </c>
-      <c r="BP6">
+      <c r="CX6">
         <v>8.967689474899201E-05</v>
       </c>
-      <c r="BQ6">
+      <c r="CY6">
         <v>0.004272635389262834</v>
       </c>
-      <c r="BR6">
+      <c r="CZ6">
         <v>0.001240745399168196</v>
       </c>
-      <c r="BS6">
+      <c r="DA6">
         <v>0.0234959381346293</v>
       </c>
-      <c r="BT6">
+      <c r="DB6">
         <v>0.0008938592003211915</v>
       </c>
-      <c r="BU6">
+      <c r="DC6">
         <v>0.003916577626223335</v>
       </c>
-      <c r="BV6">
+      <c r="DD6">
         <v>0.0005534023858861975</v>
       </c>
-      <c r="BW6">
+      <c r="DE6">
         <v>0.007383527562479986</v>
       </c>
-      <c r="BX6">
+      <c r="DF6">
         <v>0.01231499884450243</v>
       </c>
-      <c r="BY6">
+      <c r="DG6">
         <v>0.01795455256679555</v>
       </c>
-      <c r="BZ6">
+      <c r="DH6">
         <v>0.01825713806835199</v>
       </c>
-      <c r="CA6">
+      <c r="DI6">
         <v>0.0009308419388072526</v>
       </c>
-      <c r="CB6">
+      <c r="DJ6">
         <v>0.02320814061437006</v>
       </c>
-      <c r="CC6">
+      <c r="DK6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7" spans="1:115">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2304,123 +3018,225 @@
         <v>0</v>
       </c>
       <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
         <v>0.1053822355034332</v>
       </c>
-      <c r="AS7">
+      <c r="CA7">
         <v>0.04589611010580452</v>
       </c>
-      <c r="AT7">
+      <c r="CB7">
         <v>0.02771174272882696</v>
       </c>
-      <c r="AU7">
+      <c r="CC7">
         <v>0.009131680410763746</v>
       </c>
-      <c r="AV7">
+      <c r="CD7">
         <v>0.0002156888599751324</v>
       </c>
-      <c r="AW7">
+      <c r="CE7">
         <v>0.09397662847383841</v>
       </c>
-      <c r="AX7">
+      <c r="CF7">
         <v>0.02019769432069572</v>
       </c>
-      <c r="AY7">
+      <c r="CG7">
         <v>0.002751322310550138</v>
       </c>
-      <c r="AZ7">
+      <c r="CH7">
         <v>0.0505683543643248</v>
       </c>
-      <c r="BA7">
+      <c r="CI7">
         <v>0.08639321832992312</v>
       </c>
-      <c r="BB7">
+      <c r="CJ7">
         <v>0.005821127677368193</v>
       </c>
-      <c r="BC7">
+      <c r="CK7">
         <v>0.0107157312587746</v>
       </c>
-      <c r="BD7">
+      <c r="CL7">
         <v>0.03278276244116066</v>
       </c>
-      <c r="BE7">
+      <c r="CM7">
         <v>0.06557682148046771</v>
       </c>
-      <c r="BF7">
+      <c r="CN7">
         <v>0.000103889145812293</v>
       </c>
-      <c r="BG7">
+      <c r="CO7">
         <v>0.02918889670397948</v>
       </c>
-      <c r="BH7">
+      <c r="CP7">
         <v>0.02097294284240188</v>
       </c>
-      <c r="BI7">
+      <c r="CQ7">
         <v>4.740645281467772E-06</v>
       </c>
-      <c r="BJ7">
+      <c r="CR7">
         <v>0.03205712305311646</v>
       </c>
-      <c r="BK7">
+      <c r="CS7">
         <v>0.001835370037122766</v>
       </c>
-      <c r="BL7">
+      <c r="CT7">
         <v>0.08160292410146865</v>
       </c>
-      <c r="BM7">
+      <c r="CU7">
         <v>0.02664649914262959</v>
       </c>
-      <c r="BN7">
+      <c r="CV7">
         <v>0.04303916304467276</v>
       </c>
-      <c r="BO7">
+      <c r="CW7">
         <v>0.06646193054430688</v>
       </c>
-      <c r="BP7">
+      <c r="CX7">
         <v>0.001060228024715412</v>
       </c>
-      <c r="BQ7">
+      <c r="CY7">
         <v>0.0481515938077966</v>
       </c>
-      <c r="BR7">
+      <c r="CZ7">
         <v>0.02875202855344375</v>
       </c>
-      <c r="BS7">
+      <c r="DA7">
         <v>0.001487134916017105</v>
       </c>
-      <c r="BT7">
+      <c r="DB7">
         <v>0.0133213047769511</v>
       </c>
-      <c r="BU7">
+      <c r="DC7">
         <v>0.004051857799224761</v>
       </c>
-      <c r="BV7">
+      <c r="DD7">
         <v>0.04403896564206765</v>
       </c>
-      <c r="BW7">
+      <c r="DE7">
         <v>0.0001022889530845127</v>
       </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7">
-        <v>0</v>
-      </c>
-      <c r="BZ7">
-        <v>0</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
-      <c r="CB7">
-        <v>0</v>
-      </c>
-      <c r="CC7">
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8" spans="1:115">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2564,108 +3380,210 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.142876832261454</v>
+        <v>0</v>
       </c>
       <c r="AX8">
-        <v>0.05798167438914762</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>0.01048818840076031</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0.02608053658425237</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>0.009192548542798442</v>
+        <v>0</v>
       </c>
       <c r="BB8">
-        <v>0.1464291786918596</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>0.07566911839562675</v>
+        <v>0</v>
       </c>
       <c r="BD8">
-        <v>0.01168819813956412</v>
+        <v>0</v>
       </c>
       <c r="BE8">
-        <v>0.07431958256798454</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>0.02523426312284604</v>
+        <v>0</v>
       </c>
       <c r="BG8">
-        <v>0.006831857121629389</v>
+        <v>0</v>
       </c>
       <c r="BH8">
-        <v>0.0002083300327096901</v>
+        <v>0</v>
       </c>
       <c r="BI8">
-        <v>0.1292289662293976</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0.01722425502152413</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>0.01714081244243012</v>
+        <v>0</v>
       </c>
       <c r="BL8">
-        <v>0.0002185943517620744</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>0.0005924428994500043</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>1.567439270440266E-07</v>
+        <v>0</v>
       </c>
       <c r="BO8">
-        <v>0.002239556201398477</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>0.005337424780210793</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>0.05485130637711323</v>
+        <v>0</v>
       </c>
       <c r="BR8">
-        <v>0.01259648292179323</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>0.02992035206901491</v>
+        <v>0</v>
       </c>
       <c r="BT8">
-        <v>0.03530565749445145</v>
+        <v>0</v>
       </c>
       <c r="BU8">
-        <v>0.007016598661059591</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>0.05365992932609372</v>
+        <v>0</v>
       </c>
       <c r="BW8">
-        <v>0.002308370793002874</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>0.005548171855272109</v>
+        <v>0</v>
       </c>
       <c r="BY8">
-        <v>0.001851496768888428</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>0.01909583973706261</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>0.007359683241548493</v>
+        <v>0</v>
       </c>
       <c r="CB8">
-        <v>0.01150359383396611</v>
+        <v>0</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
+      <c r="CD8">
+        <v>0.002175584801246672</v>
+      </c>
+      <c r="CE8">
+        <v>0.1442250985511317</v>
+      </c>
+      <c r="CF8">
+        <v>0.05852882213704071</v>
+      </c>
+      <c r="CG8">
+        <v>0.01058716085582326</v>
+      </c>
+      <c r="CH8">
+        <v>0.02632664722190219</v>
+      </c>
+      <c r="CI8">
+        <v>0.009279294610165056</v>
+      </c>
+      <c r="CJ8">
+        <v>0.1478109669239373</v>
+      </c>
+      <c r="CK8">
+        <v>0.07638317483072295</v>
+      </c>
+      <c r="CL8">
+        <v>0.01179849456263857</v>
+      </c>
+      <c r="CM8">
+        <v>0.07502090402264812</v>
+      </c>
+      <c r="CN8">
+        <v>0.02547238784730193</v>
+      </c>
+      <c r="CO8">
+        <v>0.006896326374671977</v>
+      </c>
+      <c r="CP8">
+        <v>0.0002102959522768031</v>
+      </c>
+      <c r="CQ8">
+        <v>0.1304484435656403</v>
+      </c>
+      <c r="CR8">
+        <v>0.01738679279649268</v>
+      </c>
+      <c r="CS8">
+        <v>0.01730256280620866</v>
+      </c>
+      <c r="CT8">
+        <v>0.0002206571312269454</v>
+      </c>
+      <c r="CU8">
+        <v>0.0005980335244466842</v>
+      </c>
+      <c r="CV8">
+        <v>1.582230510531482E-07</v>
+      </c>
+      <c r="CW8">
+        <v>0.002260689915538069</v>
+      </c>
+      <c r="CX8">
+        <v>0.005387791727678384</v>
+      </c>
+      <c r="CY8">
+        <v>0.05536891420871543</v>
+      </c>
+      <c r="CZ8">
+        <v>0.01271535043182366</v>
+      </c>
+      <c r="DA8">
+        <v>0.03020269736902912</v>
+      </c>
+      <c r="DB8">
+        <v>0.03563882157067878</v>
+      </c>
+      <c r="DC8">
+        <v>0.007082811239356346</v>
+      </c>
+      <c r="DD8">
+        <v>0.05416629465259022</v>
+      </c>
+      <c r="DE8">
+        <v>0.002330153880400745</v>
+      </c>
+      <c r="DF8">
+        <v>0.005600527530880265</v>
+      </c>
+      <c r="DG8">
+        <v>0.001868968535580254</v>
+      </c>
+      <c r="DH8">
+        <v>0.01927603883990564</v>
+      </c>
+      <c r="DI8">
+        <v>0.007429133359249362</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:81">
+    <row r="9" spans="1:115">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2812,105 +3730,207 @@
         <v>0</v>
       </c>
       <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
         <v>0.18484450731921</v>
       </c>
-      <c r="AY9">
+      <c r="CG9">
         <v>0.01977755398457232</v>
       </c>
-      <c r="AZ9">
+      <c r="CH9">
         <v>0.03936115847528271</v>
       </c>
-      <c r="BA9">
+      <c r="CI9">
         <v>0.006605087852976011</v>
       </c>
-      <c r="BB9">
+      <c r="CJ9">
         <v>0.0004149753635932591</v>
       </c>
-      <c r="BC9">
+      <c r="CK9">
         <v>0.1013811401379909</v>
       </c>
-      <c r="BD9">
+      <c r="CL9">
         <v>0.1504972973100499</v>
       </c>
-      <c r="BE9">
+      <c r="CM9">
         <v>0.001219622472025986</v>
       </c>
-      <c r="BF9">
+      <c r="CN9">
         <v>0.04686478762328124</v>
       </c>
-      <c r="BG9">
+      <c r="CO9">
         <v>0.05276229388090854</v>
       </c>
-      <c r="BH9">
+      <c r="CP9">
         <v>0.004672524147861875</v>
       </c>
-      <c r="BI9">
+      <c r="CQ9">
         <v>0.004439929792052016</v>
       </c>
-      <c r="BJ9">
+      <c r="CR9">
         <v>0.09642987738709524</v>
       </c>
-      <c r="BK9">
+      <c r="CS9">
         <v>0.05590967475904927</v>
       </c>
-      <c r="BL9">
+      <c r="CT9">
         <v>0.00619473451127214</v>
       </c>
-      <c r="BM9">
+      <c r="CU9">
         <v>0.001026031571716235</v>
       </c>
-      <c r="BN9">
+      <c r="CV9">
         <v>0.0005271829210747726</v>
       </c>
-      <c r="BO9">
+      <c r="CW9">
         <v>0.005695081742306878</v>
       </c>
-      <c r="BP9">
+      <c r="CX9">
         <v>0.002000992006187152</v>
       </c>
-      <c r="BQ9">
+      <c r="CY9">
         <v>0.0004426051512756528</v>
       </c>
-      <c r="BR9">
+      <c r="CZ9">
         <v>0.02793296735310173</v>
       </c>
-      <c r="BS9">
+      <c r="DA9">
         <v>0.03319396551187057</v>
       </c>
-      <c r="BT9">
+      <c r="DB9">
         <v>0.003424829416788693</v>
       </c>
-      <c r="BU9">
+      <c r="DC9">
         <v>0.06274030759656582</v>
       </c>
-      <c r="BV9">
+      <c r="DD9">
         <v>0.0009802065509063955</v>
       </c>
-      <c r="BW9">
+      <c r="DE9">
         <v>0.03918485331089087</v>
       </c>
-      <c r="BX9">
+      <c r="DF9">
         <v>0.01588429124790577</v>
       </c>
-      <c r="BY9">
+      <c r="DG9">
         <v>0.001565729226011266</v>
       </c>
-      <c r="BZ9">
+      <c r="DH9">
         <v>0.001215188034731221</v>
       </c>
-      <c r="CA9">
+      <c r="DI9">
         <v>0.01287466263791465</v>
       </c>
-      <c r="CB9">
+      <c r="DJ9">
         <v>0.01986254410969386</v>
       </c>
-      <c r="CC9">
+      <c r="DK9">
         <v>7.33965938370079E-05</v>
       </c>
     </row>
-    <row r="10" spans="1:81">
+    <row r="10" spans="1:115">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3036,126 +4056,228 @@
         <v>0</v>
       </c>
       <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
         <v>0.0732197835655479</v>
       </c>
-      <c r="AR10">
+      <c r="BZ10">
         <v>1.24594074335029E-07</v>
       </c>
-      <c r="AS10">
+      <c r="CA10">
         <v>0.08035677883874311</v>
       </c>
-      <c r="AT10">
+      <c r="CB10">
         <v>0.001455216057512652</v>
       </c>
-      <c r="AU10">
+      <c r="CC10">
         <v>0.004621508884345648</v>
       </c>
-      <c r="AV10">
+      <c r="CD10">
         <v>0.02122504687281142</v>
       </c>
-      <c r="AW10">
+      <c r="CE10">
         <v>0.08333047989676919</v>
       </c>
-      <c r="AX10">
+      <c r="CF10">
         <v>0.0040076485544323</v>
       </c>
-      <c r="AY10">
+      <c r="CG10">
         <v>0.004092291629390084</v>
       </c>
-      <c r="AZ10">
+      <c r="CH10">
         <v>0.1125250740102415</v>
       </c>
-      <c r="BA10">
+      <c r="CI10">
         <v>0.004184435469221507</v>
       </c>
-      <c r="BB10">
+      <c r="CJ10">
         <v>0.02507290695281726</v>
       </c>
-      <c r="BC10">
+      <c r="CK10">
         <v>0.0005114935965709346</v>
       </c>
-      <c r="BD10">
+      <c r="CL10">
         <v>0.1120382439222804</v>
       </c>
-      <c r="BE10">
+      <c r="CM10">
         <v>0.01279659810932273</v>
       </c>
-      <c r="BF10">
+      <c r="CN10">
         <v>0.02755169179656349</v>
       </c>
-      <c r="BG10">
+      <c r="CO10">
         <v>0.02893401089489338</v>
       </c>
-      <c r="BH10">
+      <c r="CP10">
         <v>0.004754606175216627</v>
       </c>
-      <c r="BI10">
+      <c r="CQ10">
         <v>0.01585361461024899</v>
       </c>
-      <c r="BJ10">
+      <c r="CR10">
         <v>0.02063006583492599</v>
       </c>
-      <c r="BK10">
+      <c r="CS10">
         <v>0.03251198799854996</v>
       </c>
-      <c r="BL10">
+      <c r="CT10">
         <v>0.08614187259197323</v>
       </c>
-      <c r="BM10">
+      <c r="CU10">
         <v>0.008459219110395438</v>
       </c>
-      <c r="BN10">
+      <c r="CV10">
         <v>0.08248793308450481</v>
       </c>
-      <c r="BO10">
+      <c r="CW10">
         <v>0.008155230636076623</v>
       </c>
-      <c r="BP10">
+      <c r="CX10">
         <v>0.02147020596772993</v>
       </c>
-      <c r="BQ10">
+      <c r="CY10">
         <v>0.05253541227527052</v>
       </c>
-      <c r="BR10">
+      <c r="CZ10">
         <v>0.0003678155611199845</v>
       </c>
-      <c r="BS10">
+      <c r="DA10">
         <v>0.0172915691710005</v>
       </c>
-      <c r="BT10">
+      <c r="DB10">
         <v>0.001136846501744826</v>
       </c>
-      <c r="BU10">
+      <c r="DC10">
         <v>0.03466431627353828</v>
       </c>
-      <c r="BV10">
+      <c r="DD10">
         <v>0.01761597056216655</v>
       </c>
-      <c r="BW10">
-        <v>0</v>
-      </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10">
-        <v>0</v>
-      </c>
-      <c r="BZ10">
-        <v>0</v>
-      </c>
-      <c r="CA10">
-        <v>0</v>
-      </c>
-      <c r="CB10">
-        <v>0</v>
-      </c>
-      <c r="CC10">
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:81">
+    <row r="11" spans="1:115">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3164,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2287128588305127</v>
+        <v>0.2484993838606674</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1833496402031286</v>
       </c>
       <c r="F11">
-        <v>0.1150946338147968</v>
+        <v>0.01631855276562716</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3179,40 +4301,40 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01188328504583475</v>
       </c>
       <c r="J11">
-        <v>0.1546567690930395</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.009051900435510355</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07106210797946944</v>
       </c>
       <c r="M11">
-        <v>0.25371364692142</v>
+        <v>0.01411801218230749</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01797788293902519</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.2478220913402309</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.01778386795473098</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.003543570064553095</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -3221,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.02630190480955191</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.007016528436192276</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3239,25 +4361,25 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.0342632507798912</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.1289152561514881</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.01797788293902519</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.0635595165170342</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.06387362432072066</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.06450383261524199</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -3395,6 +4517,108 @@
         <v>0</v>
       </c>
       <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
         <v>0</v>
       </c>
     </row>
@@ -3405,15 +4629,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC11"/>
+  <dimension ref="A1:DK11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:115">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3655,10 +4879,112 @@
       <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:115">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3802,108 +5128,210 @@
         <v>0</v>
       </c>
       <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
         <v>0.2070015311741191</v>
       </c>
-      <c r="AX2">
+      <c r="CF2">
         <v>0.2138736190561268</v>
       </c>
-      <c r="AY2">
+      <c r="CG2">
         <v>0.3246874949167471</v>
       </c>
-      <c r="AZ2">
+      <c r="CH2">
         <v>0.3464638061927059</v>
       </c>
-      <c r="BA2">
+      <c r="CI2">
         <v>0.3953633211650467</v>
       </c>
-      <c r="BB2">
+      <c r="CJ2">
         <v>0.4067937145007048</v>
       </c>
-      <c r="BC2">
+      <c r="CK2">
         <v>0.4251281371051706</v>
       </c>
-      <c r="BD2">
+      <c r="CL2">
         <v>0.4386452456461393</v>
       </c>
-      <c r="BE2">
+      <c r="CM2">
         <v>0.4507346770303385</v>
       </c>
-      <c r="BF2">
+      <c r="CN2">
         <v>0.4596630890675145</v>
       </c>
-      <c r="BG2">
+      <c r="CO2">
         <v>0.4853561468750337</v>
       </c>
-      <c r="BH2">
+      <c r="CP2">
         <v>0.6167287526334679</v>
       </c>
-      <c r="BI2">
+      <c r="CQ2">
         <v>0.6504178004634413</v>
       </c>
-      <c r="BJ2">
+      <c r="CR2">
         <v>0.7620226460866638</v>
       </c>
-      <c r="BK2">
+      <c r="CS2">
         <v>0.7634483738063776</v>
       </c>
-      <c r="BL2">
+      <c r="CT2">
         <v>0.834631344014352</v>
       </c>
-      <c r="BM2">
+      <c r="CU2">
         <v>0.8532145501680798</v>
       </c>
-      <c r="BN2">
+      <c r="CV2">
         <v>0.8858267817690149</v>
       </c>
-      <c r="BO2">
+      <c r="CW2">
         <v>0.8862435403273505</v>
       </c>
-      <c r="BP2">
+      <c r="CX2">
         <v>0.8864375613890498</v>
       </c>
-      <c r="BQ2">
+      <c r="CY2">
         <v>0.8906623023300838</v>
       </c>
-      <c r="BR2">
+      <c r="CZ2">
         <v>0.8956134131568344</v>
       </c>
-      <c r="BS2">
+      <c r="DA2">
         <v>0.9073131806803291</v>
       </c>
-      <c r="BT2">
+      <c r="DB2">
         <v>0.9075512680485994</v>
       </c>
-      <c r="BU2">
+      <c r="DC2">
         <v>0.9125767410344249</v>
       </c>
-      <c r="BV2">
+      <c r="DD2">
         <v>0.9154578688723084</v>
       </c>
-      <c r="BW2">
+      <c r="DE2">
         <v>0.9241269914583778</v>
       </c>
-      <c r="BX2">
+      <c r="DF2">
         <v>0.9348361281160371</v>
       </c>
-      <c r="BY2">
+      <c r="DG2">
         <v>0.9461203899312814</v>
       </c>
-      <c r="BZ2">
+      <c r="DH2">
         <v>0.9558995235639252</v>
       </c>
-      <c r="CA2">
+      <c r="DI2">
         <v>0.9562234573503854</v>
       </c>
-      <c r="CB2">
+      <c r="DJ2">
         <v>0.9999999999999999</v>
       </c>
-      <c r="CC2">
+      <c r="DK2">
         <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:115">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4047,108 +5475,210 @@
         <v>0</v>
       </c>
       <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
         <v>0.2508452251781463</v>
       </c>
-      <c r="AX3">
+      <c r="CF3">
         <v>0.252798437512664</v>
       </c>
-      <c r="AY3">
+      <c r="CG3">
         <v>0.3725551074259042</v>
       </c>
-      <c r="AZ3">
+      <c r="CH3">
         <v>0.3914200390029101</v>
       </c>
-      <c r="BA3">
+      <c r="CI3">
         <v>0.4354810715319971</v>
       </c>
-      <c r="BB3">
+      <c r="CJ3">
         <v>0.4444391925980132</v>
       </c>
-      <c r="BC3">
+      <c r="CK3">
         <v>0.4689001393108142</v>
       </c>
-      <c r="BD3">
+      <c r="CL3">
         <v>0.4699022729335526</v>
       </c>
-      <c r="BE3">
+      <c r="CM3">
         <v>0.4830758515123464</v>
       </c>
-      <c r="BF3">
+      <c r="CN3">
         <v>0.4846824608127947</v>
       </c>
-      <c r="BG3">
+      <c r="CO3">
         <v>0.5020806113973718</v>
       </c>
-      <c r="BH3">
+      <c r="CP3">
         <v>0.6458634840981755</v>
       </c>
-      <c r="BI3">
+      <c r="CQ3">
         <v>0.7110115352981563</v>
       </c>
-      <c r="BJ3">
+      <c r="CR3">
         <v>0.758454086282538</v>
       </c>
-      <c r="BK3">
+      <c r="CS3">
         <v>0.7710218939729584</v>
       </c>
-      <c r="BL3">
+      <c r="CT3">
         <v>0.8064922169972735</v>
       </c>
-      <c r="BM3">
+      <c r="CU3">
         <v>0.8203837379532972</v>
       </c>
-      <c r="BN3">
+      <c r="CV3">
         <v>0.8473927547421568</v>
       </c>
-      <c r="BO3">
+      <c r="CW3">
         <v>0.8490795628426548</v>
       </c>
-      <c r="BP3">
+      <c r="CX3">
         <v>0.8499793068219429</v>
       </c>
-      <c r="BQ3">
+      <c r="CY3">
         <v>0.8786427210316536</v>
       </c>
-      <c r="BR3">
+      <c r="CZ3">
         <v>0.8811932115157735</v>
       </c>
-      <c r="BS3">
+      <c r="DA3">
         <v>0.904290792335021</v>
       </c>
-      <c r="BT3">
+      <c r="DB3">
         <v>0.9072826702836805</v>
       </c>
-      <c r="BU3">
+      <c r="DC3">
         <v>0.9208047732734765</v>
       </c>
-      <c r="BV3">
+      <c r="DD3">
         <v>0.935220176251457</v>
       </c>
-      <c r="BW3">
+      <c r="DE3">
         <v>0.9568821451770421</v>
       </c>
-      <c r="BX3">
+      <c r="DF3">
         <v>0.9579845959648126</v>
       </c>
-      <c r="BY3">
+      <c r="DG3">
         <v>0.9580588129386949</v>
       </c>
-      <c r="BZ3">
+      <c r="DH3">
         <v>0.9619460296211663</v>
       </c>
-      <c r="CA3">
+      <c r="DI3">
         <v>0.9668354021150563</v>
       </c>
-      <c r="CB3">
+      <c r="DJ3">
         <v>0.9999999999999998</v>
       </c>
-      <c r="CC3">
+      <c r="DK3">
         <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:115">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4196,1674 +5726,2388 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.158568547692772</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.2611706335094827</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.2818992804109566</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.2865630659456072</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.2882924954000816</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.3000552304584859</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.3044761972658011</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.3100355921661818</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.3306727953961315</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.3311246261507217</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.3407632804783436</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.3449068888139386</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.3482620088951731</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.3610377874829067</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.388004531711458</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.4186011697995006</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.4255821400590816</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.4863121477997953</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.5413828332294909</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.6507348008481991</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.7525129856698438</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.7544231908759134</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.7548440352955198</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.7557988431990915</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.7639430997427428</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.7706290405549644</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.798085258497516</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.8740375652418964</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.9549154311066803</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.991366278975752</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>0.9924776593520368</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4">
-        <v>0.184592702948935</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>0.1884220166743992</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>0.3249144619757691</v>
+        <v>1</v>
       </c>
       <c r="BA4">
-        <v>0.3434186125830586</v>
+        <v>1</v>
       </c>
       <c r="BB4">
-        <v>0.3887272182827943</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>0.3947188735756812</v>
+        <v>1</v>
       </c>
       <c r="BD4">
-        <v>0.4162533797278151</v>
+        <v>1</v>
       </c>
       <c r="BE4">
-        <v>0.4434077257718574</v>
+        <v>1</v>
       </c>
       <c r="BF4">
-        <v>0.461858967623771</v>
+        <v>1</v>
       </c>
       <c r="BG4">
-        <v>0.4717026415614533</v>
+        <v>1</v>
       </c>
       <c r="BH4">
-        <v>0.5172910779831851</v>
+        <v>1</v>
       </c>
       <c r="BI4">
-        <v>0.6337577260856226</v>
+        <v>1</v>
       </c>
       <c r="BJ4">
-        <v>0.6908258510585614</v>
+        <v>1</v>
       </c>
       <c r="BK4">
-        <v>0.7529893787245999</v>
+        <v>1</v>
       </c>
       <c r="BL4">
-        <v>0.7822153218979735</v>
+        <v>1</v>
       </c>
       <c r="BM4">
-        <v>0.8216945387633339</v>
+        <v>1</v>
       </c>
       <c r="BN4">
-        <v>0.8385976204196979</v>
+        <v>1</v>
       </c>
       <c r="BO4">
-        <v>0.8663131480473457</v>
+        <v>1</v>
       </c>
       <c r="BP4">
-        <v>0.8681751613565479</v>
+        <v>1</v>
       </c>
       <c r="BQ4">
-        <v>0.8682091477298892</v>
+        <v>1</v>
       </c>
       <c r="BR4">
-        <v>0.8765390675179618</v>
+        <v>1</v>
       </c>
       <c r="BS4">
-        <v>0.8849068497502267</v>
+        <v>1</v>
       </c>
       <c r="BT4">
-        <v>0.9016539624499783</v>
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>0.9016704921050612</v>
+        <v>1</v>
       </c>
       <c r="BV4">
-        <v>0.9113637204794163</v>
+        <v>1</v>
       </c>
       <c r="BW4">
-        <v>0.9185448064902187</v>
+        <v>1</v>
       </c>
       <c r="BX4">
-        <v>0.9387990896666578</v>
+        <v>1</v>
       </c>
       <c r="BY4">
-        <v>0.9494987886596015</v>
+        <v>1</v>
       </c>
       <c r="BZ4">
-        <v>0.9569126183549664</v>
+        <v>1</v>
       </c>
       <c r="CA4">
-        <v>0.9652070517669987</v>
+        <v>1</v>
       </c>
       <c r="CB4">
-        <v>0.9681221919163212</v>
+        <v>1</v>
       </c>
       <c r="CC4">
+        <v>1</v>
+      </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
+      <c r="CF4">
+        <v>1</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4">
+        <v>1</v>
+      </c>
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>1</v>
+      </c>
+      <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CN4">
+        <v>1</v>
+      </c>
+      <c r="CO4">
+        <v>1</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CR4">
+        <v>1</v>
+      </c>
+      <c r="CS4">
+        <v>1</v>
+      </c>
+      <c r="CT4">
+        <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>1</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>1</v>
+      </c>
+      <c r="DF4">
+        <v>1</v>
+      </c>
+      <c r="DG4">
+        <v>1</v>
+      </c>
+      <c r="DH4">
+        <v>1</v>
+      </c>
+      <c r="DI4">
+        <v>1</v>
+      </c>
+      <c r="DJ4">
+        <v>1</v>
+      </c>
+      <c r="DK4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:115">
+      <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.1217051052654876</v>
+      </c>
+      <c r="S5">
+        <v>0.1711128241717146</v>
+      </c>
+      <c r="T5">
+        <v>0.1715830299008201</v>
+      </c>
+      <c r="U5">
+        <v>0.1717073736214243</v>
+      </c>
+      <c r="V5">
+        <v>0.1794986835223529</v>
+      </c>
+      <c r="W5">
+        <v>0.2214718793793716</v>
+      </c>
+      <c r="X5">
+        <v>0.2681510651570763</v>
+      </c>
+      <c r="Y5">
+        <v>0.3075159313784399</v>
+      </c>
+      <c r="Z5">
+        <v>0.3420867126048447</v>
+      </c>
+      <c r="AA5">
+        <v>0.368872771487789</v>
+      </c>
+      <c r="AB5">
+        <v>0.3720840976985708</v>
+      </c>
+      <c r="AC5">
+        <v>0.3732257439192238</v>
+      </c>
+      <c r="AD5">
+        <v>0.4176713306612566</v>
+      </c>
+      <c r="AE5">
+        <v>0.5645398817767546</v>
+      </c>
+      <c r="AF5">
+        <v>0.6785693736074527</v>
+      </c>
+      <c r="AG5">
+        <v>0.7361783636510709</v>
+      </c>
+      <c r="AH5">
+        <v>0.7375627208438347</v>
+      </c>
+      <c r="AI5">
+        <v>0.7376492668089462</v>
+      </c>
+      <c r="AJ5">
+        <v>0.7500314559357187</v>
+      </c>
+      <c r="AK5">
+        <v>0.7649363866871113</v>
+      </c>
+      <c r="AL5">
+        <v>0.7663597244005061</v>
+      </c>
+      <c r="AM5">
+        <v>0.766378037446293</v>
+      </c>
+      <c r="AN5">
+        <v>0.7727115015433991</v>
+      </c>
+      <c r="AO5">
+        <v>0.7973062373961666</v>
+      </c>
+      <c r="AP5">
+        <v>0.814992210270127</v>
+      </c>
+      <c r="AQ5">
+        <v>0.8151447849919569</v>
+      </c>
+      <c r="AR5">
+        <v>0.8385195905081385</v>
+      </c>
+      <c r="AS5">
+        <v>0.8959513003757161</v>
+      </c>
+      <c r="AT5">
+        <v>0.967882473515052</v>
+      </c>
+      <c r="AU5">
+        <v>0.9771819009087194</v>
+      </c>
+      <c r="AV5">
+        <v>0.9841789788629983</v>
+      </c>
+      <c r="AW5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AX5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BA5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BD5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BE5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BF5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BG5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BH5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BI5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BK5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BL5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BM5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BN5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BO5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BP5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BR5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BS5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BT5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BU5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BV5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BW5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BX5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BY5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BZ5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CA5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CB5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CC5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CD5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CE5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CF5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CG5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CH5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CI5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CJ5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CK5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CL5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CM5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CN5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CO5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CP5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CQ5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CR5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CS5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CT5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CU5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CV5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CW5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CX5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CY5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CZ5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DA5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DB5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DC5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DD5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DE5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DF5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DG5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DH5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DI5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DK5">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:115">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0.16395982590816</v>
+      </c>
+      <c r="CF6">
+        <v>0.1690912278089601</v>
+      </c>
+      <c r="CG6">
+        <v>0.2551519269964626</v>
+      </c>
+      <c r="CH6">
+        <v>0.3231519476046144</v>
+      </c>
+      <c r="CI6">
+        <v>0.4048976400029884</v>
+      </c>
+      <c r="CJ6">
+        <v>0.4049036357089826</v>
+      </c>
+      <c r="CK6">
+        <v>0.4058901738407127</v>
+      </c>
+      <c r="CL6">
+        <v>0.4128182619495007</v>
+      </c>
+      <c r="CM6">
+        <v>0.4128729608955888</v>
+      </c>
+      <c r="CN6">
+        <v>0.4133870418204549</v>
+      </c>
+      <c r="CO6">
+        <v>0.554516257077099</v>
+      </c>
+      <c r="CP6">
+        <v>0.7007597394602927</v>
+      </c>
+      <c r="CQ6">
+        <v>0.7064819945910169</v>
+      </c>
+      <c r="CR6">
+        <v>0.7441702894761374</v>
+      </c>
+      <c r="CS6">
+        <v>0.7588268431470561</v>
+      </c>
+      <c r="CT6">
+        <v>0.8057547337347806</v>
+      </c>
+      <c r="CU6">
+        <v>0.8171157113346197</v>
+      </c>
+      <c r="CV6">
+        <v>0.8841661727904112</v>
+      </c>
+      <c r="CW6">
+        <v>0.8854879653744527</v>
+      </c>
+      <c r="CX6">
+        <v>0.8855776422692018</v>
+      </c>
+      <c r="CY6">
+        <v>0.8898502776584646</v>
+      </c>
+      <c r="CZ6">
+        <v>0.8910910230576328</v>
+      </c>
+      <c r="DA6">
+        <v>0.914586961192262</v>
+      </c>
+      <c r="DB6">
+        <v>0.9154808203925832</v>
+      </c>
+      <c r="DC6">
+        <v>0.9193973980188065</v>
+      </c>
+      <c r="DD6">
+        <v>0.9199508004046927</v>
+      </c>
+      <c r="DE6">
+        <v>0.9273343279671726</v>
+      </c>
+      <c r="DF6">
+        <v>0.939649326811675</v>
+      </c>
+      <c r="DG6">
+        <v>0.9576038793784706</v>
+      </c>
+      <c r="DH6">
+        <v>0.9758610174468225</v>
+      </c>
+      <c r="DI6">
+        <v>0.9767918593856297</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DK6">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:115">
+      <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0.1053822355034332</v>
+      </c>
+      <c r="CA7">
+        <v>0.1512783456092377</v>
+      </c>
+      <c r="CB7">
+        <v>0.1789900883380647</v>
+      </c>
+      <c r="CC7">
+        <v>0.1881217687488284</v>
+      </c>
+      <c r="CD7">
+        <v>0.1883374576088035</v>
+      </c>
+      <c r="CE7">
+        <v>0.282314086082642</v>
+      </c>
+      <c r="CF7">
+        <v>0.3025117804033377</v>
+      </c>
+      <c r="CG7">
+        <v>0.3052631027138878</v>
+      </c>
+      <c r="CH7">
+        <v>0.3558314570782126</v>
+      </c>
+      <c r="CI7">
+        <v>0.4422246754081358</v>
+      </c>
+      <c r="CJ7">
+        <v>0.448045803085504</v>
+      </c>
+      <c r="CK7">
+        <v>0.4587615343442786</v>
+      </c>
+      <c r="CL7">
+        <v>0.4915442967854392</v>
+      </c>
+      <c r="CM7">
+        <v>0.5571211182659069</v>
+      </c>
+      <c r="CN7">
+        <v>0.5572250074117192</v>
+      </c>
+      <c r="CO7">
+        <v>0.5864139041156987</v>
+      </c>
+      <c r="CP7">
+        <v>0.6073868469581006</v>
+      </c>
+      <c r="CQ7">
+        <v>0.6073915876033821</v>
+      </c>
+      <c r="CR7">
+        <v>0.6394487106564986</v>
+      </c>
+      <c r="CS7">
+        <v>0.6412840806936213</v>
+      </c>
+      <c r="CT7">
+        <v>0.7228870047950899</v>
+      </c>
+      <c r="CU7">
+        <v>0.7495335039377196</v>
+      </c>
+      <c r="CV7">
+        <v>0.7925726669823923</v>
+      </c>
+      <c r="CW7">
+        <v>0.8590345975266991</v>
+      </c>
+      <c r="CX7">
+        <v>0.8600948255514145</v>
+      </c>
+      <c r="CY7">
+        <v>0.908246419359211</v>
+      </c>
+      <c r="CZ7">
+        <v>0.9369984479126547</v>
+      </c>
+      <c r="DA7">
+        <v>0.9384855828286719</v>
+      </c>
+      <c r="DB7">
+        <v>0.951806887605623</v>
+      </c>
+      <c r="DC7">
+        <v>0.9558587454048478</v>
+      </c>
+      <c r="DD7">
+        <v>0.9998977110469155</v>
+      </c>
+      <c r="DE7">
+        <v>1</v>
+      </c>
+      <c r="DF7">
+        <v>1</v>
+      </c>
+      <c r="DG7">
+        <v>1</v>
+      </c>
+      <c r="DH7">
+        <v>1</v>
+      </c>
+      <c r="DI7">
+        <v>1</v>
+      </c>
+      <c r="DJ7">
+        <v>1</v>
+      </c>
+      <c r="DK7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:115">
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0.002175584801246672</v>
+      </c>
+      <c r="CE8">
+        <v>0.1464006833523783</v>
+      </c>
+      <c r="CF8">
+        <v>0.204929505489419</v>
+      </c>
+      <c r="CG8">
+        <v>0.2155166663452423</v>
+      </c>
+      <c r="CH8">
+        <v>0.2418433135671445</v>
+      </c>
+      <c r="CI8">
+        <v>0.2511226081773096</v>
+      </c>
+      <c r="CJ8">
+        <v>0.3989335751012468</v>
+      </c>
+      <c r="CK8">
+        <v>0.4753167499319698</v>
+      </c>
+      <c r="CL8">
+        <v>0.4871152444946084</v>
+      </c>
+      <c r="CM8">
+        <v>0.5621361485172565</v>
+      </c>
+      <c r="CN8">
+        <v>0.5876085363645583</v>
+      </c>
+      <c r="CO8">
+        <v>0.5945048627392303</v>
+      </c>
+      <c r="CP8">
+        <v>0.5947151586915072</v>
+      </c>
+      <c r="CQ8">
+        <v>0.7251636022571475</v>
+      </c>
+      <c r="CR8">
+        <v>0.7425503950536402</v>
+      </c>
+      <c r="CS8">
+        <v>0.7598529578598489</v>
+      </c>
+      <c r="CT8">
+        <v>0.7600736149910758</v>
+      </c>
+      <c r="CU8">
+        <v>0.7606716485155225</v>
+      </c>
+      <c r="CV8">
+        <v>0.7606718067385736</v>
+      </c>
+      <c r="CW8">
+        <v>0.7629324966541117</v>
+      </c>
+      <c r="CX8">
+        <v>0.76832028838179</v>
+      </c>
+      <c r="CY8">
+        <v>0.8236892025905054</v>
+      </c>
+      <c r="CZ8">
+        <v>0.8364045530223291</v>
+      </c>
+      <c r="DA8">
+        <v>0.8666072503913582</v>
+      </c>
+      <c r="DB8">
+        <v>0.902246071962037</v>
+      </c>
+      <c r="DC8">
+        <v>0.9093288832013934</v>
+      </c>
+      <c r="DD8">
+        <v>0.9634951778539836</v>
+      </c>
+      <c r="DE8">
+        <v>0.9658253317343843</v>
+      </c>
+      <c r="DF8">
+        <v>0.9714258592652646</v>
+      </c>
+      <c r="DG8">
+        <v>0.9732948278008449</v>
+      </c>
+      <c r="DH8">
+        <v>0.9925708666407506</v>
+      </c>
+      <c r="DI8">
         <v>0.9999999999999999</v>
       </c>
+      <c r="DJ8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DK8">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:81">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0.2114565339225154</v>
-      </c>
-      <c r="AY5">
-        <v>0.2203038896789262</v>
-      </c>
-      <c r="AZ5">
-        <v>0.3551412094754308</v>
-      </c>
-      <c r="BA5">
-        <v>0.3855462980879706</v>
-      </c>
-      <c r="BB5">
-        <v>0.4338041115090862</v>
-      </c>
-      <c r="BC5">
-        <v>0.4357102636800346</v>
-      </c>
-      <c r="BD5">
-        <v>0.4511122761515596</v>
-      </c>
-      <c r="BE5">
-        <v>0.4791128322982681</v>
-      </c>
-      <c r="BF5">
-        <v>0.491953544121834</v>
-      </c>
-      <c r="BG5">
-        <v>0.4996689765507016</v>
-      </c>
-      <c r="BH5">
-        <v>0.5504605119981471</v>
-      </c>
-      <c r="BI5">
-        <v>0.6453391982571047</v>
-      </c>
-      <c r="BJ5">
-        <v>0.6738493499071351</v>
-      </c>
-      <c r="BK5">
-        <v>0.7464580208925305</v>
-      </c>
-      <c r="BL5">
-        <v>0.7780541756205079</v>
-      </c>
-      <c r="BM5">
-        <v>0.8111579610809925</v>
-      </c>
-      <c r="BN5">
-        <v>0.8309780966448665</v>
-      </c>
-      <c r="BO5">
-        <v>0.8598275171532357</v>
-      </c>
-      <c r="BP5">
-        <v>0.8610150889457491</v>
-      </c>
-      <c r="BQ5">
-        <v>0.8611333102581026</v>
-      </c>
-      <c r="BR5">
-        <v>0.8674099164566654</v>
-      </c>
-      <c r="BS5">
-        <v>0.877537875842561</v>
-      </c>
-      <c r="BT5">
-        <v>0.9091671257038479</v>
-      </c>
-      <c r="BU5">
-        <v>0.9094576003022875</v>
-      </c>
-      <c r="BV5">
-        <v>0.9130302999907629</v>
-      </c>
-      <c r="BW5">
-        <v>0.9156903250485838</v>
-      </c>
-      <c r="BX5">
-        <v>0.925867413166936</v>
-      </c>
-      <c r="BY5">
-        <v>0.9364881654741311</v>
-      </c>
-      <c r="BZ5">
-        <v>0.9499013133117448</v>
-      </c>
-      <c r="CA5">
-        <v>0.9698798383518467</v>
-      </c>
-      <c r="CB5">
-        <v>0.9747646655935096</v>
-      </c>
-      <c r="CC5">
+    <row r="9" spans="1:115">
+      <c r="A9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0.18484450731921</v>
+      </c>
+      <c r="CG9">
+        <v>0.2046220613037823</v>
+      </c>
+      <c r="CH9">
+        <v>0.243983219779065</v>
+      </c>
+      <c r="CI9">
+        <v>0.250588307632041</v>
+      </c>
+      <c r="CJ9">
+        <v>0.2510032829956343</v>
+      </c>
+      <c r="CK9">
+        <v>0.3523844231336252</v>
+      </c>
+      <c r="CL9">
+        <v>0.5028817204436751</v>
+      </c>
+      <c r="CM9">
+        <v>0.5041013429157011</v>
+      </c>
+      <c r="CN9">
+        <v>0.5509661305389824</v>
+      </c>
+      <c r="CO9">
+        <v>0.6037284244198909</v>
+      </c>
+      <c r="CP9">
+        <v>0.6084009485677528</v>
+      </c>
+      <c r="CQ9">
+        <v>0.6128408783598048</v>
+      </c>
+      <c r="CR9">
+        <v>0.7092707557469</v>
+      </c>
+      <c r="CS9">
+        <v>0.7651804305059493</v>
+      </c>
+      <c r="CT9">
+        <v>0.7713751650172215</v>
+      </c>
+      <c r="CU9">
+        <v>0.7724011965889377</v>
+      </c>
+      <c r="CV9">
+        <v>0.7729283795100125</v>
+      </c>
+      <c r="CW9">
+        <v>0.7786234612523194</v>
+      </c>
+      <c r="CX9">
+        <v>0.7806244532585066</v>
+      </c>
+      <c r="CY9">
+        <v>0.7810670584097823</v>
+      </c>
+      <c r="CZ9">
+        <v>0.809000025762884</v>
+      </c>
+      <c r="DA9">
+        <v>0.8421939912747546</v>
+      </c>
+      <c r="DB9">
+        <v>0.8456188206915433</v>
+      </c>
+      <c r="DC9">
+        <v>0.9083591282881091</v>
+      </c>
+      <c r="DD9">
+        <v>0.9093393348390154</v>
+      </c>
+      <c r="DE9">
+        <v>0.9485241881499062</v>
+      </c>
+      <c r="DF9">
+        <v>0.964408479397812</v>
+      </c>
+      <c r="DG9">
+        <v>0.9659742086238233</v>
+      </c>
+      <c r="DH9">
+        <v>0.9671893966585545</v>
+      </c>
+      <c r="DI9">
+        <v>0.9800640592964691</v>
+      </c>
+      <c r="DJ9">
+        <v>0.999926603406163</v>
+      </c>
+      <c r="DK9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:81">
-      <c r="A6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0.16395982590816</v>
-      </c>
-      <c r="AX6">
-        <v>0.1690912278089601</v>
-      </c>
-      <c r="AY6">
-        <v>0.2551519269964626</v>
-      </c>
-      <c r="AZ6">
-        <v>0.3231519476046144</v>
-      </c>
-      <c r="BA6">
-        <v>0.4048976400029884</v>
-      </c>
-      <c r="BB6">
-        <v>0.4049036357089826</v>
-      </c>
-      <c r="BC6">
-        <v>0.4058901738407127</v>
-      </c>
-      <c r="BD6">
-        <v>0.4128182619495007</v>
-      </c>
-      <c r="BE6">
-        <v>0.4128729608955888</v>
-      </c>
-      <c r="BF6">
-        <v>0.4133870418204549</v>
-      </c>
-      <c r="BG6">
-        <v>0.554516257077099</v>
-      </c>
-      <c r="BH6">
-        <v>0.7007597394602927</v>
-      </c>
-      <c r="BI6">
-        <v>0.7064819945910169</v>
-      </c>
-      <c r="BJ6">
-        <v>0.7441702894761374</v>
-      </c>
-      <c r="BK6">
-        <v>0.7588268431470561</v>
-      </c>
-      <c r="BL6">
-        <v>0.8057547337347806</v>
-      </c>
-      <c r="BM6">
-        <v>0.8171157113346197</v>
-      </c>
-      <c r="BN6">
-        <v>0.8841661727904112</v>
-      </c>
-      <c r="BO6">
-        <v>0.8854879653744527</v>
-      </c>
-      <c r="BP6">
-        <v>0.8855776422692018</v>
-      </c>
-      <c r="BQ6">
-        <v>0.8898502776584646</v>
-      </c>
-      <c r="BR6">
-        <v>0.8910910230576328</v>
-      </c>
-      <c r="BS6">
-        <v>0.914586961192262</v>
-      </c>
-      <c r="BT6">
-        <v>0.9154808203925832</v>
-      </c>
-      <c r="BU6">
-        <v>0.9193973980188065</v>
-      </c>
-      <c r="BV6">
-        <v>0.9199508004046927</v>
-      </c>
-      <c r="BW6">
-        <v>0.9273343279671726</v>
-      </c>
-      <c r="BX6">
-        <v>0.939649326811675</v>
-      </c>
-      <c r="BY6">
-        <v>0.9576038793784706</v>
-      </c>
-      <c r="BZ6">
-        <v>0.9758610174468225</v>
-      </c>
-      <c r="CA6">
-        <v>0.9767918593856297</v>
-      </c>
-      <c r="CB6">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CC6">
-        <v>0.9999999999999998</v>
+    <row r="10" spans="1:115">
+      <c r="A10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0.0732197835655479</v>
+      </c>
+      <c r="BZ10">
+        <v>0.07321990815962223</v>
+      </c>
+      <c r="CA10">
+        <v>0.1535766869983654</v>
+      </c>
+      <c r="CB10">
+        <v>0.155031903055878</v>
+      </c>
+      <c r="CC10">
+        <v>0.1596534119402236</v>
+      </c>
+      <c r="CD10">
+        <v>0.1808784588130351</v>
+      </c>
+      <c r="CE10">
+        <v>0.2642089387098043</v>
+      </c>
+      <c r="CF10">
+        <v>0.2682165872642366</v>
+      </c>
+      <c r="CG10">
+        <v>0.2723088788936266</v>
+      </c>
+      <c r="CH10">
+        <v>0.3848339529038681</v>
+      </c>
+      <c r="CI10">
+        <v>0.3890183883730896</v>
+      </c>
+      <c r="CJ10">
+        <v>0.4140912953259069</v>
+      </c>
+      <c r="CK10">
+        <v>0.4146027889224778</v>
+      </c>
+      <c r="CL10">
+        <v>0.5266410328447582</v>
+      </c>
+      <c r="CM10">
+        <v>0.5394376309540809</v>
+      </c>
+      <c r="CN10">
+        <v>0.5669893227506444</v>
+      </c>
+      <c r="CO10">
+        <v>0.5959233336455377</v>
+      </c>
+      <c r="CP10">
+        <v>0.6006779398207543</v>
+      </c>
+      <c r="CQ10">
+        <v>0.6165315544310034</v>
+      </c>
+      <c r="CR10">
+        <v>0.6371616202659294</v>
+      </c>
+      <c r="CS10">
+        <v>0.6696736082644793</v>
+      </c>
+      <c r="CT10">
+        <v>0.7558154808564526</v>
+      </c>
+      <c r="CU10">
+        <v>0.764274699966848</v>
+      </c>
+      <c r="CV10">
+        <v>0.8467626330513529</v>
+      </c>
+      <c r="CW10">
+        <v>0.8549178636874295</v>
+      </c>
+      <c r="CX10">
+        <v>0.8763880696551595</v>
+      </c>
+      <c r="CY10">
+        <v>0.92892348193043</v>
+      </c>
+      <c r="CZ10">
+        <v>0.9292912974915499</v>
+      </c>
+      <c r="DA10">
+        <v>0.9465828666625504</v>
+      </c>
+      <c r="DB10">
+        <v>0.9477197131642953</v>
+      </c>
+      <c r="DC10">
+        <v>0.9823840294378335</v>
+      </c>
+      <c r="DD10">
+        <v>1</v>
+      </c>
+      <c r="DE10">
+        <v>1</v>
+      </c>
+      <c r="DF10">
+        <v>1</v>
+      </c>
+      <c r="DG10">
+        <v>1</v>
+      </c>
+      <c r="DH10">
+        <v>1</v>
+      </c>
+      <c r="DI10">
+        <v>1</v>
+      </c>
+      <c r="DJ10">
+        <v>1</v>
+      </c>
+      <c r="DK10">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:81">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0.1053822355034332</v>
-      </c>
-      <c r="AS7">
-        <v>0.1512783456092377</v>
-      </c>
-      <c r="AT7">
-        <v>0.1789900883380647</v>
-      </c>
-      <c r="AU7">
-        <v>0.1881217687488284</v>
-      </c>
-      <c r="AV7">
-        <v>0.1883374576088035</v>
-      </c>
-      <c r="AW7">
-        <v>0.282314086082642</v>
-      </c>
-      <c r="AX7">
-        <v>0.3025117804033377</v>
-      </c>
-      <c r="AY7">
-        <v>0.3052631027138878</v>
-      </c>
-      <c r="AZ7">
-        <v>0.3558314570782126</v>
-      </c>
-      <c r="BA7">
-        <v>0.4422246754081358</v>
-      </c>
-      <c r="BB7">
-        <v>0.448045803085504</v>
-      </c>
-      <c r="BC7">
-        <v>0.4587615343442786</v>
-      </c>
-      <c r="BD7">
-        <v>0.4915442967854392</v>
-      </c>
-      <c r="BE7">
-        <v>0.5571211182659069</v>
-      </c>
-      <c r="BF7">
-        <v>0.5572250074117192</v>
-      </c>
-      <c r="BG7">
-        <v>0.5864139041156987</v>
-      </c>
-      <c r="BH7">
-        <v>0.6073868469581006</v>
-      </c>
-      <c r="BI7">
-        <v>0.6073915876033821</v>
-      </c>
-      <c r="BJ7">
-        <v>0.6394487106564986</v>
-      </c>
-      <c r="BK7">
-        <v>0.6412840806936213</v>
-      </c>
-      <c r="BL7">
-        <v>0.7228870047950899</v>
-      </c>
-      <c r="BM7">
-        <v>0.7495335039377196</v>
-      </c>
-      <c r="BN7">
-        <v>0.7925726669823923</v>
-      </c>
-      <c r="BO7">
-        <v>0.8590345975266991</v>
-      </c>
-      <c r="BP7">
-        <v>0.8600948255514145</v>
-      </c>
-      <c r="BQ7">
-        <v>0.908246419359211</v>
-      </c>
-      <c r="BR7">
-        <v>0.9369984479126547</v>
-      </c>
-      <c r="BS7">
-        <v>0.9384855828286719</v>
-      </c>
-      <c r="BT7">
-        <v>0.951806887605623</v>
-      </c>
-      <c r="BU7">
-        <v>0.9558587454048478</v>
-      </c>
-      <c r="BV7">
-        <v>0.9998977110469155</v>
-      </c>
-      <c r="BW7">
-        <v>1</v>
-      </c>
-      <c r="BX7">
-        <v>1</v>
-      </c>
-      <c r="BY7">
-        <v>1</v>
-      </c>
-      <c r="BZ7">
-        <v>1</v>
-      </c>
-      <c r="CA7">
-        <v>1</v>
-      </c>
-      <c r="CB7">
-        <v>1</v>
-      </c>
-      <c r="CC7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:81">
-      <c r="A8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0.142876832261454</v>
-      </c>
-      <c r="AX8">
-        <v>0.2008585066506016</v>
-      </c>
-      <c r="AY8">
-        <v>0.2113466950513619</v>
-      </c>
-      <c r="AZ8">
-        <v>0.2374272316356143</v>
-      </c>
-      <c r="BA8">
-        <v>0.2466197801784128</v>
-      </c>
-      <c r="BB8">
-        <v>0.3930489588702724</v>
-      </c>
-      <c r="BC8">
-        <v>0.4687180772658991</v>
-      </c>
-      <c r="BD8">
-        <v>0.4804062754054632</v>
-      </c>
-      <c r="BE8">
-        <v>0.5547258579734478</v>
-      </c>
-      <c r="BF8">
-        <v>0.5799601210962938</v>
-      </c>
-      <c r="BG8">
-        <v>0.5867919782179232</v>
-      </c>
-      <c r="BH8">
-        <v>0.5870003082506329</v>
-      </c>
-      <c r="BI8">
-        <v>0.7162292744800305</v>
-      </c>
-      <c r="BJ8">
-        <v>0.7334535295015546</v>
-      </c>
-      <c r="BK8">
-        <v>0.7505943419439848</v>
-      </c>
-      <c r="BL8">
-        <v>0.7508129362957469</v>
-      </c>
-      <c r="BM8">
-        <v>0.7514053791951969</v>
-      </c>
-      <c r="BN8">
-        <v>0.751405535939124</v>
-      </c>
-      <c r="BO8">
-        <v>0.7536450921405224</v>
-      </c>
-      <c r="BP8">
-        <v>0.7589825169207333</v>
-      </c>
-      <c r="BQ8">
-        <v>0.8138338232978465</v>
-      </c>
-      <c r="BR8">
-        <v>0.8264303062196398</v>
-      </c>
-      <c r="BS8">
-        <v>0.8563506582886546</v>
-      </c>
-      <c r="BT8">
-        <v>0.8916563157831061</v>
-      </c>
-      <c r="BU8">
-        <v>0.8986729144441657</v>
-      </c>
-      <c r="BV8">
-        <v>0.9523328437702595</v>
-      </c>
-      <c r="BW8">
-        <v>0.9546412145632623</v>
-      </c>
-      <c r="BX8">
-        <v>0.9601893864185345</v>
-      </c>
-      <c r="BY8">
-        <v>0.9620408831874229</v>
-      </c>
-      <c r="BZ8">
-        <v>0.9811367229244855</v>
-      </c>
-      <c r="CA8">
-        <v>0.988496406166034</v>
-      </c>
-      <c r="CB8">
-        <v>1</v>
-      </c>
-      <c r="CC8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:81">
-      <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0.18484450731921</v>
-      </c>
-      <c r="AY9">
-        <v>0.2046220613037823</v>
-      </c>
-      <c r="AZ9">
-        <v>0.243983219779065</v>
-      </c>
-      <c r="BA9">
-        <v>0.250588307632041</v>
-      </c>
-      <c r="BB9">
-        <v>0.2510032829956343</v>
-      </c>
-      <c r="BC9">
-        <v>0.3523844231336252</v>
-      </c>
-      <c r="BD9">
-        <v>0.5028817204436751</v>
-      </c>
-      <c r="BE9">
-        <v>0.5041013429157011</v>
-      </c>
-      <c r="BF9">
-        <v>0.5509661305389824</v>
-      </c>
-      <c r="BG9">
-        <v>0.6037284244198909</v>
-      </c>
-      <c r="BH9">
-        <v>0.6084009485677528</v>
-      </c>
-      <c r="BI9">
-        <v>0.6128408783598048</v>
-      </c>
-      <c r="BJ9">
-        <v>0.7092707557469</v>
-      </c>
-      <c r="BK9">
-        <v>0.7651804305059493</v>
-      </c>
-      <c r="BL9">
-        <v>0.7713751650172215</v>
-      </c>
-      <c r="BM9">
-        <v>0.7724011965889377</v>
-      </c>
-      <c r="BN9">
-        <v>0.7729283795100125</v>
-      </c>
-      <c r="BO9">
-        <v>0.7786234612523194</v>
-      </c>
-      <c r="BP9">
-        <v>0.7806244532585066</v>
-      </c>
-      <c r="BQ9">
-        <v>0.7810670584097823</v>
-      </c>
-      <c r="BR9">
-        <v>0.809000025762884</v>
-      </c>
-      <c r="BS9">
-        <v>0.8421939912747546</v>
-      </c>
-      <c r="BT9">
-        <v>0.8456188206915433</v>
-      </c>
-      <c r="BU9">
-        <v>0.9083591282881091</v>
-      </c>
-      <c r="BV9">
-        <v>0.9093393348390154</v>
-      </c>
-      <c r="BW9">
-        <v>0.9485241881499062</v>
-      </c>
-      <c r="BX9">
-        <v>0.964408479397812</v>
-      </c>
-      <c r="BY9">
-        <v>0.9659742086238233</v>
-      </c>
-      <c r="BZ9">
-        <v>0.9671893966585545</v>
-      </c>
-      <c r="CA9">
-        <v>0.9800640592964691</v>
-      </c>
-      <c r="CB9">
-        <v>0.999926603406163</v>
-      </c>
-      <c r="CC9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:81">
-      <c r="A10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0.0732197835655479</v>
-      </c>
-      <c r="AR10">
-        <v>0.07321990815962223</v>
-      </c>
-      <c r="AS10">
-        <v>0.1535766869983654</v>
-      </c>
-      <c r="AT10">
-        <v>0.155031903055878</v>
-      </c>
-      <c r="AU10">
-        <v>0.1596534119402236</v>
-      </c>
-      <c r="AV10">
-        <v>0.1808784588130351</v>
-      </c>
-      <c r="AW10">
-        <v>0.2642089387098043</v>
-      </c>
-      <c r="AX10">
-        <v>0.2682165872642366</v>
-      </c>
-      <c r="AY10">
-        <v>0.2723088788936266</v>
-      </c>
-      <c r="AZ10">
-        <v>0.3848339529038681</v>
-      </c>
-      <c r="BA10">
-        <v>0.3890183883730896</v>
-      </c>
-      <c r="BB10">
-        <v>0.4140912953259069</v>
-      </c>
-      <c r="BC10">
-        <v>0.4146027889224778</v>
-      </c>
-      <c r="BD10">
-        <v>0.5266410328447582</v>
-      </c>
-      <c r="BE10">
-        <v>0.5394376309540809</v>
-      </c>
-      <c r="BF10">
-        <v>0.5669893227506444</v>
-      </c>
-      <c r="BG10">
-        <v>0.5959233336455377</v>
-      </c>
-      <c r="BH10">
-        <v>0.6006779398207543</v>
-      </c>
-      <c r="BI10">
-        <v>0.6165315544310034</v>
-      </c>
-      <c r="BJ10">
-        <v>0.6371616202659294</v>
-      </c>
-      <c r="BK10">
-        <v>0.6696736082644793</v>
-      </c>
-      <c r="BL10">
-        <v>0.7558154808564526</v>
-      </c>
-      <c r="BM10">
-        <v>0.764274699966848</v>
-      </c>
-      <c r="BN10">
-        <v>0.8467626330513529</v>
-      </c>
-      <c r="BO10">
-        <v>0.8549178636874295</v>
-      </c>
-      <c r="BP10">
-        <v>0.8763880696551595</v>
-      </c>
-      <c r="BQ10">
-        <v>0.92892348193043</v>
-      </c>
-      <c r="BR10">
-        <v>0.9292912974915499</v>
-      </c>
-      <c r="BS10">
-        <v>0.9465828666625504</v>
-      </c>
-      <c r="BT10">
-        <v>0.9477197131642953</v>
-      </c>
-      <c r="BU10">
-        <v>0.9823840294378335</v>
-      </c>
-      <c r="BV10">
-        <v>1</v>
-      </c>
-      <c r="BW10">
-        <v>1</v>
-      </c>
-      <c r="BX10">
-        <v>1</v>
-      </c>
-      <c r="BY10">
-        <v>1</v>
-      </c>
-      <c r="BZ10">
-        <v>1</v>
-      </c>
-      <c r="CA10">
-        <v>1</v>
-      </c>
-      <c r="CB10">
-        <v>1</v>
-      </c>
-      <c r="CC10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:81">
+    <row r="11" spans="1:115">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5872,238 +8116,340 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2287128588305127</v>
+        <v>0.2484993838606674</v>
       </c>
       <c r="E11">
-        <v>0.2287128588305127</v>
+        <v>0.431849024063796</v>
       </c>
       <c r="F11">
-        <v>0.3438074926453095</v>
+        <v>0.4481675768294232</v>
       </c>
       <c r="G11">
-        <v>0.3438074926453095</v>
+        <v>0.4481675768294232</v>
       </c>
       <c r="H11">
-        <v>0.3438074926453095</v>
+        <v>0.4481675768294232</v>
       </c>
       <c r="I11">
-        <v>0.3438074926453095</v>
+        <v>0.4600508618752579</v>
       </c>
       <c r="J11">
-        <v>0.498464261738349</v>
+        <v>0.4600508618752579</v>
       </c>
       <c r="K11">
-        <v>0.498464261738349</v>
+        <v>0.4691027623107683</v>
       </c>
       <c r="L11">
-        <v>0.498464261738349</v>
+        <v>0.5401648702902377</v>
       </c>
       <c r="M11">
-        <v>0.7521779086597691</v>
+        <v>0.5542828824725452</v>
       </c>
       <c r="N11">
-        <v>0.7521779086597691</v>
+        <v>0.5542828824725452</v>
       </c>
       <c r="O11">
-        <v>0.7521779086597691</v>
+        <v>0.5722607654115704</v>
       </c>
       <c r="P11">
-        <v>0.7521779086597691</v>
+        <v>0.5722607654115704</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0.5722607654115704</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.5722607654115704</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0.5900446333663014</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0.5935882034308545</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0.5935882034308545</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0.5935882034308545</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.6198901082404064</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.6269066366765986</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0.6269066366765986</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.6269066366765986</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.6269066366765986</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.6269066366765986</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.6611698874564899</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.7900851436079779</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.8080630265470031</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.8080630265470031</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.8716225430640373</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9354961673847579</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CE11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CF11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CG11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CH11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CI11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CJ11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CK11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CL11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CN11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CO11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CP11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CQ11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CR11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CS11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CT11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CU11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CV11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CW11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DI11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DJ11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DK11">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6121,57 +8467,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6189,30 +8535,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6230,39 +8576,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5172910779831851</v>
+        <v>0.5413828332294909</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -6271,39 +8617,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5504605119981471</v>
+        <v>0.5645398817767546</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -6312,30 +8658,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6353,30 +8699,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6394,36 +8740,36 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5547258579734478</v>
+        <v>0.5621361485172565</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -6435,30 +8781,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6476,30 +8822,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6517,21 +8863,21 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -6540,16 +8886,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7521779086597691</v>
+        <v>0.5401648702902377</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>48</v>
@@ -6558,16 +8904,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -6585,57 +8931,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6653,30 +8999,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6694,39 +9040,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7529893787245999</v>
+        <v>0.7525129856698438</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -6735,39 +9081,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7464580208925305</v>
+        <v>0.7361783636510709</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -6776,30 +9122,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6817,30 +9163,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6858,36 +9204,36 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7162292744800305</v>
+        <v>0.7251636022571475</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -6899,30 +9245,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6940,30 +9286,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6981,21 +9327,21 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -7004,16 +9350,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7521779086597691</v>
+        <v>0.7900851436079779</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H11">
         <v>48</v>
@@ -7022,16 +9368,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7049,57 +9395,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7117,30 +9463,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7158,39 +9504,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8216945387633339</v>
+        <v>0.8740375652418964</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -7199,39 +9545,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8111579610809925</v>
+        <v>0.814992210270127</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -7240,30 +9586,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7281,30 +9627,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7322,36 +9668,36 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8138338232978465</v>
+        <v>0.8236892025905054</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -7363,30 +9709,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7404,30 +9750,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7445,21 +9791,21 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -7468,16 +9814,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.8080630265470031</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>48</v>
@@ -7486,16 +9832,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7513,57 +9859,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7581,30 +9927,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7622,39 +9968,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9016539624499783</v>
+        <v>0.9549154311066803</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -7663,39 +10009,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9091671257038479</v>
+        <v>0.967882473515052</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -7704,30 +10050,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7745,30 +10091,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7786,39 +10132,39 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9523328437702595</v>
+        <v>0.902246071962037</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>48</v>
@@ -7827,30 +10173,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7868,30 +10214,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7909,21 +10255,21 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -7932,16 +10278,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.9354961673847579</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>48</v>
@@ -7950,16 +10296,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/48_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/48_455-55R22.xlsx
@@ -294,40 +294,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>455-55R22.5</t>
@@ -337,9 +340,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -1094,100 +1094,100 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.2070015311741191</v>
+        <v>0.3397647674220748</v>
       </c>
       <c r="AX2">
-        <v>0.006872087882007744</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.1108138758606203</v>
+        <v>0.1551269503383535</v>
       </c>
       <c r="AZ2">
-        <v>0.0217763112759588</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.04889951497234081</v>
+        <v>0.03627872180749996</v>
       </c>
       <c r="BB2">
-        <v>0.01143039333565801</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.01833442260446578</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0135171085409687</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01208943138419923</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.008928412037176009</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.02569305780751919</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.1313726057584342</v>
+        <v>0.1945906320132459</v>
       </c>
       <c r="BI2">
-        <v>0.03368904782997335</v>
+        <v>0.007081342571702454</v>
       </c>
       <c r="BJ2">
-        <v>0.1116048456232225</v>
+        <v>0.1566452629520678</v>
       </c>
       <c r="BK2">
-        <v>0.00142572771971386</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0711829702079744</v>
+        <v>0.07905311440892566</v>
       </c>
       <c r="BM2">
-        <v>0.01858320615372774</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.03261223160093508</v>
+        <v>0.005014330986047883</v>
       </c>
       <c r="BO2">
-        <v>0.0004167585583357148</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0001940210616993486</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.00422474094103397</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.004951110826750593</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01169976752349461</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0002380873682703244</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.005025472985825408</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.002881127837883538</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.008669122586069489</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01070913665765932</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01128426181524438</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.009779133632643695</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0003239337864602174</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0437765426496145</v>
+        <v>0.02644487750008224</v>
       </c>
       <c r="CC2">
         <v>0</v>
@@ -1339,100 +1339,100 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.2508452251781463</v>
+        <v>0.4419809879598977</v>
       </c>
       <c r="AX3">
-        <v>0.00195321233451767</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.1197566699132402</v>
+        <v>0.1796314211106156</v>
       </c>
       <c r="AZ3">
-        <v>0.01886493157700592</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.04406103252908699</v>
+        <v>0.02814056334670123</v>
       </c>
       <c r="BB3">
-        <v>0.008958121066016079</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.02446094671280105</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.001002133622738452</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.01317357857879383</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001606609300448242</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.01739815058457714</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.1437828727008037</v>
+        <v>0.2277154348646199</v>
       </c>
       <c r="BI3">
-        <v>0.06514805119998082</v>
+        <v>0.07034234216158107</v>
       </c>
       <c r="BJ3">
-        <v>0.0474425509843817</v>
+        <v>0.03490804888536379</v>
       </c>
       <c r="BK3">
-        <v>0.0125678076904204</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.03547032302431508</v>
+        <v>0.01094784264770151</v>
       </c>
       <c r="BM3">
-        <v>0.01389152095602371</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.02700901678885962</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001686808100498026</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0008997439792880778</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.02866341420971076</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.002550490484119844</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.02309758081924752</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.002991877948659485</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01352210298979607</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01441540297798052</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.02166196892558505</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001102450787770548</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>7.421697388227925E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.003887216682471336</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.004889372493890007</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.03316459788494355</v>
+        <v>0.006333359023519242</v>
       </c>
       <c r="CC3">
         <v>0</v>
@@ -1587,100 +1587,100 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.184592702948935</v>
+        <v>0.3442756950568736</v>
       </c>
       <c r="AY4">
-        <v>0.003829313725464167</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.1364924453013699</v>
+        <v>0.2371571227171417</v>
       </c>
       <c r="BA4">
-        <v>0.01850415060728946</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.04530860569973573</v>
+        <v>0.03409204164939818</v>
       </c>
       <c r="BC4">
-        <v>0.005991655292886908</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0215345061521339</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.02715434604404228</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01845124185191358</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.009843673937682299</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.04558843642173182</v>
+        <v>0.03471522058653918</v>
       </c>
       <c r="BI4">
-        <v>0.1164666481024375</v>
+        <v>0.192559964389379</v>
       </c>
       <c r="BJ4">
-        <v>0.05706812497293878</v>
+        <v>0.0602803195828915</v>
       </c>
       <c r="BK4">
-        <v>0.06216352766603848</v>
+        <v>0.07162770707466089</v>
       </c>
       <c r="BL4">
-        <v>0.02922594317337352</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.03947921686536042</v>
+        <v>0.02111007772465678</v>
       </c>
       <c r="BN4">
-        <v>0.01690308165636401</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.02771552762764786</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.001862013309202181</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>3.398637334129975E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.008329919788072638</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.008367782232264863</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01674711269975161</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1.652965508288036E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.009693228374354991</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.007181086010802492</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.02025428317643912</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01069969899294368</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.007413829695364967</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.008294433412032287</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.002915140149322496</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.03187780808367872</v>
+        <v>0.004181851218459195</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -1832,100 +1832,100 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.2114565339225154</v>
+        <v>0.4128094834521216</v>
       </c>
       <c r="AY5">
-        <v>0.008847355756410848</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.1348373197965046</v>
+        <v>0.2385025157053878</v>
       </c>
       <c r="BA5">
-        <v>0.03040508861253977</v>
+        <v>0.0009215673708739964</v>
       </c>
       <c r="BB5">
-        <v>0.04825781342111557</v>
+        <v>0.04153610985733003</v>
       </c>
       <c r="BC5">
-        <v>0.001906152170948397</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.01540201247152504</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.02800055614670842</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.01284071182356588</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.007715432428867642</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.05079153544744548</v>
+        <v>0.04730026978197151</v>
       </c>
       <c r="BI5">
-        <v>0.09487868625895768</v>
+        <v>0.1475975341458309</v>
       </c>
       <c r="BJ5">
-        <v>0.02851015165003033</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0726086709853955</v>
+        <v>0.09693375641999971</v>
       </c>
       <c r="BL5">
-        <v>0.03159615472797737</v>
+        <v>0.003631215666487725</v>
       </c>
       <c r="BM5">
-        <v>0.0331037854604845</v>
+        <v>0.00706104125870681</v>
       </c>
       <c r="BN5">
-        <v>0.01982013556387402</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.02884942050836916</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001187571792513411</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001182213123535363</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.006276606198562879</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01012795938589557</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.03162924986128695</v>
+        <v>0.003706506341289998</v>
       </c>
       <c r="BU5">
-        <v>0.0002904745984395268</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.003572699688475443</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.002660025057820921</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01017708811835217</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.010620752307195</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0134131478376137</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0199785250401019</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.004884827241662989</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.02523533440649051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:81">
@@ -2074,100 +2074,100 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.16395982590816</v>
+        <v>0.2355107438981001</v>
       </c>
       <c r="AX6">
-        <v>0.005131401900800051</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.08606069918750249</v>
+        <v>0.09855863039227858</v>
       </c>
       <c r="AZ6">
-        <v>0.06800002060815184</v>
+        <v>0.06680669417788361</v>
       </c>
       <c r="BA6">
-        <v>0.08174569239837406</v>
+        <v>0.09097254663960415</v>
       </c>
       <c r="BB6">
-        <v>5.995705994189102E-06</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0009865381317301183</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.006928088108787929</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>5.469894608817773E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0005140809248661023</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.1411292152566441</v>
+        <v>0.1953729334632563</v>
       </c>
       <c r="BH6">
-        <v>0.1462434823831937</v>
+        <v>0.2043641727941662</v>
       </c>
       <c r="BI6">
-        <v>0.005722255130724187</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.03768829488512044</v>
+        <v>0.01351656017337642</v>
       </c>
       <c r="BK6">
-        <v>0.01465655367091866</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.04692789058772447</v>
+        <v>0.02976041569114785</v>
       </c>
       <c r="BM6">
-        <v>0.01136097759983911</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.06705046145579148</v>
+        <v>0.06513730277018684</v>
       </c>
       <c r="BO6">
-        <v>0.001321792584041549</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>8.967689474899201E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.004272635389262834</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.001240745399168196</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0234959381346293</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0008938592003211915</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.003916577626223335</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0005534023858861975</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.007383527562479986</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01231499884450243</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01795455256679555</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01825713806835199</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0009308419388072526</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.02320814061437006</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -2304,100 +2304,100 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0.1053822355034332</v>
+        <v>0.1857035407937287</v>
       </c>
       <c r="AS7">
-        <v>0.04589611010580452</v>
+        <v>0.03915994148728092</v>
       </c>
       <c r="AT7">
-        <v>0.02771174272882696</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>0.009131680410763746</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>0.0002156888599751324</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>0.09397662847383841</v>
+        <v>0.1576059181091225</v>
       </c>
       <c r="AX7">
-        <v>0.02019769432069572</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>0.002751322310550138</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.0505683543643248</v>
+        <v>0.05066997825477463</v>
       </c>
       <c r="BA7">
-        <v>0.08639321832992312</v>
+        <v>0.1389242472139683</v>
       </c>
       <c r="BB7">
-        <v>0.005821127677368193</v>
+        <v>0</v>
       </c>
       <c r="BC7">
-        <v>0.0107157312587746</v>
+        <v>0</v>
       </c>
       <c r="BD7">
-        <v>0.03278276244116066</v>
+        <v>0.006855313258623099</v>
       </c>
       <c r="BE7">
-        <v>0.06557682148046771</v>
+        <v>0.0876432182594047</v>
       </c>
       <c r="BF7">
-        <v>0.000103889145812293</v>
+        <v>0</v>
       </c>
       <c r="BG7">
-        <v>0.02918889670397948</v>
+        <v>0</v>
       </c>
       <c r="BH7">
-        <v>0.02097294284240188</v>
+        <v>0</v>
       </c>
       <c r="BI7">
-        <v>4.740645281467772E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0.03205712305311646</v>
+        <v>0.005067706366903026</v>
       </c>
       <c r="BK7">
-        <v>0.001835370037122766</v>
+        <v>0</v>
       </c>
       <c r="BL7">
-        <v>0.08160292410146865</v>
+        <v>0.1271233952794665</v>
       </c>
       <c r="BM7">
-        <v>0.02664649914262959</v>
+        <v>0</v>
       </c>
       <c r="BN7">
-        <v>0.04303916304467276</v>
+        <v>0.03212187500425332</v>
       </c>
       <c r="BO7">
-        <v>0.06646193054430688</v>
+        <v>0.08982367743583852</v>
       </c>
       <c r="BP7">
-        <v>0.001060228024715412</v>
+        <v>0</v>
       </c>
       <c r="BQ7">
-        <v>0.0481515938077966</v>
+        <v>0.04471630774340501</v>
       </c>
       <c r="BR7">
-        <v>0.02875202855344375</v>
+        <v>0</v>
       </c>
       <c r="BS7">
-        <v>0.001487134916017105</v>
+        <v>0</v>
       </c>
       <c r="BT7">
-        <v>0.0133213047769511</v>
+        <v>0</v>
       </c>
       <c r="BU7">
-        <v>0.004051857799224761</v>
+        <v>0</v>
       </c>
       <c r="BV7">
-        <v>0.04403896564206765</v>
+        <v>0.03458488079323051</v>
       </c>
       <c r="BW7">
-        <v>0.0001022889530845127</v>
+        <v>0</v>
       </c>
       <c r="BX7">
         <v>0</v>
@@ -2564,100 +2564,100 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.142876832261454</v>
+        <v>0.2256082619233813</v>
       </c>
       <c r="AX8">
-        <v>0.05798167438914762</v>
+        <v>0.05592730410806684</v>
       </c>
       <c r="AY8">
-        <v>0.01048818840076031</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0.02608053658425237</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>0.009192548542798442</v>
+        <v>0</v>
       </c>
       <c r="BB8">
-        <v>0.1464291786918596</v>
+        <v>0.2327083788194435</v>
       </c>
       <c r="BC8">
-        <v>0.07566911839562675</v>
+        <v>0.09127940799175782</v>
       </c>
       <c r="BD8">
-        <v>0.01168819813956412</v>
+        <v>0</v>
       </c>
       <c r="BE8">
-        <v>0.07431958256798454</v>
+        <v>0.08858207474473277</v>
       </c>
       <c r="BF8">
-        <v>0.02523426312284604</v>
+        <v>0</v>
       </c>
       <c r="BG8">
-        <v>0.006831857121629389</v>
+        <v>0</v>
       </c>
       <c r="BH8">
-        <v>0.0002083300327096901</v>
+        <v>0</v>
       </c>
       <c r="BI8">
-        <v>0.1292289662293976</v>
+        <v>0.1983301103951437</v>
       </c>
       <c r="BJ8">
-        <v>0.01722425502152413</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>0.01714081244243012</v>
+        <v>0</v>
       </c>
       <c r="BL8">
-        <v>0.0002185943517620744</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>0.0005924428994500043</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>1.567439270440266E-07</v>
+        <v>0</v>
       </c>
       <c r="BO8">
-        <v>0.002239556201398477</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>0.005337424780210793</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>0.05485130637711323</v>
+        <v>0.04967060047609576</v>
       </c>
       <c r="BR8">
-        <v>0.01259648292179323</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>0.02992035206901491</v>
+        <v>0</v>
       </c>
       <c r="BT8">
-        <v>0.03530565749445145</v>
+        <v>0.01060448049172191</v>
       </c>
       <c r="BU8">
-        <v>0.007016598661059591</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>0.05365992932609372</v>
+        <v>0.04728938104965637</v>
       </c>
       <c r="BW8">
-        <v>0.002308370793002874</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>0.005548171855272109</v>
+        <v>0</v>
       </c>
       <c r="BY8">
-        <v>0.001851496768888428</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>0.01909583973706261</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>0.007359683241548493</v>
+        <v>0</v>
       </c>
       <c r="CB8">
-        <v>0.01150359383396611</v>
+        <v>0</v>
       </c>
       <c r="CC8">
         <v>0</v>
@@ -2812,100 +2812,100 @@
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.18484450731921</v>
+        <v>0.2904224675364697</v>
       </c>
       <c r="AY9">
-        <v>0.01977755398457232</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>0.03936115847528271</v>
+        <v>0.01755755364177688</v>
       </c>
       <c r="BA9">
-        <v>0.006605087852976011</v>
+        <v>0</v>
       </c>
       <c r="BB9">
-        <v>0.0004149753635932591</v>
+        <v>0</v>
       </c>
       <c r="BC9">
-        <v>0.1013811401379909</v>
+        <v>0.1338806730270762</v>
       </c>
       <c r="BD9">
-        <v>0.1504972973100499</v>
+        <v>0.2260017033999036</v>
       </c>
       <c r="BE9">
-        <v>0.001219622472025986</v>
+        <v>0</v>
       </c>
       <c r="BF9">
-        <v>0.04686478762328124</v>
+        <v>0.03163117194680253</v>
       </c>
       <c r="BG9">
-        <v>0.05276229388090854</v>
+        <v>0.04269238651168884</v>
       </c>
       <c r="BH9">
-        <v>0.004672524147861875</v>
+        <v>0</v>
       </c>
       <c r="BI9">
-        <v>0.004439929792052016</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0.09642987738709524</v>
+        <v>0.124594209009517</v>
       </c>
       <c r="BK9">
-        <v>0.05590967475904927</v>
+        <v>0.04859553501034621</v>
       </c>
       <c r="BL9">
-        <v>0.00619473451127214</v>
+        <v>0</v>
       </c>
       <c r="BM9">
-        <v>0.001026031571716235</v>
+        <v>0</v>
       </c>
       <c r="BN9">
-        <v>0.0005271829210747726</v>
+        <v>0</v>
       </c>
       <c r="BO9">
-        <v>0.005695081742306878</v>
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>0.002000992006187152</v>
+        <v>0</v>
       </c>
       <c r="BQ9">
-        <v>0.0004426051512756528</v>
+        <v>0</v>
       </c>
       <c r="BR9">
-        <v>0.02793296735310173</v>
+        <v>0</v>
       </c>
       <c r="BS9">
-        <v>0.03319396551187057</v>
+        <v>0.005990521467265231</v>
       </c>
       <c r="BT9">
-        <v>0.003424829416788693</v>
+        <v>0</v>
       </c>
       <c r="BU9">
-        <v>0.06274030759656582</v>
+        <v>0.06140689834413032</v>
       </c>
       <c r="BV9">
-        <v>0.0009802065509063955</v>
+        <v>0</v>
       </c>
       <c r="BW9">
-        <v>0.03918485331089087</v>
+        <v>0.01722688010502335</v>
       </c>
       <c r="BX9">
-        <v>0.01588429124790577</v>
+        <v>0</v>
       </c>
       <c r="BY9">
-        <v>0.001565729226011266</v>
+        <v>0</v>
       </c>
       <c r="BZ9">
-        <v>0.001215188034731221</v>
+        <v>0</v>
       </c>
       <c r="CA9">
-        <v>0.01287466263791465</v>
+        <v>0</v>
       </c>
       <c r="CB9">
-        <v>0.01986254410969386</v>
+        <v>0</v>
       </c>
       <c r="CC9">
-        <v>7.33965938370079E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:81">
@@ -3036,100 +3036,100 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.0732197835655479</v>
+        <v>0.09608413039119584</v>
       </c>
       <c r="AR10">
-        <v>1.24594074335029E-07</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.08035677883874311</v>
+        <v>0.1119507527538695</v>
       </c>
       <c r="AT10">
-        <v>0.001455216057512652</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>0.004621508884345648</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>0.02122504687281142</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>0.08333047989676919</v>
+        <v>0.118561740978058</v>
       </c>
       <c r="AX10">
-        <v>0.0040076485544323</v>
+        <v>0</v>
       </c>
       <c r="AY10">
-        <v>0.004092291629390084</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <v>0.1125250740102415</v>
+        <v>0.1834657491913938</v>
       </c>
       <c r="BA10">
-        <v>0.004184435469221507</v>
+        <v>0</v>
       </c>
       <c r="BB10">
-        <v>0.02507290695281726</v>
+        <v>0</v>
       </c>
       <c r="BC10">
-        <v>0.0005114935965709346</v>
+        <v>0</v>
       </c>
       <c r="BD10">
-        <v>0.1120382439222804</v>
+        <v>0.182383452109108</v>
       </c>
       <c r="BE10">
-        <v>0.01279659810932273</v>
+        <v>0</v>
       </c>
       <c r="BF10">
-        <v>0.02755169179656349</v>
+        <v>0</v>
       </c>
       <c r="BG10">
-        <v>0.02893401089489338</v>
+        <v>0</v>
       </c>
       <c r="BH10">
-        <v>0.004754606175216627</v>
+        <v>0</v>
       </c>
       <c r="BI10">
-        <v>0.01585361461024899</v>
+        <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0.02063006583492599</v>
+        <v>0</v>
       </c>
       <c r="BK10">
-        <v>0.03251198799854996</v>
+        <v>0.005584530103621161</v>
       </c>
       <c r="BL10">
-        <v>0.08614187259197323</v>
+        <v>0.1248118931079769</v>
       </c>
       <c r="BM10">
-        <v>0.008459219110395438</v>
+        <v>0</v>
       </c>
       <c r="BN10">
-        <v>0.08248793308450481</v>
+        <v>0.1166886316958813</v>
       </c>
       <c r="BO10">
-        <v>0.008155230636076623</v>
+        <v>0</v>
       </c>
       <c r="BP10">
-        <v>0.02147020596772993</v>
+        <v>0</v>
       </c>
       <c r="BQ10">
-        <v>0.05253541227527052</v>
+        <v>0.05009963754659998</v>
       </c>
       <c r="BR10">
-        <v>0.0003678155611199845</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>0.0172915691710005</v>
+        <v>0</v>
       </c>
       <c r="BT10">
-        <v>0.001136846501744826</v>
+        <v>0</v>
       </c>
       <c r="BU10">
-        <v>0.03466431627353828</v>
+        <v>0.01036948212229546</v>
       </c>
       <c r="BV10">
-        <v>0.01761597056216655</v>
+        <v>0</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2287128588305127</v>
+        <v>0.1657932836780984</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1150946338147968</v>
+        <v>0.1136279968264102</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3179,19 +3179,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.06078484963582166</v>
       </c>
       <c r="J11">
-        <v>0.1546567690930395</v>
+        <v>0.1317920733640376</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.01896964096775624</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.01515838837914315</v>
       </c>
       <c r="M11">
-        <v>0.25371364692142</v>
+        <v>0.1772718407678616</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.005442941864084632</v>
       </c>
       <c r="Q11">
-        <v>0.2478220913402309</v>
+        <v>0.1745668637551255</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3233,16 +3233,16 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.01241465776073519</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.008868994905449137</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.03539208659203726</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.03382474954965284</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.04609163195378683</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -3802,103 +3802,103 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.2070015311741191</v>
+        <v>0.3397647674220748</v>
       </c>
       <c r="AX2">
-        <v>0.2138736190561268</v>
+        <v>0.3397647674220748</v>
       </c>
       <c r="AY2">
-        <v>0.3246874949167471</v>
+        <v>0.4948917177604283</v>
       </c>
       <c r="AZ2">
-        <v>0.3464638061927059</v>
+        <v>0.4948917177604283</v>
       </c>
       <c r="BA2">
-        <v>0.3953633211650467</v>
+        <v>0.5311704395679282</v>
       </c>
       <c r="BB2">
-        <v>0.4067937145007048</v>
+        <v>0.5311704395679282</v>
       </c>
       <c r="BC2">
-        <v>0.4251281371051706</v>
+        <v>0.5311704395679282</v>
       </c>
       <c r="BD2">
-        <v>0.4386452456461393</v>
+        <v>0.5311704395679282</v>
       </c>
       <c r="BE2">
-        <v>0.4507346770303385</v>
+        <v>0.5311704395679282</v>
       </c>
       <c r="BF2">
-        <v>0.4596630890675145</v>
+        <v>0.5311704395679282</v>
       </c>
       <c r="BG2">
-        <v>0.4853561468750337</v>
+        <v>0.5311704395679282</v>
       </c>
       <c r="BH2">
-        <v>0.6167287526334679</v>
+        <v>0.7257610715811741</v>
       </c>
       <c r="BI2">
-        <v>0.6504178004634413</v>
+        <v>0.7328424141528765</v>
       </c>
       <c r="BJ2">
-        <v>0.7620226460866638</v>
+        <v>0.8894876771049443</v>
       </c>
       <c r="BK2">
-        <v>0.7634483738063776</v>
+        <v>0.8894876771049443</v>
       </c>
       <c r="BL2">
-        <v>0.834631344014352</v>
+        <v>0.96854079151387</v>
       </c>
       <c r="BM2">
-        <v>0.8532145501680798</v>
+        <v>0.96854079151387</v>
       </c>
       <c r="BN2">
-        <v>0.8858267817690149</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BO2">
-        <v>0.8862435403273505</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BP2">
-        <v>0.8864375613890498</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BQ2">
-        <v>0.8906623023300838</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BR2">
-        <v>0.8956134131568344</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BS2">
-        <v>0.9073131806803291</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BT2">
-        <v>0.9075512680485994</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BU2">
-        <v>0.9125767410344249</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BV2">
-        <v>0.9154578688723084</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BW2">
-        <v>0.9241269914583778</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BX2">
-        <v>0.9348361281160371</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BY2">
-        <v>0.9461203899312814</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="BZ2">
-        <v>0.9558995235639252</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="CA2">
-        <v>0.9562234573503854</v>
+        <v>0.9735551224999178</v>
       </c>
       <c r="CB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:81">
@@ -4047,103 +4047,103 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.2508452251781463</v>
+        <v>0.4419809879598977</v>
       </c>
       <c r="AX3">
-        <v>0.252798437512664</v>
+        <v>0.4419809879598977</v>
       </c>
       <c r="AY3">
-        <v>0.3725551074259042</v>
+        <v>0.6216124090705133</v>
       </c>
       <c r="AZ3">
-        <v>0.3914200390029101</v>
+        <v>0.6216124090705133</v>
       </c>
       <c r="BA3">
-        <v>0.4354810715319971</v>
+        <v>0.6497529724172145</v>
       </c>
       <c r="BB3">
-        <v>0.4444391925980132</v>
+        <v>0.6497529724172145</v>
       </c>
       <c r="BC3">
-        <v>0.4689001393108142</v>
+        <v>0.6497529724172145</v>
       </c>
       <c r="BD3">
-        <v>0.4699022729335526</v>
+        <v>0.6497529724172145</v>
       </c>
       <c r="BE3">
-        <v>0.4830758515123464</v>
+        <v>0.6497529724172145</v>
       </c>
       <c r="BF3">
-        <v>0.4846824608127947</v>
+        <v>0.6497529724172145</v>
       </c>
       <c r="BG3">
-        <v>0.5020806113973718</v>
+        <v>0.6497529724172145</v>
       </c>
       <c r="BH3">
-        <v>0.6458634840981755</v>
+        <v>0.8774684072818344</v>
       </c>
       <c r="BI3">
-        <v>0.7110115352981563</v>
+        <v>0.9478107494434155</v>
       </c>
       <c r="BJ3">
-        <v>0.758454086282538</v>
+        <v>0.9827187983287793</v>
       </c>
       <c r="BK3">
-        <v>0.7710218939729584</v>
+        <v>0.9827187983287793</v>
       </c>
       <c r="BL3">
-        <v>0.8064922169972735</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BM3">
-        <v>0.8203837379532972</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BN3">
-        <v>0.8473927547421568</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BO3">
-        <v>0.8490795628426548</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BP3">
-        <v>0.8499793068219429</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BQ3">
-        <v>0.8786427210316536</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BR3">
-        <v>0.8811932115157735</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BS3">
-        <v>0.904290792335021</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BT3">
-        <v>0.9072826702836805</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BU3">
-        <v>0.9208047732734765</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BV3">
-        <v>0.935220176251457</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BW3">
-        <v>0.9568821451770421</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BX3">
-        <v>0.9579845959648126</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BY3">
-        <v>0.9580588129386949</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="BZ3">
-        <v>0.9619460296211663</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="CA3">
-        <v>0.9668354021150563</v>
+        <v>0.9936666409764808</v>
       </c>
       <c r="CB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:81">
@@ -4295,100 +4295,100 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.184592702948935</v>
+        <v>0.3442756950568736</v>
       </c>
       <c r="AY4">
-        <v>0.1884220166743992</v>
+        <v>0.3442756950568736</v>
       </c>
       <c r="AZ4">
-        <v>0.3249144619757691</v>
+        <v>0.5814328177740153</v>
       </c>
       <c r="BA4">
-        <v>0.3434186125830586</v>
+        <v>0.5814328177740153</v>
       </c>
       <c r="BB4">
-        <v>0.3887272182827943</v>
+        <v>0.6155248594234135</v>
       </c>
       <c r="BC4">
-        <v>0.3947188735756812</v>
+        <v>0.6155248594234135</v>
       </c>
       <c r="BD4">
-        <v>0.4162533797278151</v>
+        <v>0.6155248594234135</v>
       </c>
       <c r="BE4">
-        <v>0.4434077257718574</v>
+        <v>0.6155248594234135</v>
       </c>
       <c r="BF4">
-        <v>0.461858967623771</v>
+        <v>0.6155248594234135</v>
       </c>
       <c r="BG4">
-        <v>0.4717026415614533</v>
+        <v>0.6155248594234135</v>
       </c>
       <c r="BH4">
-        <v>0.5172910779831851</v>
+        <v>0.6502400800099527</v>
       </c>
       <c r="BI4">
-        <v>0.6337577260856226</v>
+        <v>0.8428000443993318</v>
       </c>
       <c r="BJ4">
-        <v>0.6908258510585614</v>
+        <v>0.9030803639822232</v>
       </c>
       <c r="BK4">
-        <v>0.7529893787245999</v>
+        <v>0.9747080710568842</v>
       </c>
       <c r="BL4">
-        <v>0.7822153218979735</v>
+        <v>0.9747080710568842</v>
       </c>
       <c r="BM4">
-        <v>0.8216945387633339</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BN4">
-        <v>0.8385976204196979</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BO4">
-        <v>0.8663131480473457</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BP4">
-        <v>0.8681751613565479</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BQ4">
-        <v>0.8682091477298892</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BR4">
-        <v>0.8765390675179618</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BS4">
-        <v>0.8849068497502267</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BT4">
-        <v>0.9016539624499783</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BU4">
-        <v>0.9016704921050612</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BV4">
-        <v>0.9113637204794163</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BW4">
-        <v>0.9185448064902187</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BX4">
-        <v>0.9387990896666578</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BY4">
-        <v>0.9494987886596015</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="BZ4">
-        <v>0.9569126183549664</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="CA4">
-        <v>0.9652070517669987</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="CB4">
-        <v>0.9681221919163212</v>
+        <v>0.995818148781541</v>
       </c>
       <c r="CC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -4540,97 +4540,97 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.2114565339225154</v>
+        <v>0.4128094834521216</v>
       </c>
       <c r="AY5">
-        <v>0.2203038896789262</v>
+        <v>0.4128094834521216</v>
       </c>
       <c r="AZ5">
-        <v>0.3551412094754308</v>
+        <v>0.6513119991575094</v>
       </c>
       <c r="BA5">
-        <v>0.3855462980879706</v>
+        <v>0.6522335665283834</v>
       </c>
       <c r="BB5">
-        <v>0.4338041115090862</v>
+        <v>0.6937696763857134</v>
       </c>
       <c r="BC5">
-        <v>0.4357102636800346</v>
+        <v>0.6937696763857134</v>
       </c>
       <c r="BD5">
-        <v>0.4511122761515596</v>
+        <v>0.6937696763857134</v>
       </c>
       <c r="BE5">
-        <v>0.4791128322982681</v>
+        <v>0.6937696763857134</v>
       </c>
       <c r="BF5">
-        <v>0.491953544121834</v>
+        <v>0.6937696763857134</v>
       </c>
       <c r="BG5">
-        <v>0.4996689765507016</v>
+        <v>0.6937696763857134</v>
       </c>
       <c r="BH5">
-        <v>0.5504605119981471</v>
+        <v>0.741069946167685</v>
       </c>
       <c r="BI5">
-        <v>0.6453391982571047</v>
+        <v>0.8886674803135158</v>
       </c>
       <c r="BJ5">
-        <v>0.6738493499071351</v>
+        <v>0.8886674803135158</v>
       </c>
       <c r="BK5">
-        <v>0.7464580208925305</v>
+        <v>0.9856012367335155</v>
       </c>
       <c r="BL5">
-        <v>0.7780541756205079</v>
+        <v>0.9892324524000032</v>
       </c>
       <c r="BM5">
-        <v>0.8111579610809925</v>
+        <v>0.99629349365871</v>
       </c>
       <c r="BN5">
-        <v>0.8309780966448665</v>
+        <v>0.99629349365871</v>
       </c>
       <c r="BO5">
-        <v>0.8598275171532357</v>
+        <v>0.99629349365871</v>
       </c>
       <c r="BP5">
-        <v>0.8610150889457491</v>
+        <v>0.99629349365871</v>
       </c>
       <c r="BQ5">
-        <v>0.8611333102581026</v>
+        <v>0.99629349365871</v>
       </c>
       <c r="BR5">
-        <v>0.8674099164566654</v>
+        <v>0.99629349365871</v>
       </c>
       <c r="BS5">
-        <v>0.877537875842561</v>
+        <v>0.99629349365871</v>
       </c>
       <c r="BT5">
-        <v>0.9091671257038479</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>0.9094576003022875</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0.9130302999907629</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0.9156903250485838</v>
+        <v>1</v>
       </c>
       <c r="BX5">
-        <v>0.925867413166936</v>
+        <v>1</v>
       </c>
       <c r="BY5">
-        <v>0.9364881654741311</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
-        <v>0.9499013133117448</v>
+        <v>1</v>
       </c>
       <c r="CA5">
-        <v>0.9698798383518467</v>
+        <v>1</v>
       </c>
       <c r="CB5">
-        <v>0.9747646655935096</v>
+        <v>1</v>
       </c>
       <c r="CC5">
         <v>1</v>
@@ -4782,103 +4782,103 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.16395982590816</v>
+        <v>0.2355107438981001</v>
       </c>
       <c r="AX6">
-        <v>0.1690912278089601</v>
+        <v>0.2355107438981001</v>
       </c>
       <c r="AY6">
-        <v>0.2551519269964626</v>
+        <v>0.3340693742903786</v>
       </c>
       <c r="AZ6">
-        <v>0.3231519476046144</v>
+        <v>0.4008760684682622</v>
       </c>
       <c r="BA6">
-        <v>0.4048976400029884</v>
+        <v>0.4918486151078664</v>
       </c>
       <c r="BB6">
-        <v>0.4049036357089826</v>
+        <v>0.4918486151078664</v>
       </c>
       <c r="BC6">
-        <v>0.4058901738407127</v>
+        <v>0.4918486151078664</v>
       </c>
       <c r="BD6">
-        <v>0.4128182619495007</v>
+        <v>0.4918486151078664</v>
       </c>
       <c r="BE6">
-        <v>0.4128729608955888</v>
+        <v>0.4918486151078664</v>
       </c>
       <c r="BF6">
-        <v>0.4133870418204549</v>
+        <v>0.4918486151078664</v>
       </c>
       <c r="BG6">
-        <v>0.554516257077099</v>
+        <v>0.6872215485711226</v>
       </c>
       <c r="BH6">
-        <v>0.7007597394602927</v>
+        <v>0.8915857213652888</v>
       </c>
       <c r="BI6">
-        <v>0.7064819945910169</v>
+        <v>0.8915857213652888</v>
       </c>
       <c r="BJ6">
-        <v>0.7441702894761374</v>
+        <v>0.9051022815386652</v>
       </c>
       <c r="BK6">
-        <v>0.7588268431470561</v>
+        <v>0.9051022815386652</v>
       </c>
       <c r="BL6">
-        <v>0.8057547337347806</v>
+        <v>0.9348626972298131</v>
       </c>
       <c r="BM6">
-        <v>0.8171157113346197</v>
+        <v>0.9348626972298131</v>
       </c>
       <c r="BN6">
-        <v>0.8841661727904112</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO6">
-        <v>0.8854879653744527</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP6">
-        <v>0.8855776422692018</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ6">
-        <v>0.8898502776584646</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR6">
-        <v>0.8910910230576328</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS6">
-        <v>0.914586961192262</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT6">
-        <v>0.9154808203925832</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU6">
-        <v>0.9193973980188065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV6">
-        <v>0.9199508004046927</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW6">
-        <v>0.9273343279671726</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX6">
-        <v>0.939649326811675</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY6">
-        <v>0.9576038793784706</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ6">
-        <v>0.9758610174468225</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA6">
-        <v>0.9767918593856297</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:81">
@@ -5012,118 +5012,118 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0.1053822355034332</v>
+        <v>0.1857035407937287</v>
       </c>
       <c r="AS7">
-        <v>0.1512783456092377</v>
+        <v>0.2248634822810097</v>
       </c>
       <c r="AT7">
-        <v>0.1789900883380647</v>
+        <v>0.2248634822810097</v>
       </c>
       <c r="AU7">
-        <v>0.1881217687488284</v>
+        <v>0.2248634822810097</v>
       </c>
       <c r="AV7">
-        <v>0.1883374576088035</v>
+        <v>0.2248634822810097</v>
       </c>
       <c r="AW7">
-        <v>0.282314086082642</v>
+        <v>0.3824694003901322</v>
       </c>
       <c r="AX7">
-        <v>0.3025117804033377</v>
+        <v>0.3824694003901322</v>
       </c>
       <c r="AY7">
-        <v>0.3052631027138878</v>
+        <v>0.3824694003901322</v>
       </c>
       <c r="AZ7">
-        <v>0.3558314570782126</v>
+        <v>0.4331393786449068</v>
       </c>
       <c r="BA7">
-        <v>0.4422246754081358</v>
+        <v>0.5720636258588752</v>
       </c>
       <c r="BB7">
-        <v>0.448045803085504</v>
+        <v>0.5720636258588752</v>
       </c>
       <c r="BC7">
-        <v>0.4587615343442786</v>
+        <v>0.5720636258588752</v>
       </c>
       <c r="BD7">
-        <v>0.4915442967854392</v>
+        <v>0.5789189391174983</v>
       </c>
       <c r="BE7">
-        <v>0.5571211182659069</v>
+        <v>0.6665621573769029</v>
       </c>
       <c r="BF7">
-        <v>0.5572250074117192</v>
+        <v>0.6665621573769029</v>
       </c>
       <c r="BG7">
-        <v>0.5864139041156987</v>
+        <v>0.6665621573769029</v>
       </c>
       <c r="BH7">
-        <v>0.6073868469581006</v>
+        <v>0.6665621573769029</v>
       </c>
       <c r="BI7">
-        <v>0.6073915876033821</v>
+        <v>0.6665621573769029</v>
       </c>
       <c r="BJ7">
-        <v>0.6394487106564986</v>
+        <v>0.671629863743806</v>
       </c>
       <c r="BK7">
-        <v>0.6412840806936213</v>
+        <v>0.671629863743806</v>
       </c>
       <c r="BL7">
-        <v>0.7228870047950899</v>
+        <v>0.7987532590232724</v>
       </c>
       <c r="BM7">
-        <v>0.7495335039377196</v>
+        <v>0.7987532590232724</v>
       </c>
       <c r="BN7">
-        <v>0.7925726669823923</v>
+        <v>0.8308751340275258</v>
       </c>
       <c r="BO7">
-        <v>0.8590345975266991</v>
+        <v>0.9206988114633643</v>
       </c>
       <c r="BP7">
-        <v>0.8600948255514145</v>
+        <v>0.9206988114633643</v>
       </c>
       <c r="BQ7">
-        <v>0.908246419359211</v>
+        <v>0.9654151192067693</v>
       </c>
       <c r="BR7">
-        <v>0.9369984479126547</v>
+        <v>0.9654151192067693</v>
       </c>
       <c r="BS7">
-        <v>0.9384855828286719</v>
+        <v>0.9654151192067693</v>
       </c>
       <c r="BT7">
-        <v>0.951806887605623</v>
+        <v>0.9654151192067693</v>
       </c>
       <c r="BU7">
-        <v>0.9558587454048478</v>
+        <v>0.9654151192067693</v>
       </c>
       <c r="BV7">
-        <v>0.9998977110469155</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:81">
@@ -5272,97 +5272,97 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.142876832261454</v>
+        <v>0.2256082619233813</v>
       </c>
       <c r="AX8">
-        <v>0.2008585066506016</v>
+        <v>0.2815355660314481</v>
       </c>
       <c r="AY8">
-        <v>0.2113466950513619</v>
+        <v>0.2815355660314481</v>
       </c>
       <c r="AZ8">
-        <v>0.2374272316356143</v>
+        <v>0.2815355660314481</v>
       </c>
       <c r="BA8">
-        <v>0.2466197801784128</v>
+        <v>0.2815355660314481</v>
       </c>
       <c r="BB8">
-        <v>0.3930489588702724</v>
+        <v>0.5142439448508916</v>
       </c>
       <c r="BC8">
-        <v>0.4687180772658991</v>
+        <v>0.6055233528426495</v>
       </c>
       <c r="BD8">
-        <v>0.4804062754054632</v>
+        <v>0.6055233528426495</v>
       </c>
       <c r="BE8">
-        <v>0.5547258579734478</v>
+        <v>0.6941054275873823</v>
       </c>
       <c r="BF8">
-        <v>0.5799601210962938</v>
+        <v>0.6941054275873823</v>
       </c>
       <c r="BG8">
-        <v>0.5867919782179232</v>
+        <v>0.6941054275873823</v>
       </c>
       <c r="BH8">
-        <v>0.5870003082506329</v>
+        <v>0.6941054275873823</v>
       </c>
       <c r="BI8">
-        <v>0.7162292744800305</v>
+        <v>0.892435537982526</v>
       </c>
       <c r="BJ8">
-        <v>0.7334535295015546</v>
+        <v>0.892435537982526</v>
       </c>
       <c r="BK8">
-        <v>0.7505943419439848</v>
+        <v>0.892435537982526</v>
       </c>
       <c r="BL8">
-        <v>0.7508129362957469</v>
+        <v>0.892435537982526</v>
       </c>
       <c r="BM8">
-        <v>0.7514053791951969</v>
+        <v>0.892435537982526</v>
       </c>
       <c r="BN8">
-        <v>0.751405535939124</v>
+        <v>0.892435537982526</v>
       </c>
       <c r="BO8">
-        <v>0.7536450921405224</v>
+        <v>0.892435537982526</v>
       </c>
       <c r="BP8">
-        <v>0.7589825169207333</v>
+        <v>0.892435537982526</v>
       </c>
       <c r="BQ8">
-        <v>0.8138338232978465</v>
+        <v>0.9421061384586217</v>
       </c>
       <c r="BR8">
-        <v>0.8264303062196398</v>
+        <v>0.9421061384586217</v>
       </c>
       <c r="BS8">
-        <v>0.8563506582886546</v>
+        <v>0.9421061384586217</v>
       </c>
       <c r="BT8">
-        <v>0.8916563157831061</v>
+        <v>0.9527106189503436</v>
       </c>
       <c r="BU8">
-        <v>0.8986729144441657</v>
+        <v>0.9527106189503436</v>
       </c>
       <c r="BV8">
-        <v>0.9523328437702595</v>
+        <v>1</v>
       </c>
       <c r="BW8">
-        <v>0.9546412145632623</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0.9601893864185345</v>
+        <v>1</v>
       </c>
       <c r="BY8">
-        <v>0.9620408831874229</v>
+        <v>1</v>
       </c>
       <c r="BZ8">
-        <v>0.9811367229244855</v>
+        <v>1</v>
       </c>
       <c r="CA8">
-        <v>0.988496406166034</v>
+        <v>1</v>
       </c>
       <c r="CB8">
         <v>1</v>
@@ -5520,100 +5520,100 @@
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.18484450731921</v>
+        <v>0.2904224675364697</v>
       </c>
       <c r="AY9">
-        <v>0.2046220613037823</v>
+        <v>0.2904224675364697</v>
       </c>
       <c r="AZ9">
-        <v>0.243983219779065</v>
+        <v>0.3079800211782466</v>
       </c>
       <c r="BA9">
-        <v>0.250588307632041</v>
+        <v>0.3079800211782466</v>
       </c>
       <c r="BB9">
-        <v>0.2510032829956343</v>
+        <v>0.3079800211782466</v>
       </c>
       <c r="BC9">
-        <v>0.3523844231336252</v>
+        <v>0.4418606942053228</v>
       </c>
       <c r="BD9">
-        <v>0.5028817204436751</v>
+        <v>0.6678623976052265</v>
       </c>
       <c r="BE9">
-        <v>0.5041013429157011</v>
+        <v>0.6678623976052265</v>
       </c>
       <c r="BF9">
-        <v>0.5509661305389824</v>
+        <v>0.699493569552029</v>
       </c>
       <c r="BG9">
-        <v>0.6037284244198909</v>
+        <v>0.7421859560637178</v>
       </c>
       <c r="BH9">
-        <v>0.6084009485677528</v>
+        <v>0.7421859560637178</v>
       </c>
       <c r="BI9">
-        <v>0.6128408783598048</v>
+        <v>0.7421859560637178</v>
       </c>
       <c r="BJ9">
-        <v>0.7092707557469</v>
+        <v>0.8667801650732349</v>
       </c>
       <c r="BK9">
-        <v>0.7651804305059493</v>
+        <v>0.915375700083581</v>
       </c>
       <c r="BL9">
-        <v>0.7713751650172215</v>
+        <v>0.915375700083581</v>
       </c>
       <c r="BM9">
-        <v>0.7724011965889377</v>
+        <v>0.915375700083581</v>
       </c>
       <c r="BN9">
-        <v>0.7729283795100125</v>
+        <v>0.915375700083581</v>
       </c>
       <c r="BO9">
-        <v>0.7786234612523194</v>
+        <v>0.915375700083581</v>
       </c>
       <c r="BP9">
-        <v>0.7806244532585066</v>
+        <v>0.915375700083581</v>
       </c>
       <c r="BQ9">
-        <v>0.7810670584097823</v>
+        <v>0.915375700083581</v>
       </c>
       <c r="BR9">
-        <v>0.809000025762884</v>
+        <v>0.915375700083581</v>
       </c>
       <c r="BS9">
-        <v>0.8421939912747546</v>
+        <v>0.9213662215508462</v>
       </c>
       <c r="BT9">
-        <v>0.8456188206915433</v>
+        <v>0.9213662215508462</v>
       </c>
       <c r="BU9">
-        <v>0.9083591282881091</v>
+        <v>0.9827731198949765</v>
       </c>
       <c r="BV9">
-        <v>0.9093393348390154</v>
+        <v>0.9827731198949765</v>
       </c>
       <c r="BW9">
-        <v>0.9485241881499062</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX9">
-        <v>0.964408479397812</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY9">
-        <v>0.9659742086238233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ9">
-        <v>0.9671893966585545</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA9">
-        <v>0.9800640592964691</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB9">
-        <v>0.999926603406163</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:81">
@@ -5744,97 +5744,97 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.0732197835655479</v>
+        <v>0.09608413039119584</v>
       </c>
       <c r="AR10">
-        <v>0.07321990815962223</v>
+        <v>0.09608413039119584</v>
       </c>
       <c r="AS10">
-        <v>0.1535766869983654</v>
+        <v>0.2080348831450654</v>
       </c>
       <c r="AT10">
-        <v>0.155031903055878</v>
+        <v>0.2080348831450654</v>
       </c>
       <c r="AU10">
-        <v>0.1596534119402236</v>
+        <v>0.2080348831450654</v>
       </c>
       <c r="AV10">
-        <v>0.1808784588130351</v>
+        <v>0.2080348831450654</v>
       </c>
       <c r="AW10">
-        <v>0.2642089387098043</v>
+        <v>0.3265966241231234</v>
       </c>
       <c r="AX10">
-        <v>0.2682165872642366</v>
+        <v>0.3265966241231234</v>
       </c>
       <c r="AY10">
-        <v>0.2723088788936266</v>
+        <v>0.3265966241231234</v>
       </c>
       <c r="AZ10">
-        <v>0.3848339529038681</v>
+        <v>0.5100623733145172</v>
       </c>
       <c r="BA10">
-        <v>0.3890183883730896</v>
+        <v>0.5100623733145172</v>
       </c>
       <c r="BB10">
-        <v>0.4140912953259069</v>
+        <v>0.5100623733145172</v>
       </c>
       <c r="BC10">
-        <v>0.4146027889224778</v>
+        <v>0.5100623733145172</v>
       </c>
       <c r="BD10">
-        <v>0.5266410328447582</v>
+        <v>0.6924458254236252</v>
       </c>
       <c r="BE10">
-        <v>0.5394376309540809</v>
+        <v>0.6924458254236252</v>
       </c>
       <c r="BF10">
-        <v>0.5669893227506444</v>
+        <v>0.6924458254236252</v>
       </c>
       <c r="BG10">
-        <v>0.5959233336455377</v>
+        <v>0.6924458254236252</v>
       </c>
       <c r="BH10">
-        <v>0.6006779398207543</v>
+        <v>0.6924458254236252</v>
       </c>
       <c r="BI10">
-        <v>0.6165315544310034</v>
+        <v>0.6924458254236252</v>
       </c>
       <c r="BJ10">
-        <v>0.6371616202659294</v>
+        <v>0.6924458254236252</v>
       </c>
       <c r="BK10">
-        <v>0.6696736082644793</v>
+        <v>0.6980303555272463</v>
       </c>
       <c r="BL10">
-        <v>0.7558154808564526</v>
+        <v>0.8228422486352233</v>
       </c>
       <c r="BM10">
-        <v>0.764274699966848</v>
+        <v>0.8228422486352233</v>
       </c>
       <c r="BN10">
-        <v>0.8467626330513529</v>
+        <v>0.9395308803311045</v>
       </c>
       <c r="BO10">
-        <v>0.8549178636874295</v>
+        <v>0.9395308803311045</v>
       </c>
       <c r="BP10">
-        <v>0.8763880696551595</v>
+        <v>0.9395308803311045</v>
       </c>
       <c r="BQ10">
-        <v>0.92892348193043</v>
+        <v>0.9896305178777045</v>
       </c>
       <c r="BR10">
-        <v>0.9292912974915499</v>
+        <v>0.9896305178777045</v>
       </c>
       <c r="BS10">
-        <v>0.9465828666625504</v>
+        <v>0.9896305178777045</v>
       </c>
       <c r="BT10">
-        <v>0.9477197131642953</v>
+        <v>0.9896305178777045</v>
       </c>
       <c r="BU10">
-        <v>0.9823840294378335</v>
+        <v>1</v>
       </c>
       <c r="BV10">
         <v>1</v>
@@ -5872,94 +5872,94 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2287128588305127</v>
+        <v>0.1657932836780984</v>
       </c>
       <c r="E11">
-        <v>0.2287128588305127</v>
+        <v>0.1657932836780984</v>
       </c>
       <c r="F11">
-        <v>0.3438074926453095</v>
+        <v>0.2794212805045087</v>
       </c>
       <c r="G11">
-        <v>0.3438074926453095</v>
+        <v>0.2794212805045087</v>
       </c>
       <c r="H11">
-        <v>0.3438074926453095</v>
+        <v>0.2794212805045087</v>
       </c>
       <c r="I11">
-        <v>0.3438074926453095</v>
+        <v>0.3402061301403303</v>
       </c>
       <c r="J11">
-        <v>0.498464261738349</v>
+        <v>0.4719982035043678</v>
       </c>
       <c r="K11">
-        <v>0.498464261738349</v>
+        <v>0.490967844472124</v>
       </c>
       <c r="L11">
-        <v>0.498464261738349</v>
+        <v>0.5061262328512672</v>
       </c>
       <c r="M11">
-        <v>0.7521779086597691</v>
+        <v>0.6833980736191289</v>
       </c>
       <c r="N11">
-        <v>0.7521779086597691</v>
+        <v>0.6833980736191289</v>
       </c>
       <c r="O11">
-        <v>0.7521779086597691</v>
+        <v>0.6833980736191289</v>
       </c>
       <c r="P11">
-        <v>0.7521779086597691</v>
+        <v>0.6888410154832135</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.8758225369990741</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.8758225369990741</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.8846915319045232</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.9200836184965605</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9200836184965605</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9200836184965605</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9539083680462134</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -6165,34 +6165,34 @@
         <v>81</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>46</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5311704395679282</v>
       </c>
       <c r="F2">
-        <v>0.6167287526334679</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2">
         <v>48</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
       </c>
       <c r="L2" t="s">
         <v>105</v>
@@ -6206,34 +6206,34 @@
         <v>82</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>46</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6216124090705133</v>
       </c>
       <c r="F3">
-        <v>0.5020806113973718</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3">
         <v>48</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
       </c>
       <c r="L3" t="s">
         <v>105</v>
@@ -6247,34 +6247,34 @@
         <v>83</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>47</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5814328177740153</v>
       </c>
       <c r="F4">
-        <v>0.5172910779831851</v>
+        <v>51</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4">
         <v>48</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
       </c>
       <c r="L4" t="s">
         <v>105</v>
@@ -6288,34 +6288,34 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>47</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.6513119991575094</v>
       </c>
       <c r="F5">
-        <v>0.5504605119981471</v>
+        <v>51</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5">
         <v>48</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
       </c>
       <c r="L5" t="s">
         <v>105</v>
@@ -6329,34 +6329,34 @@
         <v>85</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>46</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.6872215485711226</v>
+      </c>
+      <c r="F6">
         <v>58</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.554516257077099</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6">
         <v>48</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" t="s">
-        <v>104</v>
       </c>
       <c r="L6" t="s">
         <v>105</v>
@@ -6370,34 +6370,34 @@
         <v>86</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>41</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5720636258588752</v>
       </c>
       <c r="F7">
-        <v>0.5571211182659069</v>
+        <v>52</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7">
         <v>48</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
       </c>
       <c r="L7" t="s">
         <v>105</v>
@@ -6411,34 +6411,34 @@
         <v>87</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5142439448508916</v>
       </c>
       <c r="F8">
-        <v>0.5547258579734478</v>
+        <v>53</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8">
         <v>48</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
       </c>
       <c r="L8" t="s">
         <v>105</v>
@@ -6452,34 +6452,34 @@
         <v>88</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>47</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.6678623976052265</v>
+      </c>
+      <c r="F9">
         <v>55</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5028817204436751</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9">
         <v>48</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
       </c>
       <c r="L9" t="s">
         <v>105</v>
@@ -6493,34 +6493,34 @@
         <v>89</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>40</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5100623733145172</v>
       </c>
       <c r="F10">
-        <v>0.5266410328447582</v>
+        <v>51</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10">
         <v>48</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
       </c>
       <c r="L10" t="s">
         <v>105</v>
@@ -6534,34 +6534,34 @@
         <v>90</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5061262328512672</v>
       </c>
       <c r="F11">
-        <v>0.7521779086597691</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11">
         <v>48</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
       </c>
       <c r="L11" t="s">
         <v>105</v>
@@ -6629,34 +6629,34 @@
         <v>81</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>46</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7257610715811741</v>
       </c>
       <c r="F2">
-        <v>0.7620226460866638</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2">
         <v>48</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
       </c>
       <c r="L2" t="s">
         <v>105</v>
@@ -6670,34 +6670,34 @@
         <v>82</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>46</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8774684072818344</v>
       </c>
       <c r="F3">
-        <v>0.7110115352981563</v>
+        <v>59</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3">
         <v>48</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
       </c>
       <c r="L3" t="s">
         <v>105</v>
@@ -6711,34 +6711,34 @@
         <v>83</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>47</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8428000443993318</v>
       </c>
       <c r="F4">
-        <v>0.7529893787245999</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4">
         <v>48</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
       </c>
       <c r="L4" t="s">
         <v>105</v>
@@ -6752,34 +6752,34 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>47</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.741069946167685</v>
       </c>
       <c r="F5">
-        <v>0.7464580208925305</v>
+        <v>59</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5">
         <v>48</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
       </c>
       <c r="L5" t="s">
         <v>105</v>
@@ -6793,34 +6793,34 @@
         <v>85</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>46</v>
       </c>
       <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.8915857213652888</v>
+      </c>
+      <c r="F6">
         <v>59</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7007597394602927</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6">
         <v>48</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" t="s">
-        <v>104</v>
       </c>
       <c r="L6" t="s">
         <v>105</v>
@@ -6834,34 +6834,34 @@
         <v>86</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>41</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.7987532590232724</v>
+      </c>
+      <c r="F7">
         <v>63</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7228870047950899</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>22</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7">
         <v>48</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
       </c>
       <c r="L7" t="s">
         <v>105</v>
@@ -6875,34 +6875,34 @@
         <v>87</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.892435537982526</v>
+      </c>
+      <c r="F8">
         <v>60</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7162292744800305</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>14</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8">
         <v>48</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
       </c>
       <c r="L8" t="s">
         <v>105</v>
@@ -6916,34 +6916,34 @@
         <v>88</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>47</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7421859560637178</v>
       </c>
       <c r="F9">
-        <v>0.7092707557469</v>
+        <v>58</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9">
         <v>48</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
       </c>
       <c r="L9" t="s">
         <v>105</v>
@@ -6957,34 +6957,34 @@
         <v>89</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>40</v>
       </c>
       <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>0.8228422486352233</v>
+      </c>
+      <c r="F10">
         <v>63</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7558154808564526</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>23</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10">
         <v>48</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
       </c>
       <c r="L10" t="s">
         <v>105</v>
@@ -6998,34 +6998,34 @@
         <v>90</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8634078792383389</v>
       </c>
       <c r="F11">
-        <v>0.7521779086597691</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11">
         <v>48</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
       </c>
       <c r="L11" t="s">
         <v>105</v>
@@ -7093,34 +7093,34 @@
         <v>81</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>46</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8894876771049443</v>
       </c>
       <c r="F2">
-        <v>0.834631344014352</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2">
         <v>48</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
       </c>
       <c r="L2" t="s">
         <v>105</v>
@@ -7134,34 +7134,34 @@
         <v>82</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>46</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8774684072818344</v>
       </c>
       <c r="F3">
-        <v>0.8064922169972735</v>
+        <v>59</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3">
         <v>48</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
       </c>
       <c r="L3" t="s">
         <v>105</v>
@@ -7175,34 +7175,34 @@
         <v>83</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>47</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8428000443993318</v>
       </c>
       <c r="F4">
-        <v>0.8216945387633339</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4">
         <v>48</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
       </c>
       <c r="L4" t="s">
         <v>105</v>
@@ -7216,34 +7216,34 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>47</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8886674803135158</v>
       </c>
       <c r="F5">
-        <v>0.8111579610809925</v>
+        <v>60</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5">
         <v>48</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
       </c>
       <c r="L5" t="s">
         <v>105</v>
@@ -7257,34 +7257,34 @@
         <v>85</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>46</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8915857213652888</v>
       </c>
       <c r="F6">
-        <v>0.8057547337347806</v>
+        <v>59</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6">
         <v>48</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" t="s">
-        <v>104</v>
       </c>
       <c r="L6" t="s">
         <v>105</v>
@@ -7298,34 +7298,34 @@
         <v>86</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>41</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8308751340275258</v>
       </c>
       <c r="F7">
-        <v>0.8590345975266991</v>
+        <v>65</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7">
         <v>48</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
       </c>
       <c r="L7" t="s">
         <v>105</v>
@@ -7339,34 +7339,34 @@
         <v>87</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
-        <v>68</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.892435537982526</v>
       </c>
       <c r="F8">
-        <v>0.8138338232978465</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8">
         <v>48</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
       </c>
       <c r="L8" t="s">
         <v>105</v>
@@ -7380,34 +7380,34 @@
         <v>88</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>47</v>
       </c>
       <c r="D9">
-        <v>69</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8667801650732349</v>
       </c>
       <c r="F9">
-        <v>0.809000025762884</v>
+        <v>61</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9">
         <v>48</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
       </c>
       <c r="L9" t="s">
         <v>105</v>
@@ -7421,34 +7421,34 @@
         <v>89</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>40</v>
       </c>
       <c r="D10">
-        <v>65</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8228422486352233</v>
       </c>
       <c r="F10">
-        <v>0.8467626330513529</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10">
         <v>48</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
       </c>
       <c r="L10" t="s">
         <v>105</v>
@@ -7462,34 +7462,34 @@
         <v>90</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.8634078792383389</v>
+      </c>
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11">
         <v>48</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
       </c>
       <c r="L11" t="s">
         <v>105</v>
@@ -7557,34 +7557,34 @@
         <v>81</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>46</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.96854079151387</v>
       </c>
       <c r="F2">
-        <v>0.9073131806803291</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2">
         <v>48</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
       </c>
       <c r="L2" t="s">
         <v>105</v>
@@ -7598,34 +7598,34 @@
         <v>82</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>46</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9478107494434155</v>
       </c>
       <c r="F3">
-        <v>0.904290792335021</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3">
         <v>48</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
       </c>
       <c r="L3" t="s">
         <v>105</v>
@@ -7639,34 +7639,34 @@
         <v>83</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>47</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9030803639822232</v>
       </c>
       <c r="F4">
-        <v>0.9016539624499783</v>
+        <v>61</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4">
         <v>48</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
       </c>
       <c r="L4" t="s">
         <v>105</v>
@@ -7680,34 +7680,34 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>47</v>
       </c>
       <c r="D5">
-        <v>71</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9856012367335155</v>
       </c>
       <c r="F5">
-        <v>0.9091671257038479</v>
+        <v>62</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5">
         <v>48</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
       </c>
       <c r="L5" t="s">
         <v>105</v>
@@ -7721,34 +7721,34 @@
         <v>85</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>46</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9051022815386652</v>
       </c>
       <c r="F6">
-        <v>0.914586961192262</v>
+        <v>61</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6">
         <v>48</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" t="s">
-        <v>104</v>
       </c>
       <c r="L6" t="s">
         <v>105</v>
@@ -7762,34 +7762,34 @@
         <v>86</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>41</v>
       </c>
       <c r="D7">
-        <v>68</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9206988114633643</v>
       </c>
       <c r="F7">
-        <v>0.908246419359211</v>
+        <v>66</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7">
         <v>48</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
       </c>
       <c r="L7" t="s">
         <v>105</v>
@@ -7803,34 +7803,34 @@
         <v>87</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
-        <v>73</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9421061384586217</v>
       </c>
       <c r="F8">
-        <v>0.9523328437702595</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8">
         <v>48</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
       </c>
       <c r="L8" t="s">
         <v>105</v>
@@ -7844,34 +7844,34 @@
         <v>88</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>47</v>
       </c>
       <c r="D9">
-        <v>72</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.915375700083581</v>
       </c>
       <c r="F9">
-        <v>0.9083591282881091</v>
+        <v>62</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9">
         <v>48</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
       </c>
       <c r="L9" t="s">
         <v>105</v>
@@ -7885,34 +7885,34 @@
         <v>89</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>40</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9395308803311045</v>
       </c>
       <c r="F10">
-        <v>0.92892348193043</v>
+        <v>65</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10">
         <v>48</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
       </c>
       <c r="L10" t="s">
         <v>105</v>
@@ -7926,34 +7926,34 @@
         <v>90</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9200836184965605</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11">
         <v>48</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
       </c>
       <c r="L11" t="s">
         <v>105</v>
